--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -300,7 +300,7 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>17</v>
@@ -373,8 +373,12 @@
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
+      <c r="B8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
@@ -383,10 +387,10 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -422,7 +426,7 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>9</v>
@@ -509,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A68" sqref="A68:XFD68"/>
@@ -1933,6 +1937,445 @@
       <c r="C67" t="inlineStr">
         <is>
           <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:18:00</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laptop Charger </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:18:10</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laptop Charger </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>add 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:18:26</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SAN124323</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:18:30</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SAN124354</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:18:38</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>USB DVD-RW Drive</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:18:48</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>USB DVD-RW Drive</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:22:16</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SAN124354</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:22:43</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laptop Charger </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:28:21</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>SAN123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:28:27</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>subtract</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SAN123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:47:39</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SAN13579</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:47:48</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SAN13578</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:47:55</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:48:02</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:58:04</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SAN124578</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:58:20</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:58:48</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SAN124589</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-01-14 14:59:05</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-01-14 15:06:14</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SAN223344</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-01-14 15:06:19</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SAN445566</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-01-14 15:06:40</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SAN223344</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-01-14 15:06:50</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>SAN445566</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2816,6 @@
           <t>add</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11" ht="12.75" customHeight="1"/>
     <row r="12" ht="12.75" customHeight="1"/>
@@ -2654,7 +3096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="A2:C4"/>
@@ -3574,7 +4016,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SAN106026</t>
+          <t>SAN106008</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3584,48 +4026,48 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024-01-10 16:52:08</t>
+          <t>2024-01-10 16:52:17</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SAN106008</t>
+          <t>SAN111111</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Laptop x360 G8</t>
+          <t>Laptop 840 G10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-01-10 16:52:17</t>
+          <t>2024-01-11 12:06:10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SAN111111</t>
+          <t>SAN120950</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Laptop 840 G10</t>
+          <t>Laptop 840 G9</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2024-01-11 12:06:10</t>
+          <t>2024-01-12 10:54:13</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SAN120950</t>
+          <t>SAN120864</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3634,23 +4076,6 @@
         </is>
       </c>
       <c r="C58" t="inlineStr">
-        <is>
-          <t>2024-01-12 10:54:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>SAN120864</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Laptop 840 G9</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>2024-01-12 10:54:20</t>
         </is>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -300,7 +300,7 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>17</v>
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A68" sqref="A68:XFD68"/>
@@ -2376,6 +2376,50 @@
       <c r="D89" t="inlineStr">
         <is>
           <t>SAN445566</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-01-14 15:21:48</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SAN111334</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-01-14 15:21:54</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SAN111334</t>
         </is>
       </c>
     </row>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="All SANs" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -87,32 +87,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
@@ -123,11 +98,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -323,1001 +326,997 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="25.33" customWidth="1" style="9" min="1" max="3"/>
+    <col width="25.33" customWidth="1" style="10" min="1" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="10">
-      <c r="A1" s="11" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="11">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>SAN Number</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="10">
-      <c r="A2" s="12" t="n"/>
-      <c r="B2" s="12" t="n"/>
-      <c r="C2" s="12" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customFormat="1" customHeight="1" s="12">
-      <c r="A3" s="9" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="11"/>
+    <row r="3" ht="12.75" customFormat="1" customHeight="1" s="13">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>SAN125045</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:34</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="10">
-      <c r="A4" s="9" t="inlineStr">
+    <row r="4" ht="12.75" customHeight="1" s="11">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>SAN125047</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:47</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="10">
-      <c r="A5" s="9" t="inlineStr">
+    <row r="5" ht="12.75" customHeight="1" s="11">
+      <c r="A5" s="10" t="inlineStr">
         <is>
           <t>SAN125043</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:53</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" s="10">
-      <c r="A6" s="9" t="inlineStr">
+    <row r="6" ht="12.75" customHeight="1" s="11">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>SAN125067</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:56</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="10">
-      <c r="A7" s="9" t="inlineStr">
+    <row r="7" ht="12.75" customHeight="1" s="11">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>SAN125078</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:01</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="10">
-      <c r="A8" s="9" t="inlineStr">
+    <row r="8" ht="12.75" customHeight="1" s="11">
+      <c r="A8" s="10" t="inlineStr">
         <is>
           <t>SAN125060</t>
         </is>
       </c>
-      <c r="B8" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:05</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="10">
-      <c r="A9" s="9" t="inlineStr">
+    <row r="9" ht="12.75" customHeight="1" s="11">
+      <c r="A9" s="10" t="inlineStr">
         <is>
           <t>SAN125059</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:11</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" s="10">
-      <c r="A10" s="9" t="inlineStr">
+    <row r="10" ht="12.75" customHeight="1" s="11">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>SAN125065</t>
         </is>
       </c>
-      <c r="B10" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:17</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" s="10">
-      <c r="A11" s="9" t="inlineStr">
+    <row r="11" ht="12.75" customHeight="1" s="11">
+      <c r="A11" s="10" t="inlineStr">
         <is>
           <t>SAN125063</t>
         </is>
       </c>
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:23</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="10">
-      <c r="A12" s="9" t="inlineStr">
+    <row r="12" ht="12.75" customHeight="1" s="11">
+      <c r="A12" s="10" t="inlineStr">
         <is>
           <t>SAN125064</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:29</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" s="10">
-      <c r="A13" s="9" t="inlineStr">
+    <row r="13" ht="12.75" customHeight="1" s="11">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>SAN125054</t>
         </is>
       </c>
-      <c r="B13" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:34</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="10">
-      <c r="A14" s="9" t="inlineStr">
+    <row r="14" ht="12.75" customHeight="1" s="11">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>SAN125061</t>
         </is>
       </c>
-      <c r="B14" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:45</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="10">
-      <c r="A15" s="9" t="inlineStr">
+    <row r="15" ht="12.75" customHeight="1" s="11">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>SAN125071</t>
         </is>
       </c>
-      <c r="B15" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:59</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" s="10">
-      <c r="A16" s="9" t="inlineStr">
+    <row r="16" ht="12.75" customHeight="1" s="11">
+      <c r="A16" s="10" t="inlineStr">
         <is>
           <t>SAN125072</t>
         </is>
       </c>
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:09</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" s="10">
-      <c r="A17" s="9" t="inlineStr">
+    <row r="17" ht="12.75" customHeight="1" s="11">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>SAN125053</t>
         </is>
       </c>
-      <c r="B17" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C17" s="9" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:14</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1" s="10">
-      <c r="A18" s="9" t="inlineStr">
+    <row r="18" ht="12.75" customHeight="1" s="11">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>SAN125077</t>
         </is>
       </c>
-      <c r="B18" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:23</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1" s="10">
-      <c r="A19" s="9" t="inlineStr">
+    <row r="19" ht="12.75" customHeight="1" s="11">
+      <c r="A19" s="10" t="inlineStr">
         <is>
           <t>SAN125076</t>
         </is>
       </c>
-      <c r="B19" s="9" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C19" s="9" t="inlineStr">
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:28</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1" s="10">
-      <c r="A20" s="9" t="inlineStr">
+    <row r="20" ht="12.75" customHeight="1" s="11">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>SAN122589</t>
         </is>
       </c>
-      <c r="B20" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:28</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1" s="10">
-      <c r="A21" s="9" t="inlineStr">
+    <row r="21" ht="12.75" customHeight="1" s="11">
+      <c r="A21" s="10" t="inlineStr">
         <is>
           <t>SAN122596</t>
         </is>
       </c>
-      <c r="B21" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C21" s="9" t="inlineStr">
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:32</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" s="10">
-      <c r="A22" s="9" t="inlineStr">
+    <row r="22" ht="12.75" customHeight="1" s="11">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>SAN122603</t>
         </is>
       </c>
-      <c r="B22" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C22" s="9" t="inlineStr">
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:40</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1" s="10">
-      <c r="A23" s="9" t="inlineStr">
+    <row r="23" ht="12.75" customHeight="1" s="11">
+      <c r="A23" s="10" t="inlineStr">
         <is>
           <t>SAN122611</t>
         </is>
       </c>
-      <c r="B23" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C23" s="9" t="inlineStr">
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:47</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1" s="10">
-      <c r="A24" s="9" t="inlineStr">
+    <row r="24" ht="12.75" customHeight="1" s="11">
+      <c r="A24" s="10" t="inlineStr">
         <is>
           <t>SAN122590</t>
         </is>
       </c>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C24" s="9" t="inlineStr">
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:53</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1" s="10">
-      <c r="A25" s="9" t="inlineStr">
+    <row r="25" ht="12.75" customHeight="1" s="11">
+      <c r="A25" s="10" t="inlineStr">
         <is>
           <t>SAN122593</t>
         </is>
       </c>
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C25" s="9" t="inlineStr">
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:16</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1" s="10">
-      <c r="A26" s="9" t="inlineStr">
+    <row r="26" ht="12.75" customHeight="1" s="11">
+      <c r="A26" s="10" t="inlineStr">
         <is>
           <t>SAN122597</t>
         </is>
       </c>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C26" s="9" t="inlineStr">
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:40</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1" s="10">
-      <c r="A27" s="9" t="inlineStr">
+    <row r="27" ht="12.75" customHeight="1" s="11">
+      <c r="A27" s="10" t="inlineStr">
         <is>
           <t>SAN122602</t>
         </is>
       </c>
-      <c r="B27" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C27" s="9" t="inlineStr">
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:49</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1" s="10">
-      <c r="A28" s="9" t="inlineStr">
+    <row r="28" ht="12.75" customHeight="1" s="11">
+      <c r="A28" s="10" t="inlineStr">
         <is>
           <t>SAN122610</t>
         </is>
       </c>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C28" s="9" t="inlineStr">
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:53</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1" s="10">
-      <c r="A29" s="9" t="inlineStr">
+    <row r="29" ht="12.75" customHeight="1" s="11">
+      <c r="A29" s="10" t="inlineStr">
         <is>
           <t>SAN122599</t>
         </is>
       </c>
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C29" s="9" t="inlineStr">
+      <c r="B29" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C29" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:58</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1" s="10">
-      <c r="A30" s="9" t="inlineStr">
+    <row r="30" ht="12.75" customHeight="1" s="11">
+      <c r="A30" s="10" t="inlineStr">
         <is>
           <t>SAN122592</t>
         </is>
       </c>
-      <c r="B30" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C30" s="9" t="inlineStr">
+      <c r="B30" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C30" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:03</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1" s="10">
-      <c r="A31" s="9" t="inlineStr">
+    <row r="31" ht="12.75" customHeight="1" s="11">
+      <c r="A31" s="10" t="inlineStr">
         <is>
           <t>SAN122607</t>
         </is>
       </c>
-      <c r="B31" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C31" s="9" t="inlineStr">
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C31" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:08</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1" s="10">
-      <c r="A32" s="9" t="inlineStr">
+    <row r="32" ht="12.75" customHeight="1" s="11">
+      <c r="A32" s="10" t="inlineStr">
         <is>
           <t>SAN122608</t>
         </is>
       </c>
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C32" s="9" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C32" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:15</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1" s="10">
-      <c r="A33" s="9" t="inlineStr">
+    <row r="33" ht="12.75" customHeight="1" s="11">
+      <c r="A33" s="10" t="inlineStr">
         <is>
           <t>SAN122598</t>
         </is>
       </c>
-      <c r="B33" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C33" s="9" t="inlineStr">
+      <c r="B33" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C33" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:20</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1" s="10">
-      <c r="A34" s="9" t="inlineStr">
+    <row r="34" ht="12.75" customHeight="1" s="11">
+      <c r="A34" s="10" t="inlineStr">
         <is>
           <t>SAN122591</t>
         </is>
       </c>
-      <c r="B34" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
+      <c r="B34" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C34" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:26</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1" s="10">
-      <c r="A35" s="9" t="inlineStr">
+    <row r="35" ht="12.75" customHeight="1" s="11">
+      <c r="A35" s="10" t="inlineStr">
         <is>
           <t>SAN122613</t>
         </is>
       </c>
-      <c r="B35" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C35" s="9" t="inlineStr">
+      <c r="B35" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C35" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:42</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1" s="10">
-      <c r="A36" s="9" t="inlineStr">
+    <row r="36" ht="12.75" customHeight="1" s="11">
+      <c r="A36" s="10" t="inlineStr">
         <is>
           <t>SAN122604</t>
         </is>
       </c>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="inlineStr">
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C36" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:50</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1" s="10">
-      <c r="A37" s="9" t="inlineStr">
+    <row r="37" ht="12.75" customHeight="1" s="11">
+      <c r="A37" s="10" t="inlineStr">
         <is>
           <t>SAN122605</t>
         </is>
       </c>
-      <c r="B37" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C37" s="9" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:01</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1" s="10">
-      <c r="A38" s="9" t="inlineStr">
+    <row r="38" ht="12.75" customHeight="1" s="11">
+      <c r="A38" s="10" t="inlineStr">
         <is>
           <t>SAN122606</t>
         </is>
       </c>
-      <c r="B38" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C38" s="9" t="inlineStr">
+      <c r="B38" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C38" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:07</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1" s="10">
-      <c r="A39" s="9" t="inlineStr">
+    <row r="39" ht="12.75" customHeight="1" s="11">
+      <c r="A39" s="10" t="inlineStr">
         <is>
           <t>SAN122601</t>
         </is>
       </c>
-      <c r="B39" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C39" s="9" t="inlineStr">
+      <c r="B39" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:13</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1" s="10">
-      <c r="A40" s="9" t="inlineStr">
+    <row r="40" ht="12.75" customHeight="1" s="11">
+      <c r="A40" s="10" t="inlineStr">
         <is>
           <t>SAN122595</t>
         </is>
       </c>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
+      <c r="B40" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C40" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:19</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1" s="10">
-      <c r="A41" s="9" t="inlineStr">
+    <row r="41" ht="12.75" customHeight="1" s="11">
+      <c r="A41" s="10" t="inlineStr">
         <is>
           <t>SAN122609</t>
         </is>
       </c>
-      <c r="B41" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C41" s="9" t="inlineStr">
+      <c r="B41" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:15</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1" s="10">
-      <c r="A42" s="9" t="inlineStr">
+    <row r="42" ht="12.75" customHeight="1" s="11">
+      <c r="A42" s="10" t="inlineStr">
         <is>
           <t>SAN122594</t>
         </is>
       </c>
-      <c r="B42" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C42" s="9" t="inlineStr">
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:21</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1" s="10">
-      <c r="A43" s="9" t="inlineStr">
+    <row r="43" ht="12.75" customHeight="1" s="11">
+      <c r="A43" s="10" t="inlineStr">
         <is>
           <t>SAN122612</t>
         </is>
       </c>
-      <c r="B43" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C43" s="9" t="inlineStr">
+      <c r="B43" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:39</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1" s="10">
-      <c r="A44" s="9" t="inlineStr">
+    <row r="44" ht="12.75" customHeight="1" s="11">
+      <c r="A44" s="10" t="inlineStr">
         <is>
           <t>SAN122304</t>
         </is>
       </c>
-      <c r="B44" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C44" s="9" t="inlineStr">
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:46</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1" s="10">
-      <c r="A45" s="9" t="inlineStr">
+    <row r="45" ht="12.75" customHeight="1" s="11">
+      <c r="A45" s="10" t="inlineStr">
         <is>
           <t>SAN122305</t>
         </is>
       </c>
-      <c r="B45" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C45" s="9" t="inlineStr">
+      <c r="B45" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:53</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1" s="10">
-      <c r="A46" s="9" t="inlineStr">
+    <row r="46" ht="12.75" customHeight="1" s="11">
+      <c r="A46" s="10" t="inlineStr">
         <is>
           <t>SAN122600</t>
         </is>
       </c>
-      <c r="B46" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C46" s="9" t="inlineStr">
+      <c r="B46" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C46" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:44:23</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1" s="10">
-      <c r="A47" s="9" t="inlineStr">
+    <row r="47" ht="12.75" customHeight="1" s="11">
+      <c r="A47" s="10" t="inlineStr">
         <is>
           <t>SAN121911</t>
         </is>
       </c>
-      <c r="B47" s="9" t="inlineStr">
+      <c r="B47" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C47" s="9" t="inlineStr">
+      <c r="C47" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:07</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1" s="10">
-      <c r="A48" s="9" t="inlineStr">
+    <row r="48" ht="12.75" customHeight="1" s="11">
+      <c r="A48" s="10" t="inlineStr">
         <is>
           <t>SAN120358</t>
         </is>
       </c>
-      <c r="B48" s="9" t="inlineStr">
+      <c r="B48" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C48" s="9" t="inlineStr">
+      <c r="C48" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:19</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1" s="10">
-      <c r="A49" s="9" t="inlineStr">
+    <row r="49" ht="12.75" customHeight="1" s="11">
+      <c r="A49" s="10" t="inlineStr">
         <is>
           <t>SAN121929</t>
         </is>
       </c>
-      <c r="B49" s="9" t="inlineStr">
+      <c r="B49" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C49" s="9" t="inlineStr">
+      <c r="C49" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:29</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1" s="10">
-      <c r="A50" s="9" t="inlineStr">
+    <row r="50" ht="12.75" customHeight="1" s="11">
+      <c r="A50" s="10" t="inlineStr">
         <is>
           <t>SAN121895</t>
         </is>
       </c>
-      <c r="B50" s="9" t="inlineStr">
+      <c r="B50" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C50" s="9" t="inlineStr">
+      <c r="C50" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:38</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1" s="10">
-      <c r="A51" s="9" t="inlineStr">
+    <row r="51" ht="12.75" customHeight="1" s="11">
+      <c r="A51" s="10" t="inlineStr">
         <is>
           <t>SAN120286</t>
         </is>
       </c>
-      <c r="B51" s="9" t="inlineStr">
+      <c r="B51" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C51" s="9" t="inlineStr">
+      <c r="C51" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:46</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1" s="10">
-      <c r="A52" s="9" t="inlineStr">
+    <row r="52" ht="12.75" customHeight="1" s="11">
+      <c r="A52" s="10" t="inlineStr">
         <is>
           <t>SAN120342</t>
         </is>
       </c>
-      <c r="B52" s="9" t="inlineStr">
+      <c r="B52" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C52" s="9" t="inlineStr">
+      <c r="C52" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:57</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1" s="10">
-      <c r="A53" s="9" t="inlineStr">
+    <row r="53" ht="12.75" customHeight="1" s="11">
+      <c r="A53" s="10" t="inlineStr">
         <is>
           <t>SAN106013</t>
         </is>
       </c>
-      <c r="B53" s="9" t="inlineStr">
+      <c r="B53" s="10" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C53" s="9" t="inlineStr">
+      <c r="C53" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:51:46</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1" s="10">
-      <c r="A54" s="9" t="inlineStr">
+    <row r="54" ht="12.75" customHeight="1" s="11">
+      <c r="A54" s="10" t="inlineStr">
         <is>
           <t>SAN106014</t>
         </is>
       </c>
-      <c r="B54" s="9" t="inlineStr">
+      <c r="B54" s="10" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C54" s="9" t="inlineStr">
+      <c r="C54" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:00</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1" s="10">
-      <c r="A55" s="9" t="inlineStr">
+    <row r="55" ht="12.75" customHeight="1" s="11">
+      <c r="A55" s="10" t="inlineStr">
         <is>
           <t>SAN106008</t>
         </is>
       </c>
-      <c r="B55" s="9" t="inlineStr">
+      <c r="B55" s="10" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C55" s="9" t="inlineStr">
+      <c r="C55" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:17</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1" s="10">
-      <c r="A56" s="9" t="inlineStr">
+    <row r="56" ht="12.75" customHeight="1" s="11">
+      <c r="A56" s="10" t="inlineStr">
         <is>
           <t>SAN111111</t>
         </is>
       </c>
-      <c r="B56" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C56" s="9" t="inlineStr">
+      <c r="B56" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C56" s="10" t="inlineStr">
         <is>
           <t>2024-01-11 12:06:10</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1" s="10">
-      <c r="A57" s="9" t="inlineStr">
+    <row r="57" ht="12.75" customHeight="1" s="11">
+      <c r="A57" s="10" t="inlineStr">
         <is>
           <t>SAN120950</t>
         </is>
       </c>
-      <c r="B57" s="9" t="inlineStr">
+      <c r="B57" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C57" s="9" t="inlineStr">
+      <c r="C57" s="10" t="inlineStr">
         <is>
           <t>2024-01-12 10:54:13</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1" s="10">
-      <c r="A58" s="9" t="inlineStr">
+    <row r="58" ht="12.75" customHeight="1" s="11">
+      <c r="A58" s="10" t="inlineStr">
         <is>
           <t>SAN120864</t>
         </is>
       </c>
-      <c r="B58" s="9" t="inlineStr">
+      <c r="B58" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C58" s="9" t="inlineStr">
+      <c r="C58" s="10" t="inlineStr">
         <is>
           <t>2024-01-12 10:54:20</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="13" t="inlineStr">
+    <row r="59" ht="12.75" customHeight="1" s="11">
+      <c r="A59" s="10" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
-      <c r="B59" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C59" s="13" t="inlineStr">
+      <c r="B59" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C59" s="10" t="inlineStr">
         <is>
           <t>2024-01-29 21:48:25</t>
         </is>
@@ -1347,229 +1346,229 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="28" customWidth="1" style="13" min="1" max="1"/>
+    <col width="28" customWidth="1" style="14" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="14">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="15">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>LastCount</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>NewCount</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="10">
+    <row r="2" ht="12.75" customHeight="1" s="11">
       <c r="A2" s="16" t="inlineStr">
         <is>
           <t>Desktop Mini G9</t>
         </is>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="10" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="10">
+    <row r="3" ht="12.75" customHeight="1" s="11">
       <c r="A3" s="16" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="B3" s="9" t="n"/>
-      <c r="C3" s="9" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="10">
+      <c r="B3" s="10" t="n"/>
+      <c r="C3" s="10" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="11">
       <c r="A4" s="16" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G2</t>
         </is>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="10" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="10">
+    <row r="5" ht="12.75" customHeight="1" s="11">
       <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="10" t="n">
         <v>76</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="10" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" s="10">
+    <row r="6" ht="12.75" customHeight="1" s="11">
       <c r="A6" s="16" t="inlineStr">
         <is>
           <t>Laptop 840 G10</t>
         </is>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="10">
+    <row r="7" ht="12.75" customHeight="1" s="11">
       <c r="A7" s="16" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="10" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="10">
+    <row r="8" ht="12.75" customHeight="1" s="11">
       <c r="A8" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="10" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="10">
+    <row r="9" ht="12.75" customHeight="1" s="11">
       <c r="A9" s="16" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="10" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" s="10">
+    <row r="10" ht="12.75" customHeight="1" s="11">
       <c r="A10" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="10" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" s="10">
+    <row r="11" ht="12.75" customHeight="1" s="11">
       <c r="A11" s="16" t="inlineStr">
         <is>
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="10" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="10">
+    <row r="12" ht="12.75" customHeight="1" s="11">
       <c r="A12" s="16" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" s="10">
+    <row r="13" ht="12.75" customHeight="1" s="11">
       <c r="A13" s="16" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="B13" s="9" t="n">
-        <v>73</v>
-      </c>
-      <c r="C13" s="9" t="n">
+      <c r="B13" s="10" t="n">
+        <v>76</v>
+      </c>
+      <c r="C13" s="10" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="10">
+    <row r="14" ht="12.75" customHeight="1" s="11">
       <c r="A14" s="16" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="10" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="10">
+    <row r="15" ht="12.75" customHeight="1" s="11">
       <c r="A15" s="16" t="inlineStr">
         <is>
           <t>Wired Mouse</t>
         </is>
       </c>
-      <c r="B15" s="9" t="n"/>
-      <c r="C15" s="9" t="n"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1" s="10">
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="11">
       <c r="A16" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="B16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9" t="n">
+      <c r="B16" s="10" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1" s="10">
+      <c r="C16" s="10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="11">
       <c r="A17" s="16" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="B17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>5</v>
+      <c r="B17" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1593,2029 +1592,2158 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
+      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="18.34" customWidth="1" style="13" min="1" max="1"/>
-    <col width="20.56" customWidth="1" style="13" min="2" max="2"/>
-    <col width="18.22" customWidth="1" style="13" min="4" max="4"/>
+    <col width="18.34" customWidth="1" style="14" min="1" max="1"/>
+    <col width="20.56" customWidth="1" style="14" min="2" max="2"/>
+    <col width="18.22" customWidth="1" style="14" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="11">
-      <c r="A1" s="11" t="inlineStr">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="17">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="12" t="inlineStr">
         <is>
           <t>SAN Number</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="10">
-      <c r="A2" s="13" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="11">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:17:21</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Add 4</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="10">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="D2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="11">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:19:11</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
-      <c r="C3" s="13" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>Add 2</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="10">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="D3" s="10" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="11">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:19:40</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Add 36</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="10">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="D4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="11">
+      <c r="A5" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:20:03</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="10">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="11">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:21:17</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="C6" s="13" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>Add 76</t>
         </is>
       </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="10">
-      <c r="A7" s="13" t="inlineStr">
+      <c r="D6" s="10" t="n"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="11">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:21:35</t>
         </is>
       </c>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>Add 7</t>
         </is>
       </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="10">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="D7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="11">
+      <c r="A8" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:23:25</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>Add 70</t>
         </is>
       </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="10">
-      <c r="A9" s="13" t="inlineStr">
+      <c r="D8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="11">
+      <c r="A9" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:25:25</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="C9" s="13" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>Add 5</t>
         </is>
       </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="10">
-      <c r="A10" s="13" t="inlineStr">
+      <c r="D9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="11">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:26:48</t>
         </is>
       </c>
-      <c r="B10" s="13" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>Add 70</t>
         </is>
       </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="10">
-      <c r="A11" s="13" t="inlineStr">
+      <c r="D10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="11">
+      <c r="A11" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:28:33</t>
         </is>
       </c>
-      <c r="B11" s="13" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G2</t>
         </is>
       </c>
-      <c r="C11" s="13" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>Add 7</t>
         </is>
       </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="10">
-      <c r="A12" s="13" t="inlineStr">
+      <c r="D11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="11">
+      <c r="A12" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:34</t>
         </is>
       </c>
-      <c r="B12" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C12" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
         <is>
           <t>SAN125045</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" s="10">
-      <c r="A13" s="13" t="inlineStr">
+    <row r="13" ht="12.75" customHeight="1" s="11">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:47</t>
         </is>
       </c>
-      <c r="B13" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C13" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D13" s="13" t="inlineStr">
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D13" s="10" t="inlineStr">
         <is>
           <t>SAN125047</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="10">
-      <c r="A14" s="13" t="inlineStr">
+    <row r="14" ht="12.75" customHeight="1" s="11">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:53</t>
         </is>
       </c>
-      <c r="B14" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C14" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>SAN125043</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="10">
-      <c r="A15" s="13" t="inlineStr">
+    <row r="15" ht="12.75" customHeight="1" s="11">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:56</t>
         </is>
       </c>
-      <c r="B15" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C15" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D15" s="13" t="inlineStr">
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
         <is>
           <t>SAN125067</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" s="10">
-      <c r="A16" s="13" t="inlineStr">
+    <row r="16" ht="12.75" customHeight="1" s="11">
+      <c r="A16" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:01</t>
         </is>
       </c>
-      <c r="B16" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C16" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
         <is>
           <t>SAN125078</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" s="10">
-      <c r="A17" s="13" t="inlineStr">
+    <row r="17" ht="12.75" customHeight="1" s="11">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:05</t>
         </is>
       </c>
-      <c r="B17" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C17" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D17" s="13" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t>SAN125060</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1" s="10">
-      <c r="A18" s="13" t="inlineStr">
+    <row r="18" ht="12.75" customHeight="1" s="11">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:11</t>
         </is>
       </c>
-      <c r="B18" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C18" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
         <is>
           <t>SAN125059</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1" s="10">
-      <c r="A19" s="13" t="inlineStr">
+    <row r="19" ht="12.75" customHeight="1" s="11">
+      <c r="A19" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:17</t>
         </is>
       </c>
-      <c r="B19" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C19" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D19" s="13" t="inlineStr">
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
         <is>
           <t>SAN125065</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1" s="10">
-      <c r="A20" s="13" t="inlineStr">
+    <row r="20" ht="12.75" customHeight="1" s="11">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:23</t>
         </is>
       </c>
-      <c r="B20" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C20" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D20" s="13" t="inlineStr">
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
         <is>
           <t>SAN125063</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1" s="10">
-      <c r="A21" s="13" t="inlineStr">
+    <row r="21" ht="12.75" customHeight="1" s="11">
+      <c r="A21" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:29</t>
         </is>
       </c>
-      <c r="B21" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C21" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D21" s="13" t="inlineStr">
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D21" s="10" t="inlineStr">
         <is>
           <t>SAN125064</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" s="10">
-      <c r="A22" s="13" t="inlineStr">
+    <row r="22" ht="12.75" customHeight="1" s="11">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:34</t>
         </is>
       </c>
-      <c r="B22" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C22" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D22" s="13" t="inlineStr">
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
         <is>
           <t>SAN125054</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1" s="10">
-      <c r="A23" s="13" t="inlineStr">
+    <row r="23" ht="12.75" customHeight="1" s="11">
+      <c r="A23" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:45</t>
         </is>
       </c>
-      <c r="B23" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C23" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D23" s="13" t="inlineStr">
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
         <is>
           <t>SAN125061</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1" s="10">
-      <c r="A24" s="13" t="inlineStr">
+    <row r="24" ht="12.75" customHeight="1" s="11">
+      <c r="A24" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:59</t>
         </is>
       </c>
-      <c r="B24" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C24" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D24" s="13" t="inlineStr">
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
         <is>
           <t>SAN125071</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1" s="10">
-      <c r="A25" s="13" t="inlineStr">
+    <row r="25" ht="12.75" customHeight="1" s="11">
+      <c r="A25" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:09</t>
         </is>
       </c>
-      <c r="B25" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C25" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D25" s="13" t="inlineStr">
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
         <is>
           <t>SAN125072</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1" s="10">
-      <c r="A26" s="13" t="inlineStr">
+    <row r="26" ht="12.75" customHeight="1" s="11">
+      <c r="A26" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:14</t>
         </is>
       </c>
-      <c r="B26" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C26" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D26" s="13" t="inlineStr">
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
         <is>
           <t>SAN125053</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1" s="10">
-      <c r="A27" s="13" t="inlineStr">
+    <row r="27" ht="12.75" customHeight="1" s="11">
+      <c r="A27" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:23</t>
         </is>
       </c>
-      <c r="B27" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C27" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D27" s="13" t="inlineStr">
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D27" s="10" t="inlineStr">
         <is>
           <t>SAN125077</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1" s="10">
-      <c r="A28" s="13" t="inlineStr">
+    <row r="28" ht="12.75" customHeight="1" s="11">
+      <c r="A28" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:28</t>
         </is>
       </c>
-      <c r="B28" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C28" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
         <is>
           <t>SAN125076</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1" s="10">
-      <c r="A29" s="13" t="inlineStr">
+    <row r="29" ht="12.75" customHeight="1" s="11">
+      <c r="A29" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:34:13</t>
         </is>
       </c>
-      <c r="B29" s="13" t="inlineStr">
+      <c r="B29" s="10" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="C29" s="13" t="inlineStr">
+      <c r="C29" s="10" t="inlineStr">
         <is>
           <t>Add 3</t>
         </is>
       </c>
-    </row>
-    <row r="30" ht="12.75" customHeight="1" s="10">
-      <c r="A30" s="13" t="inlineStr">
+      <c r="D29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1" s="11">
+      <c r="A30" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:28</t>
         </is>
       </c>
-      <c r="B30" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C30" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D30" s="13" t="inlineStr">
+      <c r="B30" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C30" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D30" s="10" t="inlineStr">
         <is>
           <t>SAN122589</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1" s="10">
-      <c r="A31" s="13" t="inlineStr">
+    <row r="31" ht="12.75" customHeight="1" s="11">
+      <c r="A31" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:32</t>
         </is>
       </c>
-      <c r="B31" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C31" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D31" s="13" t="inlineStr">
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C31" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D31" s="10" t="inlineStr">
         <is>
           <t>SAN122596</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1" s="10">
-      <c r="A32" s="13" t="inlineStr">
+    <row r="32" ht="12.75" customHeight="1" s="11">
+      <c r="A32" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:40</t>
         </is>
       </c>
-      <c r="B32" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C32" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D32" s="13" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
         <is>
           <t>SAN122603</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1" s="10">
-      <c r="A33" s="13" t="inlineStr">
+    <row r="33" ht="12.75" customHeight="1" s="11">
+      <c r="A33" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:47</t>
         </is>
       </c>
-      <c r="B33" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C33" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D33" s="13" t="inlineStr">
+      <c r="B33" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C33" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D33" s="10" t="inlineStr">
         <is>
           <t>SAN122611</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1" s="10">
-      <c r="A34" s="13" t="inlineStr">
+    <row r="34" ht="12.75" customHeight="1" s="11">
+      <c r="A34" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:53</t>
         </is>
       </c>
-      <c r="B34" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C34" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D34" s="13" t="inlineStr">
+      <c r="B34" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
         <is>
           <t>SAN122590</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1" s="10">
-      <c r="A35" s="13" t="inlineStr">
+    <row r="35" ht="12.75" customHeight="1" s="11">
+      <c r="A35" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:16</t>
         </is>
       </c>
-      <c r="B35" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C35" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D35" s="13" t="inlineStr">
+      <c r="B35" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C35" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr">
         <is>
           <t>SAN122593</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1" s="10">
-      <c r="A36" s="13" t="inlineStr">
+    <row r="36" ht="12.75" customHeight="1" s="11">
+      <c r="A36" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:40</t>
         </is>
       </c>
-      <c r="B36" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C36" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D36" s="13" t="inlineStr">
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C36" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D36" s="10" t="inlineStr">
         <is>
           <t>SAN122597</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1" s="10">
-      <c r="A37" s="13" t="inlineStr">
+    <row r="37" ht="12.75" customHeight="1" s="11">
+      <c r="A37" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:49</t>
         </is>
       </c>
-      <c r="B37" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C37" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D37" s="13" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D37" s="10" t="inlineStr">
         <is>
           <t>SAN122602</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1" s="10">
-      <c r="A38" s="13" t="inlineStr">
+    <row r="38" ht="12.75" customHeight="1" s="11">
+      <c r="A38" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:53</t>
         </is>
       </c>
-      <c r="B38" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C38" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D38" s="13" t="inlineStr">
+      <c r="B38" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D38" s="10" t="inlineStr">
         <is>
           <t>SAN122610</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1" s="10">
-      <c r="A39" s="13" t="inlineStr">
+    <row r="39" ht="12.75" customHeight="1" s="11">
+      <c r="A39" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:58</t>
         </is>
       </c>
-      <c r="B39" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C39" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D39" s="13" t="inlineStr">
+      <c r="B39" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D39" s="10" t="inlineStr">
         <is>
           <t>SAN122599</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1" s="10">
-      <c r="A40" s="13" t="inlineStr">
+    <row r="40" ht="12.75" customHeight="1" s="11">
+      <c r="A40" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:03</t>
         </is>
       </c>
-      <c r="B40" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C40" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D40" s="13" t="inlineStr">
+      <c r="B40" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C40" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D40" s="10" t="inlineStr">
         <is>
           <t>SAN122592</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1" s="10">
-      <c r="A41" s="13" t="inlineStr">
+    <row r="41" ht="12.75" customHeight="1" s="11">
+      <c r="A41" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:08</t>
         </is>
       </c>
-      <c r="B41" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C41" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D41" s="13" t="inlineStr">
+      <c r="B41" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D41" s="10" t="inlineStr">
         <is>
           <t>SAN122607</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1" s="10">
-      <c r="A42" s="13" t="inlineStr">
+    <row r="42" ht="12.75" customHeight="1" s="11">
+      <c r="A42" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:15</t>
         </is>
       </c>
-      <c r="B42" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C42" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D42" s="13" t="inlineStr">
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D42" s="10" t="inlineStr">
         <is>
           <t>SAN122608</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1" s="10">
-      <c r="A43" s="13" t="inlineStr">
+    <row r="43" ht="12.75" customHeight="1" s="11">
+      <c r="A43" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:20</t>
         </is>
       </c>
-      <c r="B43" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C43" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D43" s="13" t="inlineStr">
+      <c r="B43" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D43" s="10" t="inlineStr">
         <is>
           <t>SAN122598</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1" s="10">
-      <c r="A44" s="13" t="inlineStr">
+    <row r="44" ht="12.75" customHeight="1" s="11">
+      <c r="A44" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:26</t>
         </is>
       </c>
-      <c r="B44" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C44" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D44" s="13" t="inlineStr">
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D44" s="10" t="inlineStr">
         <is>
           <t>SAN122591</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1" s="10">
-      <c r="A45" s="13" t="inlineStr">
+    <row r="45" ht="12.75" customHeight="1" s="11">
+      <c r="A45" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:42</t>
         </is>
       </c>
-      <c r="B45" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C45" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D45" s="13" t="inlineStr">
+      <c r="B45" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D45" s="10" t="inlineStr">
         <is>
           <t>SAN122613</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1" s="10">
-      <c r="A46" s="13" t="inlineStr">
+    <row r="46" ht="12.75" customHeight="1" s="11">
+      <c r="A46" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:50</t>
         </is>
       </c>
-      <c r="B46" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C46" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D46" s="13" t="inlineStr">
+      <c r="B46" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C46" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D46" s="10" t="inlineStr">
         <is>
           <t>SAN122604</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1" s="10">
-      <c r="A47" s="13" t="inlineStr">
+    <row r="47" ht="12.75" customHeight="1" s="11">
+      <c r="A47" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:01</t>
         </is>
       </c>
-      <c r="B47" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C47" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D47" s="13" t="inlineStr">
+      <c r="B47" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D47" s="10" t="inlineStr">
         <is>
           <t>SAN122605</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1" s="10">
-      <c r="A48" s="13" t="inlineStr">
+    <row r="48" ht="12.75" customHeight="1" s="11">
+      <c r="A48" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:07</t>
         </is>
       </c>
-      <c r="B48" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C48" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D48" s="13" t="inlineStr">
+      <c r="B48" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C48" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D48" s="10" t="inlineStr">
         <is>
           <t>SAN122606</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1" s="10">
-      <c r="A49" s="13" t="inlineStr">
+    <row r="49" ht="12.75" customHeight="1" s="11">
+      <c r="A49" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:13</t>
         </is>
       </c>
-      <c r="B49" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C49" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D49" s="13" t="inlineStr">
+      <c r="B49" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C49" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D49" s="10" t="inlineStr">
         <is>
           <t>SAN122601</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1" s="10">
-      <c r="A50" s="13" t="inlineStr">
+    <row r="50" ht="12.75" customHeight="1" s="11">
+      <c r="A50" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:19</t>
         </is>
       </c>
-      <c r="B50" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C50" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D50" s="13" t="inlineStr">
+      <c r="B50" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C50" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D50" s="10" t="inlineStr">
         <is>
           <t>SAN122595</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1" s="10">
-      <c r="A51" s="13" t="inlineStr">
+    <row r="51" ht="12.75" customHeight="1" s="11">
+      <c r="A51" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:15</t>
         </is>
       </c>
-      <c r="B51" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C51" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D51" s="13" t="inlineStr">
+      <c r="B51" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C51" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D51" s="10" t="inlineStr">
         <is>
           <t>SAN122609</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1" s="10">
-      <c r="A52" s="13" t="inlineStr">
+    <row r="52" ht="12.75" customHeight="1" s="11">
+      <c r="A52" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:21</t>
         </is>
       </c>
-      <c r="B52" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C52" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D52" s="13" t="inlineStr">
+      <c r="B52" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C52" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D52" s="10" t="inlineStr">
         <is>
           <t>SAN122594</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1" s="10">
-      <c r="A53" s="13" t="inlineStr">
+    <row r="53" ht="12.75" customHeight="1" s="11">
+      <c r="A53" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:39</t>
         </is>
       </c>
-      <c r="B53" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C53" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D53" s="13" t="inlineStr">
+      <c r="B53" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C53" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D53" s="10" t="inlineStr">
         <is>
           <t>SAN122612</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1" s="10">
-      <c r="A54" s="13" t="inlineStr">
+    <row r="54" ht="12.75" customHeight="1" s="11">
+      <c r="A54" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:46</t>
         </is>
       </c>
-      <c r="B54" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C54" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D54" s="13" t="inlineStr">
+      <c r="B54" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C54" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D54" s="10" t="inlineStr">
         <is>
           <t>SAN122304</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1" s="10">
-      <c r="A55" s="13" t="inlineStr">
+    <row r="55" ht="12.75" customHeight="1" s="11">
+      <c r="A55" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:53</t>
         </is>
       </c>
-      <c r="B55" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C55" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D55" s="13" t="inlineStr">
+      <c r="B55" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C55" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D55" s="10" t="inlineStr">
         <is>
           <t>SAN122305</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1" s="10">
-      <c r="A56" s="13" t="inlineStr">
+    <row r="56" ht="12.75" customHeight="1" s="11">
+      <c r="A56" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:44:23</t>
         </is>
       </c>
-      <c r="B56" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C56" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D56" s="13" t="inlineStr">
+      <c r="B56" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C56" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D56" s="10" t="inlineStr">
         <is>
           <t>SAN122600</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1" s="10">
-      <c r="A57" s="13" t="inlineStr">
+    <row r="57" ht="12.75" customHeight="1" s="11">
+      <c r="A57" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:07</t>
         </is>
       </c>
-      <c r="B57" s="13" t="inlineStr">
+      <c r="B57" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C57" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D57" s="13" t="inlineStr">
+      <c r="C57" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D57" s="10" t="inlineStr">
         <is>
           <t>SAN121911</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1" s="10">
-      <c r="A58" s="13" t="inlineStr">
+    <row r="58" ht="12.75" customHeight="1" s="11">
+      <c r="A58" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:19</t>
         </is>
       </c>
-      <c r="B58" s="13" t="inlineStr">
+      <c r="B58" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C58" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D58" s="13" t="inlineStr">
+      <c r="C58" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D58" s="10" t="inlineStr">
         <is>
           <t>SAN120358</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1" s="10">
-      <c r="A59" s="13" t="inlineStr">
+    <row r="59" ht="12.75" customHeight="1" s="11">
+      <c r="A59" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:29</t>
         </is>
       </c>
-      <c r="B59" s="13" t="inlineStr">
+      <c r="B59" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C59" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D59" s="13" t="inlineStr">
+      <c r="C59" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D59" s="10" t="inlineStr">
         <is>
           <t>SAN121929</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1" s="10">
-      <c r="A60" s="13" t="inlineStr">
+    <row r="60" ht="12.75" customHeight="1" s="11">
+      <c r="A60" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:38</t>
         </is>
       </c>
-      <c r="B60" s="13" t="inlineStr">
+      <c r="B60" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C60" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D60" s="13" t="inlineStr">
+      <c r="C60" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D60" s="10" t="inlineStr">
         <is>
           <t>SAN121895</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1" s="10">
-      <c r="A61" s="13" t="inlineStr">
+    <row r="61" ht="12.75" customHeight="1" s="11">
+      <c r="A61" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:46</t>
         </is>
       </c>
-      <c r="B61" s="13" t="inlineStr">
+      <c r="B61" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C61" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D61" s="13" t="inlineStr">
+      <c r="C61" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D61" s="10" t="inlineStr">
         <is>
           <t>SAN120286</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1" s="10">
-      <c r="A62" s="13" t="inlineStr">
+    <row r="62" ht="12.75" customHeight="1" s="11">
+      <c r="A62" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:57</t>
         </is>
       </c>
-      <c r="B62" s="13" t="inlineStr">
+      <c r="B62" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C62" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D62" s="13" t="inlineStr">
+      <c r="C62" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D62" s="10" t="inlineStr">
         <is>
           <t>SAN120342</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1" s="10">
-      <c r="A63" s="13" t="inlineStr">
+    <row r="63" ht="12.75" customHeight="1" s="11">
+      <c r="A63" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:51:46</t>
         </is>
       </c>
-      <c r="B63" s="13" t="inlineStr">
+      <c r="B63" s="10" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C63" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D63" s="13" t="inlineStr">
+      <c r="C63" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D63" s="10" t="inlineStr">
         <is>
           <t>SAN106013</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1" s="10">
-      <c r="A64" s="13" t="inlineStr">
+    <row r="64" ht="12.75" customHeight="1" s="11">
+      <c r="A64" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:00</t>
         </is>
       </c>
-      <c r="B64" s="13" t="inlineStr">
+      <c r="B64" s="10" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C64" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D64" s="13" t="inlineStr">
+      <c r="C64" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D64" s="10" t="inlineStr">
         <is>
           <t>SAN106014</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1" s="10">
-      <c r="A65" s="13" t="inlineStr">
+    <row r="65" ht="12.75" customHeight="1" s="11">
+      <c r="A65" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:08</t>
         </is>
       </c>
-      <c r="B65" s="13" t="inlineStr">
+      <c r="B65" s="10" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C65" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D65" s="13" t="inlineStr">
+      <c r="C65" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D65" s="10" t="inlineStr">
         <is>
           <t>SAN106026</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1" s="10">
-      <c r="A66" s="13" t="inlineStr">
+    <row r="66" ht="12.75" customHeight="1" s="11">
+      <c r="A66" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:17</t>
         </is>
       </c>
-      <c r="B66" s="13" t="inlineStr">
+      <c r="B66" s="10" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C66" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D66" s="13" t="inlineStr">
+      <c r="C66" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D66" s="10" t="inlineStr">
         <is>
           <t>SAN106008</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1" s="10">
-      <c r="A67" s="13" t="inlineStr">
+    <row r="67" ht="12.75" customHeight="1" s="11">
+      <c r="A67" s="10" t="inlineStr">
         <is>
           <t>2024-01-10 16:55:59</t>
         </is>
       </c>
-      <c r="B67" s="13" t="inlineStr">
+      <c r="B67" s="10" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="C67" s="13" t="inlineStr">
+      <c r="C67" s="10" t="inlineStr">
         <is>
           <t>Add 11</t>
         </is>
       </c>
-    </row>
-    <row r="68" ht="12.75" customHeight="1" s="10">
-      <c r="A68" s="13" t="inlineStr">
+      <c r="D67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.75" customHeight="1" s="11">
+      <c r="A68" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:00</t>
         </is>
       </c>
-      <c r="B68" s="13" t="inlineStr">
+      <c r="B68" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C68" s="13" t="inlineStr">
+      <c r="C68" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-    </row>
-    <row r="69" ht="12.75" customHeight="1" s="10">
-      <c r="A69" s="13" t="inlineStr">
+      <c r="D68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.75" customHeight="1" s="11">
+      <c r="A69" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:10</t>
         </is>
       </c>
-      <c r="B69" s="13" t="inlineStr">
+      <c r="B69" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C69" s="13" t="inlineStr">
+      <c r="C69" s="10" t="inlineStr">
         <is>
           <t>add 5</t>
         </is>
       </c>
-    </row>
-    <row r="70" ht="12.75" customHeight="1" s="10">
-      <c r="A70" s="13" t="inlineStr">
+      <c r="D69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.75" customHeight="1" s="11">
+      <c r="A70" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:26</t>
         </is>
       </c>
-      <c r="B70" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C70" s="13" t="inlineStr">
+      <c r="B70" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C70" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D70" s="13" t="inlineStr">
+      <c r="D70" s="10" t="inlineStr">
         <is>
           <t>SAN124323</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1" s="10">
-      <c r="A71" s="13" t="inlineStr">
+    <row r="71" ht="12.75" customHeight="1" s="11">
+      <c r="A71" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:30</t>
         </is>
       </c>
-      <c r="B71" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C71" s="13" t="inlineStr">
+      <c r="B71" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C71" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D71" s="13" t="inlineStr">
+      <c r="D71" s="10" t="inlineStr">
         <is>
           <t>SAN124354</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1" s="10">
-      <c r="A72" s="13" t="inlineStr">
+    <row r="72" ht="12.75" customHeight="1" s="11">
+      <c r="A72" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:38</t>
         </is>
       </c>
-      <c r="B72" s="13" t="inlineStr">
+      <c r="B72" s="10" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="C72" s="13" t="inlineStr">
+      <c r="C72" s="10" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-    </row>
-    <row r="73" ht="12.75" customHeight="1" s="10">
-      <c r="A73" s="13" t="inlineStr">
+      <c r="D72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.75" customHeight="1" s="11">
+      <c r="A73" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:48</t>
         </is>
       </c>
-      <c r="B73" s="13" t="inlineStr">
+      <c r="B73" s="10" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="C73" s="13" t="inlineStr">
+      <c r="C73" s="10" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-    </row>
-    <row r="74" ht="12.75" customHeight="1" s="10">
-      <c r="A74" s="13" t="inlineStr">
+      <c r="D73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.75" customHeight="1" s="11">
+      <c r="A74" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:22:16</t>
         </is>
       </c>
-      <c r="B74" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C74" s="13" t="inlineStr">
+      <c r="B74" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C74" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D74" s="13" t="inlineStr">
+      <c r="D74" s="10" t="inlineStr">
         <is>
           <t>SAN124354</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1" s="10">
-      <c r="A75" s="13" t="inlineStr">
+    <row r="75" ht="12.75" customHeight="1" s="11">
+      <c r="A75" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:22:43</t>
         </is>
       </c>
-      <c r="B75" s="13" t="inlineStr">
+      <c r="B75" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C75" s="13" t="inlineStr">
+      <c r="C75" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-    </row>
-    <row r="76" ht="12.75" customHeight="1" s="10">
-      <c r="A76" s="13" t="inlineStr">
+      <c r="D75" s="10" t="n"/>
+    </row>
+    <row r="76" ht="12.75" customHeight="1" s="11">
+      <c r="A76" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:28:21</t>
         </is>
       </c>
-      <c r="B76" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C76" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D76" s="13" t="inlineStr">
+      <c r="B76" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C76" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D76" s="10" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1" s="10">
-      <c r="A77" s="13" t="inlineStr">
+    <row r="77" ht="12.75" customHeight="1" s="11">
+      <c r="A77" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:28:27</t>
         </is>
       </c>
-      <c r="B77" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C77" s="13" t="inlineStr">
+      <c r="B77" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C77" s="10" t="inlineStr">
         <is>
           <t>subtract</t>
         </is>
       </c>
-      <c r="D77" s="13" t="inlineStr">
+      <c r="D77" s="10" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1" s="10">
-      <c r="A78" s="13" t="inlineStr">
+    <row r="78" ht="12.75" customHeight="1" s="11">
+      <c r="A78" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:47:39</t>
         </is>
       </c>
-      <c r="B78" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C78" s="13" t="inlineStr">
+      <c r="B78" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C78" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D78" s="13" t="inlineStr">
+      <c r="D78" s="10" t="inlineStr">
         <is>
           <t>SAN13579</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1" s="10">
-      <c r="A79" s="13" t="inlineStr">
+    <row r="79" ht="12.75" customHeight="1" s="11">
+      <c r="A79" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:47:48</t>
         </is>
       </c>
-      <c r="B79" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C79" s="13" t="inlineStr">
+      <c r="B79" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C79" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D79" s="13" t="inlineStr">
+      <c r="D79" s="10" t="inlineStr">
         <is>
           <t>SAN13578</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1" s="10">
-      <c r="A80" s="13" t="inlineStr">
+    <row r="80" ht="12.75" customHeight="1" s="11">
+      <c r="A80" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:47:55</t>
         </is>
       </c>
-      <c r="B80" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C80" s="13" t="inlineStr">
+      <c r="B80" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C80" s="10" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-    </row>
-    <row r="81" ht="12.75" customHeight="1" s="10">
-      <c r="A81" s="13" t="inlineStr">
+      <c r="D80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.75" customHeight="1" s="11">
+      <c r="A81" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:48:02</t>
         </is>
       </c>
-      <c r="B81" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C81" s="13" t="inlineStr">
+      <c r="B81" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C81" s="10" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-    </row>
-    <row r="82" ht="12.75" customHeight="1" s="10">
-      <c r="A82" s="13" t="inlineStr">
+      <c r="D81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.75" customHeight="1" s="11">
+      <c r="A82" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:58:04</t>
         </is>
       </c>
-      <c r="B82" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C82" s="13" t="inlineStr">
+      <c r="B82" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C82" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D82" s="13" t="inlineStr">
+      <c r="D82" s="10" t="inlineStr">
         <is>
           <t>SAN124578</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="12.75" customHeight="1" s="10">
-      <c r="A83" s="13" t="inlineStr">
+    <row r="83" ht="12.75" customHeight="1" s="11">
+      <c r="A83" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:58:20</t>
         </is>
       </c>
-      <c r="B83" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C83" s="13" t="inlineStr">
+      <c r="B83" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C83" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-    </row>
-    <row r="84" ht="12.75" customHeight="1" s="10">
-      <c r="A84" s="13" t="inlineStr">
+      <c r="D83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.75" customHeight="1" s="11">
+      <c r="A84" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:58:48</t>
         </is>
       </c>
-      <c r="B84" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C84" s="13" t="inlineStr">
+      <c r="B84" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C84" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D84" s="13" t="inlineStr">
+      <c r="D84" s="10" t="inlineStr">
         <is>
           <t>SAN124589</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="12.75" customHeight="1" s="10">
-      <c r="A85" s="13" t="inlineStr">
+    <row r="85" ht="12.75" customHeight="1" s="11">
+      <c r="A85" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 14:59:05</t>
         </is>
       </c>
-      <c r="B85" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C85" s="13" t="inlineStr">
+      <c r="B85" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C85" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-    </row>
-    <row r="86" ht="12.75" customHeight="1" s="10">
-      <c r="A86" s="13" t="inlineStr">
+      <c r="D85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.75" customHeight="1" s="11">
+      <c r="A86" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:14</t>
         </is>
       </c>
-      <c r="B86" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C86" s="13" t="inlineStr">
+      <c r="B86" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C86" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D86" s="13" t="inlineStr">
+      <c r="D86" s="10" t="inlineStr">
         <is>
           <t>SAN223344</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="12.75" customHeight="1" s="10">
-      <c r="A87" s="13" t="inlineStr">
+    <row r="87" ht="12.75" customHeight="1" s="11">
+      <c r="A87" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:19</t>
         </is>
       </c>
-      <c r="B87" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C87" s="13" t="inlineStr">
+      <c r="B87" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C87" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D87" s="13" t="inlineStr">
+      <c r="D87" s="10" t="inlineStr">
         <is>
           <t>SAN445566</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="12.75" customHeight="1" s="10">
-      <c r="A88" s="13" t="inlineStr">
+    <row r="88" ht="12.75" customHeight="1" s="11">
+      <c r="A88" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:40</t>
         </is>
       </c>
-      <c r="B88" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C88" s="13" t="inlineStr">
+      <c r="B88" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C88" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D88" s="13" t="inlineStr">
+      <c r="D88" s="10" t="inlineStr">
         <is>
           <t>SAN223344</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="12.75" customHeight="1" s="10">
-      <c r="A89" s="13" t="inlineStr">
+    <row r="89" ht="12.75" customHeight="1" s="11">
+      <c r="A89" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:50</t>
         </is>
       </c>
-      <c r="B89" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C89" s="13" t="inlineStr">
+      <c r="B89" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C89" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D89" s="13" t="inlineStr">
+      <c r="D89" s="10" t="inlineStr">
         <is>
           <t>SAN445566</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="12.75" customHeight="1" s="10">
-      <c r="A90" s="13" t="inlineStr">
+    <row r="90" ht="12.75" customHeight="1" s="11">
+      <c r="A90" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 15:21:48</t>
         </is>
       </c>
-      <c r="B90" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C90" s="13" t="inlineStr">
+      <c r="B90" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C90" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D90" s="13" t="inlineStr">
+      <c r="D90" s="10" t="inlineStr">
         <is>
           <t>SAN111334</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="12.75" customHeight="1" s="10">
-      <c r="A91" s="13" t="inlineStr">
+    <row r="91" ht="12.75" customHeight="1" s="11">
+      <c r="A91" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 15:21:54</t>
         </is>
       </c>
-      <c r="B91" s="13" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C91" s="13" t="inlineStr">
+      <c r="B91" s="10" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C91" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D91" s="13" t="inlineStr">
+      <c r="D91" s="10" t="inlineStr">
         <is>
           <t>SAN111334</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="13" t="inlineStr">
+    <row r="92" ht="12.75" customHeight="1" s="11">
+      <c r="A92" s="10" t="inlineStr">
         <is>
           <t>2024-01-29 21:25:51</t>
         </is>
       </c>
-      <c r="B92" s="13" t="inlineStr">
+      <c r="B92" s="10" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C92" s="13" t="inlineStr">
+      <c r="C92" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D92" s="13" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="13" t="inlineStr">
+      <c r="D92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.75" customHeight="1" s="11">
+      <c r="A93" s="10" t="inlineStr">
         <is>
           <t>2024-01-29 21:25:57</t>
         </is>
       </c>
-      <c r="B93" s="13" t="inlineStr">
+      <c r="B93" s="10" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C93" s="13" t="inlineStr">
+      <c r="C93" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D93" s="13" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="13" t="inlineStr">
+      <c r="D93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.75" customHeight="1" s="11">
+      <c r="A94" s="10" t="inlineStr">
         <is>
           <t>2024-01-29 21:32:36</t>
         </is>
       </c>
-      <c r="B94" s="13" t="inlineStr">
+      <c r="B94" s="10" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C94" s="13" t="inlineStr">
+      <c r="C94" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D94" s="13" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="13" t="inlineStr">
+      <c r="D94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.75" customHeight="1" s="11">
+      <c r="A95" s="10" t="inlineStr">
         <is>
           <t>2024-01-29 21:48:25</t>
         </is>
       </c>
-      <c r="B95" s="13" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C95" s="13" t="inlineStr">
+      <c r="B95" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C95" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D95" s="13" t="inlineStr">
+      <c r="D95" s="10" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="13" t="inlineStr">
+    <row r="96" ht="12.75" customHeight="1" s="11">
+      <c r="A96" s="10" t="inlineStr">
         <is>
           <t>2024-01-29 21:51:03</t>
         </is>
       </c>
-      <c r="B96" s="13" t="inlineStr">
+      <c r="B96" s="10" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C96" s="13" t="inlineStr">
+      <c r="C96" s="10" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D96" s="13" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.75" customHeight="1" s="11">
+      <c r="A97" s="10" t="inlineStr">
         <is>
           <t>2024-01-29 22:08:54</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="10" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="1048576" ht="12.75" customHeight="1" s="10"/>
+      <c r="D97" s="10" t="n"/>
+    </row>
+    <row r="98" ht="12.75" customHeight="1" s="11">
+      <c r="A98" s="10" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:06:14</t>
+        </is>
+      </c>
+      <c r="B98" s="10" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C98" s="10" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.75" customHeight="1" s="11">
+      <c r="A99" s="10" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:12:13</t>
+        </is>
+      </c>
+      <c r="B99" s="10" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C99" s="10" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.75" customHeight="1" s="11">
+      <c r="A100" s="10" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:14:58</t>
+        </is>
+      </c>
+      <c r="B100" s="10" t="inlineStr">
+        <is>
+          <t>Wireless KB &amp; Mouse</t>
+        </is>
+      </c>
+      <c r="C100" s="10" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.75" customHeight="1" s="11">
+      <c r="A101" s="10" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:14:58</t>
+        </is>
+      </c>
+      <c r="B101" s="10" t="inlineStr">
+        <is>
+          <t>Wireless KB &amp; Mouse</t>
+        </is>
+      </c>
+      <c r="C101" s="10" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.75" customHeight="1" s="11">
+      <c r="A102" s="10" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:15:02</t>
+        </is>
+      </c>
+      <c r="B102" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C102" s="10" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D102" s="10" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="14" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:24:19</t>
+        </is>
+      </c>
+      <c r="B103" s="14" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C103" s="14" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+      <c r="D103" s="14" t="inlineStr"/>
+    </row>
+    <row r="1048576" ht="12.75" customHeight="1" s="11"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3640,202 +3768,202 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="28" customWidth="1" style="13" min="1" max="1"/>
+    <col width="28" customWidth="1" style="14" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="14">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="15">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>LastCount</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>NewCount</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="10">
+    <row r="2" ht="12.75" customHeight="1" s="11">
       <c r="A2" s="16" t="inlineStr">
         <is>
           <t>Desktop Mini G9</t>
         </is>
       </c>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="10">
+      <c r="B2" s="10" t="n"/>
+      <c r="C2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="11">
       <c r="A3" s="16" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="10" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="10">
+    <row r="4" ht="12.75" customHeight="1" s="11">
       <c r="A4" s="16" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G2</t>
         </is>
       </c>
-      <c r="B4" s="9" t="n"/>
-      <c r="C4" s="9" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="10">
+      <c r="B4" s="10" t="n"/>
+      <c r="C4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="11">
       <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="B5" s="9" t="n"/>
-      <c r="C5" s="9" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="10">
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="11">
       <c r="A6" s="16" t="inlineStr">
         <is>
           <t>Laptop 840 G10</t>
         </is>
       </c>
-      <c r="B6" s="9" t="n"/>
-      <c r="C6" s="9" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="10">
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="n"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="11">
       <c r="A7" s="16" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="10" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="10">
+    <row r="8" ht="12.75" customHeight="1" s="11">
       <c r="A8" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="10" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="10">
+    <row r="9" ht="12.75" customHeight="1" s="11">
       <c r="A9" s="16" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n"/>
-      <c r="C9" s="9" t="n"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="10">
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="11">
       <c r="A10" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
-      <c r="B10" s="9" t="n"/>
-      <c r="C10" s="9" t="n"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="10">
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="11">
       <c r="A11" s="16" t="inlineStr">
         <is>
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="9" t="n"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="10">
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="11">
       <c r="A12" s="16" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="B12" s="9" t="n"/>
-      <c r="C12" s="9" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="10">
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="10" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="11">
       <c r="A13" s="16" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="10" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="10">
+    <row r="14" ht="12.75" customHeight="1" s="11">
       <c r="A14" s="16" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="10">
+    <row r="15" ht="12.75" customHeight="1" s="11">
       <c r="A15" s="16" t="inlineStr">
         <is>
           <t>Wired Mouse</t>
         </is>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="10" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" s="10">
+    <row r="16" ht="12.75" customHeight="1" s="11">
       <c r="A16" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="B16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1" s="10">
+      <c r="B16" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="11">
       <c r="A17" s="16" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="B17" s="9" t="n"/>
-      <c r="C17" s="9" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3858,220 +3986,261 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="18.56" customWidth="1" style="13" min="1" max="1"/>
-    <col width="17.22" customWidth="1" style="13" min="2" max="2"/>
+    <col width="18.56" customWidth="1" style="14" min="1" max="1"/>
+    <col width="17.22" customWidth="1" style="14" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="10">
-      <c r="A1" s="11" t="inlineStr">
+    <row r="1" ht="18" customHeight="1" s="11">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="12" t="inlineStr">
         <is>
           <t>SAN Number</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1" s="10">
-      <c r="A2" s="13" t="inlineStr">
+    <row r="2" ht="12" customHeight="1" s="11">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>2024-01-12 10:52:14</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Add 10</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="10">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="D2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="11">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>2024-01-12 10:52:50</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>Wired Mouse</t>
         </is>
       </c>
-      <c r="C3" s="13" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>Add 34</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="10">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="D3" s="10" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="11">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>2024-01-12 10:53:06</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="10">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="11">
+      <c r="A5" s="10" t="inlineStr">
         <is>
           <t>2024-01-12 10:53:25</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>Add 9</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="10">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="D5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="11">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>2024-01-12 10:54:13</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>SAN120950</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="10">
-      <c r="A7" s="13" t="inlineStr">
+    <row r="7" ht="12.75" customHeight="1" s="11">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>2024-01-12 10:54:20</t>
         </is>
       </c>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
         <is>
           <t>SAN120864</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="10">
-      <c r="A8" s="13" t="inlineStr">
+    <row r="8" ht="12.75" customHeight="1" s="11">
+      <c r="A8" s="10" t="inlineStr">
         <is>
           <t>2024-01-12 10:55:09</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="10">
-      <c r="A9" s="13" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="11">
+      <c r="A9" s="10" t="inlineStr">
         <is>
           <t>2024-01-12 10:56:14</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="C9" s="13" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>Add 5</t>
         </is>
       </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="10">
-      <c r="A10" s="13" t="inlineStr">
+      <c r="D9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="11">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>2024-01-14 12:53:04</t>
         </is>
       </c>
-      <c r="B10" s="13" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>Add 4</t>
         </is>
       </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="10"/>
-    <row r="12" ht="12.75" customHeight="1" s="10"/>
-    <row r="13" ht="12.75" customHeight="1" s="10"/>
-    <row r="14" ht="12.75" customHeight="1" s="10"/>
-    <row r="15" ht="12.75" customHeight="1" s="10"/>
-    <row r="16" ht="12.75" customHeight="1" s="10"/>
-    <row r="17" ht="12.75" customHeight="1" s="10"/>
-    <row r="18" ht="12.75" customHeight="1" s="10"/>
-    <row r="19" ht="12.75" customHeight="1" s="10"/>
-    <row r="20" ht="12.75" customHeight="1" s="10"/>
-    <row r="21" ht="12.75" customHeight="1" s="10"/>
-    <row r="22" ht="12.75" customHeight="1" s="10"/>
-    <row r="23" ht="12.75" customHeight="1" s="10"/>
-    <row r="24" ht="12.75" customHeight="1" s="10"/>
-    <row r="25" ht="12.75" customHeight="1" s="10"/>
-    <row r="26" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048576" ht="12.75" customHeight="1" s="10"/>
+      <c r="D10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="11">
+      <c r="A11" s="10" t="inlineStr">
+        <is>
+          <t>2024-01-29 22:46:03</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="11">
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:13:26</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="11"/>
+    <row r="14" ht="12.75" customHeight="1" s="11"/>
+    <row r="15" ht="12.75" customHeight="1" s="11"/>
+    <row r="16" ht="12.75" customHeight="1" s="11"/>
+    <row r="17" ht="12.75" customHeight="1" s="11"/>
+    <row r="18" ht="12.75" customHeight="1" s="11"/>
+    <row r="19" ht="12.75" customHeight="1" s="11"/>
+    <row r="20" ht="12.75" customHeight="1" s="11"/>
+    <row r="21" ht="12.75" customHeight="1" s="11"/>
+    <row r="22" ht="12.75" customHeight="1" s="11"/>
+    <row r="23" ht="12.75" customHeight="1" s="11"/>
+    <row r="24" ht="12.75" customHeight="1" s="11"/>
+    <row r="25" ht="12.75" customHeight="1" s="11"/>
+    <row r="26" ht="12.75" customHeight="1" s="11"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="11"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4093,44 +4262,168 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="14.1" customWidth="1" style="14" min="1" max="1"/>
+    <col width="22.01" customWidth="1" style="14" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="10">
-      <c r="A1" s="13" t="inlineStr">
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="15">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Serial #</t>
         </is>
       </c>
-      <c r="B1" s="13" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>ServiceNow #</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="11">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>222222</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="B2" s="10" t="n"/>
+      <c r="C2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="11">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>333333</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B3" s="10" t="n"/>
+      <c r="C3" s="10" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="11">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>123456</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="n"/>
+      <c r="C4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="11">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>222233</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="11">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>111122</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="n"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="11">
+      <c r="A7" s="10" t="inlineStr">
+        <is>
+          <t>456123</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="11">
+      <c r="A8" s="10" t="inlineStr">
+        <is>
+          <t>323232</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="11">
+      <c r="A9" s="10" t="inlineStr">
+        <is>
+          <t>323232</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>INC-1532465</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="11">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>7898789</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="11">
+      <c r="A11" s="10" t="inlineStr">
+        <is>
+          <t>7898789</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>INC-15345679</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TASK-333333</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>98877665</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RITM-765433</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>666677</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>George S does not have a servicenow ticket for the Headset</t>
         </is>
       </c>
     </row>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="All SANs" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -87,7 +87,29 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
@@ -98,39 +120,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -324,1004 +318,976 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A72" activeCellId="1" sqref="A2:B12 A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="25.33" customWidth="1" style="10" min="1" max="3"/>
+    <col width="25.33" customWidth="1" style="8" min="1" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="11">
-      <c r="A1" s="12" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="9">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>SAN Number</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="11"/>
-    <row r="3" ht="12.75" customFormat="1" customHeight="1" s="13">
-      <c r="A3" s="10" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="9">
+      <c r="A2" s="11" t="n"/>
+      <c r="B2" s="11" t="n"/>
+      <c r="C2" s="11" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="9">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>SAN125045</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:34</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="11">
-      <c r="A4" s="10" t="inlineStr">
+    <row r="4" ht="12.75" customHeight="1" s="9">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>SAN125047</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:47</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="11">
-      <c r="A5" s="10" t="inlineStr">
+    <row r="5" ht="12.75" customHeight="1" s="9">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>SAN125043</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:53</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" s="11">
-      <c r="A6" s="10" t="inlineStr">
+    <row r="6" ht="12.75" customHeight="1" s="9">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>SAN125067</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:56</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="11">
-      <c r="A7" s="10" t="inlineStr">
+    <row r="7" ht="12.75" customHeight="1" s="9">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>SAN125078</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:01</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="11">
-      <c r="A8" s="10" t="inlineStr">
+    <row r="8" ht="12.75" customHeight="1" s="9">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>SAN125060</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:05</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="11">
-      <c r="A9" s="10" t="inlineStr">
+    <row r="9" ht="12.75" customHeight="1" s="9">
+      <c r="A9" s="11" t="inlineStr">
         <is>
           <t>SAN125059</t>
         </is>
       </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:11</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" s="11">
-      <c r="A10" s="10" t="inlineStr">
+    <row r="10" ht="12.75" customHeight="1" s="9">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>SAN125065</t>
         </is>
       </c>
-      <c r="B10" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:17</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" s="11">
-      <c r="A11" s="10" t="inlineStr">
+    <row r="11" ht="12.75" customHeight="1" s="9">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>SAN125063</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:23</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="11">
-      <c r="A12" s="10" t="inlineStr">
+    <row r="12" ht="12.75" customHeight="1" s="9">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>SAN125064</t>
         </is>
       </c>
-      <c r="B12" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:29</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" s="11">
-      <c r="A13" s="10" t="inlineStr">
+    <row r="13" ht="12.75" customHeight="1" s="9">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>SAN125054</t>
         </is>
       </c>
-      <c r="B13" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:34</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="11">
-      <c r="A14" s="10" t="inlineStr">
+    <row r="14" ht="12.75" customHeight="1" s="9">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>SAN125061</t>
         </is>
       </c>
-      <c r="B14" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:45</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="11">
-      <c r="A15" s="10" t="inlineStr">
+    <row r="15" ht="12.75" customHeight="1" s="9">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>SAN125071</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:59</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" s="11">
-      <c r="A16" s="10" t="inlineStr">
+    <row r="16" ht="12.75" customHeight="1" s="9">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t>SAN125072</t>
         </is>
       </c>
-      <c r="B16" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:09</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" s="11">
-      <c r="A17" s="10" t="inlineStr">
+    <row r="17" ht="12.75" customHeight="1" s="9">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>SAN125053</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:14</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1" s="11">
-      <c r="A18" s="10" t="inlineStr">
+    <row r="18" ht="12.75" customHeight="1" s="9">
+      <c r="A18" s="11" t="inlineStr">
         <is>
           <t>SAN125077</t>
         </is>
       </c>
-      <c r="B18" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
+      <c r="B18" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:23</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1" s="11">
-      <c r="A19" s="10" t="inlineStr">
+    <row r="19" ht="12.75" customHeight="1" s="9">
+      <c r="A19" s="11" t="inlineStr">
         <is>
           <t>SAN125076</t>
         </is>
       </c>
-      <c r="B19" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
+      <c r="B19" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:28</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1" s="11">
-      <c r="A20" s="10" t="inlineStr">
+    <row r="20" ht="12.75" customHeight="1" s="9">
+      <c r="A20" s="11" t="inlineStr">
         <is>
           <t>SAN122589</t>
         </is>
       </c>
-      <c r="B20" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:28</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1" s="11">
-      <c r="A21" s="10" t="inlineStr">
+    <row r="21" ht="12.75" customHeight="1" s="9">
+      <c r="A21" s="11" t="inlineStr">
         <is>
           <t>SAN122596</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C21" s="10" t="inlineStr">
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:32</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" s="11">
-      <c r="A22" s="10" t="inlineStr">
+    <row r="22" ht="12.75" customHeight="1" s="9">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>SAN122603</t>
         </is>
       </c>
-      <c r="B22" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:40</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1" s="11">
-      <c r="A23" s="10" t="inlineStr">
+    <row r="23" ht="12.75" customHeight="1" s="9">
+      <c r="A23" s="11" t="inlineStr">
         <is>
           <t>SAN122611</t>
         </is>
       </c>
-      <c r="B23" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:47</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1" s="11">
-      <c r="A24" s="10" t="inlineStr">
+    <row r="24" ht="12.75" customHeight="1" s="9">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>SAN122590</t>
         </is>
       </c>
-      <c r="B24" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
+      <c r="B24" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:53</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1" s="11">
-      <c r="A25" s="10" t="inlineStr">
+    <row r="25" ht="12.75" customHeight="1" s="9">
+      <c r="A25" s="11" t="inlineStr">
         <is>
           <t>SAN122593</t>
         </is>
       </c>
-      <c r="B25" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C25" s="10" t="inlineStr">
+      <c r="B25" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C25" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:16</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1" s="11">
-      <c r="A26" s="10" t="inlineStr">
+    <row r="26" ht="12.75" customHeight="1" s="9">
+      <c r="A26" s="11" t="inlineStr">
         <is>
           <t>SAN122597</t>
         </is>
       </c>
-      <c r="B26" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
+      <c r="B26" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:40</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1" s="11">
-      <c r="A27" s="10" t="inlineStr">
+    <row r="27" ht="12.75" customHeight="1" s="9">
+      <c r="A27" s="11" t="inlineStr">
         <is>
           <t>SAN122602</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
+      <c r="B27" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:49</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1" s="11">
-      <c r="A28" s="10" t="inlineStr">
+    <row r="28" ht="12.75" customHeight="1" s="9">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>SAN122610</t>
         </is>
       </c>
-      <c r="B28" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
+      <c r="B28" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C28" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:53</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1" s="11">
-      <c r="A29" s="10" t="inlineStr">
+    <row r="29" ht="12.75" customHeight="1" s="9">
+      <c r="A29" s="11" t="inlineStr">
         <is>
           <t>SAN122599</t>
         </is>
       </c>
-      <c r="B29" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C29" s="10" t="inlineStr">
+      <c r="B29" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C29" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:58</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1" s="11">
-      <c r="A30" s="10" t="inlineStr">
+    <row r="30" ht="12.75" customHeight="1" s="9">
+      <c r="A30" s="11" t="inlineStr">
         <is>
           <t>SAN122592</t>
         </is>
       </c>
-      <c r="B30" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C30" s="10" t="inlineStr">
+      <c r="B30" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C30" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:03</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1" s="11">
-      <c r="A31" s="10" t="inlineStr">
+    <row r="31" ht="12.75" customHeight="1" s="9">
+      <c r="A31" s="11" t="inlineStr">
         <is>
           <t>SAN122607</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C31" s="10" t="inlineStr">
+      <c r="B31" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C31" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:08</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1" s="11">
-      <c r="A32" s="10" t="inlineStr">
+    <row r="32" ht="12.75" customHeight="1" s="9">
+      <c r="A32" s="11" t="inlineStr">
         <is>
           <t>SAN122608</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C32" s="10" t="inlineStr">
+      <c r="B32" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:15</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1" s="11">
-      <c r="A33" s="10" t="inlineStr">
+    <row r="33" ht="12.75" customHeight="1" s="9">
+      <c r="A33" s="11" t="inlineStr">
         <is>
           <t>SAN122598</t>
         </is>
       </c>
-      <c r="B33" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C33" s="10" t="inlineStr">
+      <c r="B33" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:20</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1" s="11">
-      <c r="A34" s="10" t="inlineStr">
+    <row r="34" ht="12.75" customHeight="1" s="9">
+      <c r="A34" s="11" t="inlineStr">
         <is>
           <t>SAN122591</t>
         </is>
       </c>
-      <c r="B34" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
+      <c r="B34" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:26</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1" s="11">
-      <c r="A35" s="10" t="inlineStr">
+    <row r="35" ht="12.75" customHeight="1" s="9">
+      <c r="A35" s="11" t="inlineStr">
         <is>
           <t>SAN122613</t>
         </is>
       </c>
-      <c r="B35" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C35" s="10" t="inlineStr">
+      <c r="B35" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:42</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1" s="11">
-      <c r="A36" s="10" t="inlineStr">
+    <row r="36" ht="12.75" customHeight="1" s="9">
+      <c r="A36" s="11" t="inlineStr">
         <is>
           <t>SAN122604</t>
         </is>
       </c>
-      <c r="B36" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C36" s="10" t="inlineStr">
+      <c r="B36" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:50</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1" s="11">
-      <c r="A37" s="10" t="inlineStr">
+    <row r="37" ht="12.75" customHeight="1" s="9">
+      <c r="A37" s="11" t="inlineStr">
         <is>
           <t>SAN122605</t>
         </is>
       </c>
-      <c r="B37" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C37" s="10" t="inlineStr">
+      <c r="B37" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:01</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1" s="11">
-      <c r="A38" s="10" t="inlineStr">
+    <row r="38" ht="12.75" customHeight="1" s="9">
+      <c r="A38" s="11" t="inlineStr">
         <is>
           <t>SAN122606</t>
         </is>
       </c>
-      <c r="B38" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C38" s="10" t="inlineStr">
+      <c r="B38" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:07</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1" s="11">
-      <c r="A39" s="10" t="inlineStr">
+    <row r="39" ht="12.75" customHeight="1" s="9">
+      <c r="A39" s="11" t="inlineStr">
         <is>
           <t>SAN122601</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="inlineStr">
+      <c r="B39" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:13</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1" s="11">
-      <c r="A40" s="10" t="inlineStr">
+    <row r="40" ht="12.75" customHeight="1" s="9">
+      <c r="A40" s="11" t="inlineStr">
         <is>
           <t>SAN122595</t>
         </is>
       </c>
-      <c r="B40" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C40" s="10" t="inlineStr">
+      <c r="B40" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C40" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:19</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1" s="11">
-      <c r="A41" s="10" t="inlineStr">
+    <row r="41" ht="12.75" customHeight="1" s="9">
+      <c r="A41" s="11" t="inlineStr">
         <is>
           <t>SAN122609</t>
         </is>
       </c>
-      <c r="B41" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C41" s="10" t="inlineStr">
+      <c r="B41" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:15</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1" s="11">
-      <c r="A42" s="10" t="inlineStr">
+    <row r="42" ht="12.75" customHeight="1" s="9">
+      <c r="A42" s="11" t="inlineStr">
         <is>
           <t>SAN122594</t>
         </is>
       </c>
-      <c r="B42" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C42" s="10" t="inlineStr">
+      <c r="B42" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C42" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:21</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1" s="11">
-      <c r="A43" s="10" t="inlineStr">
+    <row r="43" ht="12.75" customHeight="1" s="9">
+      <c r="A43" s="11" t="inlineStr">
         <is>
           <t>SAN122612</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C43" s="10" t="inlineStr">
+      <c r="B43" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:39</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1" s="11">
-      <c r="A44" s="10" t="inlineStr">
+    <row r="44" ht="12.75" customHeight="1" s="9">
+      <c r="A44" s="11" t="inlineStr">
         <is>
           <t>SAN122304</t>
         </is>
       </c>
-      <c r="B44" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C44" s="10" t="inlineStr">
+      <c r="B44" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:46</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1" s="11">
-      <c r="A45" s="10" t="inlineStr">
+    <row r="45" ht="12.75" customHeight="1" s="9">
+      <c r="A45" s="11" t="inlineStr">
         <is>
           <t>SAN122305</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C45" s="10" t="inlineStr">
+      <c r="B45" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:53</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1" s="11">
-      <c r="A46" s="10" t="inlineStr">
+    <row r="46" ht="12.75" customHeight="1" s="9">
+      <c r="A46" s="11" t="inlineStr">
         <is>
           <t>SAN122600</t>
         </is>
       </c>
-      <c r="B46" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C46" s="10" t="inlineStr">
+      <c r="B46" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:44:23</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1" s="11">
-      <c r="A47" s="10" t="inlineStr">
+    <row r="47" ht="12.75" customHeight="1" s="9">
+      <c r="A47" s="11" t="inlineStr">
         <is>
           <t>SAN121911</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr">
+      <c r="B47" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C47" s="10" t="inlineStr">
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:07</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1" s="11">
-      <c r="A48" s="10" t="inlineStr">
-        <is>
-          <t>SAN120358</t>
-        </is>
-      </c>
-      <c r="B48" s="10" t="inlineStr">
+    <row r="48" ht="12.75" customHeight="1" s="9">
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>SAN121929</t>
+        </is>
+      </c>
+      <c r="B48" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C48" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:50:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="12.75" customHeight="1" s="11">
-      <c r="A49" s="10" t="inlineStr">
-        <is>
-          <t>SAN121929</t>
-        </is>
-      </c>
-      <c r="B49" s="10" t="inlineStr">
+      <c r="C48" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:50:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="12.75" customHeight="1" s="9">
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>SAN120286</t>
+        </is>
+      </c>
+      <c r="B49" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C49" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:50:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="12.75" customHeight="1" s="11">
-      <c r="A50" s="10" t="inlineStr">
-        <is>
-          <t>SAN121895</t>
-        </is>
-      </c>
-      <c r="B50" s="10" t="inlineStr">
+      <c r="C49" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:50:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="12.75" customHeight="1" s="9">
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>SAN120342</t>
+        </is>
+      </c>
+      <c r="B50" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C50" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:50:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="12.75" customHeight="1" s="11">
-      <c r="A51" s="10" t="inlineStr">
-        <is>
-          <t>SAN120286</t>
-        </is>
-      </c>
-      <c r="B51" s="10" t="inlineStr">
+      <c r="C50" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:50:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="12.75" customHeight="1" s="9">
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>SAN106013</t>
+        </is>
+      </c>
+      <c r="B51" s="11" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C51" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:51:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="12.75" customHeight="1" s="9">
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>SAN106014</t>
+        </is>
+      </c>
+      <c r="B52" s="11" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C52" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:52:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="12.75" customHeight="1" s="9">
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>SAN106008</t>
+        </is>
+      </c>
+      <c r="B53" s="11" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C53" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:52:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="12.75" customHeight="1" s="9">
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>SAN111111</t>
+        </is>
+      </c>
+      <c r="B54" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C54" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-11 12:06:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="12.75" customHeight="1" s="9">
+      <c r="A55" s="11" t="inlineStr">
+        <is>
+          <t>SAN120950</t>
+        </is>
+      </c>
+      <c r="B55" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C51" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:50:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="12.75" customHeight="1" s="11">
-      <c r="A52" s="10" t="inlineStr">
-        <is>
-          <t>SAN120342</t>
-        </is>
-      </c>
-      <c r="B52" s="10" t="inlineStr">
+      <c r="C55" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-12 10:54:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="12.75" customHeight="1" s="9">
+      <c r="A56" s="11" t="inlineStr">
+        <is>
+          <t>SAN120864</t>
+        </is>
+      </c>
+      <c r="B56" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C52" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:50:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="12.75" customHeight="1" s="11">
-      <c r="A53" s="10" t="inlineStr">
-        <is>
-          <t>SAN106013</t>
-        </is>
-      </c>
-      <c r="B53" s="10" t="inlineStr">
-        <is>
-          <t>Laptop x360 G8</t>
-        </is>
-      </c>
-      <c r="C53" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:51:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" ht="12.75" customHeight="1" s="11">
-      <c r="A54" s="10" t="inlineStr">
-        <is>
-          <t>SAN106014</t>
-        </is>
-      </c>
-      <c r="B54" s="10" t="inlineStr">
-        <is>
-          <t>Laptop x360 G8</t>
-        </is>
-      </c>
-      <c r="C54" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:52:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="12.75" customHeight="1" s="11">
-      <c r="A55" s="10" t="inlineStr">
-        <is>
-          <t>SAN106008</t>
-        </is>
-      </c>
-      <c r="B55" s="10" t="inlineStr">
-        <is>
-          <t>Laptop x360 G8</t>
-        </is>
-      </c>
-      <c r="C55" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:52:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" ht="12.75" customHeight="1" s="11">
-      <c r="A56" s="10" t="inlineStr">
-        <is>
-          <t>SAN111111</t>
-        </is>
-      </c>
-      <c r="B56" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C56" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-11 12:06:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="12.75" customHeight="1" s="11">
-      <c r="A57" s="10" t="inlineStr">
-        <is>
-          <t>SAN120950</t>
-        </is>
-      </c>
-      <c r="B57" s="10" t="inlineStr">
+      <c r="C56" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-12 10:54:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="12.75" customHeight="1" s="9">
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>SAN343434</t>
+        </is>
+      </c>
+      <c r="B57" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C57" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-12 10:54:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="12.75" customHeight="1" s="11">
-      <c r="A58" s="10" t="inlineStr">
-        <is>
-          <t>SAN120864</t>
-        </is>
-      </c>
-      <c r="B58" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G9</t>
-        </is>
-      </c>
-      <c r="C58" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-12 10:54:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="12.75" customHeight="1" s="11">
-      <c r="A59" s="10" t="inlineStr">
-        <is>
-          <t>SAN123456</t>
-        </is>
-      </c>
-      <c r="B59" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C59" s="10" t="inlineStr">
-        <is>
-          <t>2024-01-29 21:48:25</t>
-        </is>
-      </c>
-    </row>
+      <c r="C57" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:52:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="12.75" customHeight="1" s="9"/>
+    <row r="59" ht="12.75" customHeight="1" s="9"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1346,228 +1312,228 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="28" customWidth="1" style="14" min="1" max="1"/>
+    <col width="28" customWidth="1" style="12" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="15">
-      <c r="A1" s="12" t="inlineStr">
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="13">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>LastCount</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>NewCount</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="11">
-      <c r="A2" s="16" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10" t="n">
+    <row r="2" ht="12.75" customHeight="1" s="9">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="11">
-      <c r="A3" s="16" t="inlineStr">
+      <c r="C2" s="8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="9">
+      <c r="A3" s="15" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="B3" s="10" t="n"/>
-      <c r="C3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="11">
-      <c r="A4" s="16" t="inlineStr">
+      <c r="B3" s="8" t="n"/>
+      <c r="C3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="9">
+      <c r="A4" s="15" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G2</t>
         </is>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="11">
-      <c r="A5" s="16" t="inlineStr">
+    <row r="5" ht="12.75" customHeight="1" s="9">
+      <c r="A5" s="15" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="8" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" s="11">
-      <c r="A6" s="16" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="n">
+    <row r="6" ht="12.75" customHeight="1" s="9">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="8" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="11">
-      <c r="A7" s="16" t="inlineStr">
+    <row r="7" ht="12.75" customHeight="1" s="9">
+      <c r="A7" s="15" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="9">
+      <c r="A8" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laptop Charger </t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="9">
+      <c r="A9" s="15" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="9">
+      <c r="A10" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monitor 24” </t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="9">
+      <c r="A11" s="15" t="inlineStr">
+        <is>
+          <t>Monitor 34” Ultrawide</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="9">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>USB DVD-RW Drive</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="9">
+      <c r="A13" s="15" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>71</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="9">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>Wired Keyboard</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="11">
-      <c r="A8" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laptop Charger </t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="11">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t>Laptop x360 G8</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n">
+      <c r="C14" s="8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="9">
+      <c r="A15" s="15" t="inlineStr">
+        <is>
+          <t>Wired Mouse</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n"/>
+      <c r="C15" s="8" t="n"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="9">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="9">
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>Wireless KB &amp; Mouse</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="11">
-      <c r="A10" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monitor 24” </t>
-        </is>
-      </c>
-      <c r="B10" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="11">
-      <c r="A11" s="16" t="inlineStr">
-        <is>
-          <t>Monitor 34” Ultrawide</t>
-        </is>
-      </c>
-      <c r="B11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="11">
-      <c r="A12" s="16" t="inlineStr">
-        <is>
-          <t>USB DVD-RW Drive</t>
-        </is>
-      </c>
-      <c r="B12" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="11">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>Wired Headset Poly</t>
-        </is>
-      </c>
-      <c r="B13" s="10" t="n">
-        <v>76</v>
-      </c>
-      <c r="C13" s="10" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1" s="11">
-      <c r="A14" s="16" t="inlineStr">
-        <is>
-          <t>Wired Keyboard</t>
-        </is>
-      </c>
-      <c r="B14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1" s="11">
-      <c r="A15" s="16" t="inlineStr">
-        <is>
-          <t>Wired Mouse</t>
-        </is>
-      </c>
-      <c r="B15" s="10" t="n"/>
-      <c r="C15" s="10" t="n"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1" s="11">
-      <c r="A16" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wireless Headset Poly </t>
-        </is>
-      </c>
-      <c r="B16" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" s="10" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1" s="11">
-      <c r="A17" s="16" t="inlineStr">
-        <is>
-          <t>Wireless KB &amp; Mouse</t>
-        </is>
-      </c>
-      <c r="B17" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1592,2158 +1558,2279 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C99" activeCellId="1" sqref="A2:B12 C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="18.34" customWidth="1" style="14" min="1" max="1"/>
-    <col width="20.56" customWidth="1" style="14" min="2" max="2"/>
-    <col width="18.22" customWidth="1" style="14" min="4" max="4"/>
+    <col width="18.34" customWidth="1" style="12" min="1" max="1"/>
+    <col width="20.56" customWidth="1" style="12" min="2" max="2"/>
+    <col width="18.22" customWidth="1" style="12" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="17">
-      <c r="A1" s="12" t="inlineStr">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="10">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>SAN Number</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="11">
-      <c r="A2" s="10" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="9">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:17:21</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>Add 4</t>
         </is>
       </c>
-      <c r="D2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="11">
-      <c r="A3" s="10" t="inlineStr">
+      <c r="D2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="9">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:19:11</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Add 2</t>
         </is>
       </c>
-      <c r="D3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="11">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="D3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="9">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:19:40</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Add 36</t>
         </is>
       </c>
-      <c r="D4" s="10" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="11">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="D4" s="8" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="9">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:20:03</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="11">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="9">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:21:17</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>Add 76</t>
         </is>
       </c>
-      <c r="D6" s="10" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="11">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="D6" s="8" t="n"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="9">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:21:35</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>Add 7</t>
         </is>
       </c>
-      <c r="D7" s="10" t="n"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="11">
-      <c r="A8" s="10" t="inlineStr">
+      <c r="D7" s="8" t="n"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="9">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:23:25</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>Add 70</t>
         </is>
       </c>
-      <c r="D8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="11">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="D8" s="8" t="n"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="9">
+      <c r="A9" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:25:25</t>
         </is>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Add 5</t>
         </is>
       </c>
-      <c r="D9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="11">
-      <c r="A10" s="10" t="inlineStr">
+      <c r="D9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="9">
+      <c r="A10" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:26:48</t>
         </is>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Add 70</t>
         </is>
       </c>
-      <c r="D10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="11">
-      <c r="A11" s="10" t="inlineStr">
+      <c r="D10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="9">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:28:33</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G2</t>
         </is>
       </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>Add 7</t>
         </is>
       </c>
-      <c r="D11" s="10" t="n"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="11">
-      <c r="A12" s="10" t="inlineStr">
+      <c r="D11" s="8" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="9">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:34</t>
         </is>
       </c>
-      <c r="B12" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
         <is>
           <t>SAN125045</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" s="11">
-      <c r="A13" s="10" t="inlineStr">
+    <row r="13" ht="12.75" customHeight="1" s="9">
+      <c r="A13" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:47</t>
         </is>
       </c>
-      <c r="B13" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t>SAN125047</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="11">
-      <c r="A14" s="10" t="inlineStr">
+    <row r="14" ht="12.75" customHeight="1" s="9">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:53</t>
         </is>
       </c>
-      <c r="B14" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t>SAN125043</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="11">
-      <c r="A15" s="10" t="inlineStr">
+    <row r="15" ht="12.75" customHeight="1" s="9">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:56</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D15" s="10" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>SAN125067</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" s="11">
-      <c r="A16" s="10" t="inlineStr">
+    <row r="16" ht="12.75" customHeight="1" s="9">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:01</t>
         </is>
       </c>
-      <c r="B16" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D16" s="10" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
         <is>
           <t>SAN125078</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" s="11">
-      <c r="A17" s="10" t="inlineStr">
+    <row r="17" ht="12.75" customHeight="1" s="9">
+      <c r="A17" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:05</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D17" s="10" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
         <is>
           <t>SAN125060</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1" s="11">
-      <c r="A18" s="10" t="inlineStr">
+    <row r="18" ht="12.75" customHeight="1" s="9">
+      <c r="A18" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:11</t>
         </is>
       </c>
-      <c r="B18" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D18" s="10" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
         <is>
           <t>SAN125059</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1" s="11">
-      <c r="A19" s="10" t="inlineStr">
+    <row r="19" ht="12.75" customHeight="1" s="9">
+      <c r="A19" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:17</t>
         </is>
       </c>
-      <c r="B19" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D19" s="10" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="inlineStr">
         <is>
           <t>SAN125065</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1" s="11">
-      <c r="A20" s="10" t="inlineStr">
+    <row r="20" ht="12.75" customHeight="1" s="9">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:23</t>
         </is>
       </c>
-      <c r="B20" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D20" s="10" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
         <is>
           <t>SAN125063</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1" s="11">
-      <c r="A21" s="10" t="inlineStr">
+    <row r="21" ht="12.75" customHeight="1" s="9">
+      <c r="A21" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:29</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C21" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D21" s="10" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
         <is>
           <t>SAN125064</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" s="11">
-      <c r="A22" s="10" t="inlineStr">
+    <row r="22" ht="12.75" customHeight="1" s="9">
+      <c r="A22" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:34</t>
         </is>
       </c>
-      <c r="B22" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D22" s="10" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>SAN125054</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1" s="11">
-      <c r="A23" s="10" t="inlineStr">
+    <row r="23" ht="12.75" customHeight="1" s="9">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:45</t>
         </is>
       </c>
-      <c r="B23" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D23" s="10" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="inlineStr">
         <is>
           <t>SAN125061</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1" s="11">
-      <c r="A24" s="10" t="inlineStr">
+    <row r="24" ht="12.75" customHeight="1" s="9">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:59</t>
         </is>
       </c>
-      <c r="B24" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D24" s="10" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
         <is>
           <t>SAN125071</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1" s="11">
-      <c r="A25" s="10" t="inlineStr">
+    <row r="25" ht="12.75" customHeight="1" s="9">
+      <c r="A25" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:09</t>
         </is>
       </c>
-      <c r="B25" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C25" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D25" s="10" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="inlineStr">
         <is>
           <t>SAN125072</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1" s="11">
-      <c r="A26" s="10" t="inlineStr">
+    <row r="26" ht="12.75" customHeight="1" s="9">
+      <c r="A26" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:14</t>
         </is>
       </c>
-      <c r="B26" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D26" s="10" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
         <is>
           <t>SAN125053</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1" s="11">
-      <c r="A27" s="10" t="inlineStr">
+    <row r="27" ht="12.75" customHeight="1" s="9">
+      <c r="A27" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:23</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D27" s="10" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="inlineStr">
         <is>
           <t>SAN125077</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1" s="11">
-      <c r="A28" s="10" t="inlineStr">
+    <row r="28" ht="12.75" customHeight="1" s="9">
+      <c r="A28" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:28</t>
         </is>
       </c>
-      <c r="B28" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D28" s="10" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="inlineStr">
         <is>
           <t>SAN125076</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1" s="11">
-      <c r="A29" s="10" t="inlineStr">
+    <row r="29" ht="12.75" customHeight="1" s="9">
+      <c r="A29" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:34:13</t>
         </is>
       </c>
-      <c r="B29" s="10" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="C29" s="10" t="inlineStr">
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t>Add 3</t>
         </is>
       </c>
-      <c r="D29" s="10" t="n"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1" s="11">
-      <c r="A30" s="10" t="inlineStr">
+      <c r="D29" s="8" t="n"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1" s="9">
+      <c r="A30" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:28</t>
         </is>
       </c>
-      <c r="B30" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C30" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D30" s="10" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="inlineStr">
         <is>
           <t>SAN122589</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1" s="11">
-      <c r="A31" s="10" t="inlineStr">
+    <row r="31" ht="12.75" customHeight="1" s="9">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:32</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C31" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D31" s="10" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="inlineStr">
         <is>
           <t>SAN122596</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1" s="11">
-      <c r="A32" s="10" t="inlineStr">
+    <row r="32" ht="12.75" customHeight="1" s="9">
+      <c r="A32" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:40</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C32" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D32" s="10" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="inlineStr">
         <is>
           <t>SAN122603</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1" s="11">
-      <c r="A33" s="10" t="inlineStr">
+    <row r="33" ht="12.75" customHeight="1" s="9">
+      <c r="A33" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:47</t>
         </is>
       </c>
-      <c r="B33" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C33" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D33" s="10" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D33" s="8" t="inlineStr">
         <is>
           <t>SAN122611</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1" s="11">
-      <c r="A34" s="10" t="inlineStr">
+    <row r="34" ht="12.75" customHeight="1" s="9">
+      <c r="A34" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:53</t>
         </is>
       </c>
-      <c r="B34" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D34" s="10" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D34" s="8" t="inlineStr">
         <is>
           <t>SAN122590</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1" s="11">
-      <c r="A35" s="10" t="inlineStr">
+    <row r="35" ht="12.75" customHeight="1" s="9">
+      <c r="A35" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:16</t>
         </is>
       </c>
-      <c r="B35" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C35" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D35" s="10" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D35" s="8" t="inlineStr">
         <is>
           <t>SAN122593</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1" s="11">
-      <c r="A36" s="10" t="inlineStr">
+    <row r="36" ht="12.75" customHeight="1" s="9">
+      <c r="A36" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:40</t>
         </is>
       </c>
-      <c r="B36" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C36" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D36" s="10" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="inlineStr">
         <is>
           <t>SAN122597</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1" s="11">
-      <c r="A37" s="10" t="inlineStr">
+    <row r="37" ht="12.75" customHeight="1" s="9">
+      <c r="A37" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:49</t>
         </is>
       </c>
-      <c r="B37" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C37" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D37" s="10" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D37" s="8" t="inlineStr">
         <is>
           <t>SAN122602</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1" s="11">
-      <c r="A38" s="10" t="inlineStr">
+    <row r="38" ht="12.75" customHeight="1" s="9">
+      <c r="A38" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:53</t>
         </is>
       </c>
-      <c r="B38" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C38" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D38" s="10" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D38" s="8" t="inlineStr">
         <is>
           <t>SAN122610</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1" s="11">
-      <c r="A39" s="10" t="inlineStr">
+    <row r="39" ht="12.75" customHeight="1" s="9">
+      <c r="A39" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:58</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D39" s="10" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D39" s="8" t="inlineStr">
         <is>
           <t>SAN122599</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1" s="11">
-      <c r="A40" s="10" t="inlineStr">
+    <row r="40" ht="12.75" customHeight="1" s="9">
+      <c r="A40" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:03</t>
         </is>
       </c>
-      <c r="B40" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C40" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D40" s="10" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D40" s="8" t="inlineStr">
         <is>
           <t>SAN122592</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1" s="11">
-      <c r="A41" s="10" t="inlineStr">
+    <row r="41" ht="12.75" customHeight="1" s="9">
+      <c r="A41" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:08</t>
         </is>
       </c>
-      <c r="B41" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C41" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D41" s="10" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D41" s="8" t="inlineStr">
         <is>
           <t>SAN122607</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1" s="11">
-      <c r="A42" s="10" t="inlineStr">
+    <row r="42" ht="12.75" customHeight="1" s="9">
+      <c r="A42" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:15</t>
         </is>
       </c>
-      <c r="B42" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C42" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D42" s="10" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D42" s="8" t="inlineStr">
         <is>
           <t>SAN122608</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1" s="11">
-      <c r="A43" s="10" t="inlineStr">
+    <row r="43" ht="12.75" customHeight="1" s="9">
+      <c r="A43" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:20</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C43" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D43" s="10" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D43" s="8" t="inlineStr">
         <is>
           <t>SAN122598</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1" s="11">
-      <c r="A44" s="10" t="inlineStr">
+    <row r="44" ht="12.75" customHeight="1" s="9">
+      <c r="A44" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:26</t>
         </is>
       </c>
-      <c r="B44" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C44" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D44" s="10" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D44" s="8" t="inlineStr">
         <is>
           <t>SAN122591</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1" s="11">
-      <c r="A45" s="10" t="inlineStr">
+    <row r="45" ht="12.75" customHeight="1" s="9">
+      <c r="A45" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:42</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C45" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D45" s="10" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D45" s="8" t="inlineStr">
         <is>
           <t>SAN122613</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1" s="11">
-      <c r="A46" s="10" t="inlineStr">
+    <row r="46" ht="12.75" customHeight="1" s="9">
+      <c r="A46" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:50</t>
         </is>
       </c>
-      <c r="B46" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C46" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D46" s="10" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D46" s="8" t="inlineStr">
         <is>
           <t>SAN122604</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1" s="11">
-      <c r="A47" s="10" t="inlineStr">
+    <row r="47" ht="12.75" customHeight="1" s="9">
+      <c r="A47" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:01</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C47" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D47" s="10" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D47" s="8" t="inlineStr">
         <is>
           <t>SAN122605</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1" s="11">
-      <c r="A48" s="10" t="inlineStr">
+    <row r="48" ht="12.75" customHeight="1" s="9">
+      <c r="A48" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:07</t>
         </is>
       </c>
-      <c r="B48" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C48" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D48" s="10" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D48" s="8" t="inlineStr">
         <is>
           <t>SAN122606</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1" s="11">
-      <c r="A49" s="10" t="inlineStr">
+    <row r="49" ht="12.75" customHeight="1" s="9">
+      <c r="A49" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:13</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C49" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D49" s="10" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D49" s="8" t="inlineStr">
         <is>
           <t>SAN122601</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1" s="11">
-      <c r="A50" s="10" t="inlineStr">
+    <row r="50" ht="12.75" customHeight="1" s="9">
+      <c r="A50" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:19</t>
         </is>
       </c>
-      <c r="B50" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C50" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D50" s="10" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D50" s="8" t="inlineStr">
         <is>
           <t>SAN122595</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1" s="11">
-      <c r="A51" s="10" t="inlineStr">
+    <row r="51" ht="12.75" customHeight="1" s="9">
+      <c r="A51" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:15</t>
         </is>
       </c>
-      <c r="B51" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C51" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D51" s="10" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D51" s="8" t="inlineStr">
         <is>
           <t>SAN122609</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1" s="11">
-      <c r="A52" s="10" t="inlineStr">
+    <row r="52" ht="12.75" customHeight="1" s="9">
+      <c r="A52" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:21</t>
         </is>
       </c>
-      <c r="B52" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C52" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D52" s="10" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="inlineStr">
         <is>
           <t>SAN122594</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1" s="11">
-      <c r="A53" s="10" t="inlineStr">
+    <row r="53" ht="12.75" customHeight="1" s="9">
+      <c r="A53" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:39</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C53" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D53" s="10" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D53" s="8" t="inlineStr">
         <is>
           <t>SAN122612</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1" s="11">
-      <c r="A54" s="10" t="inlineStr">
+    <row r="54" ht="12.75" customHeight="1" s="9">
+      <c r="A54" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:46</t>
         </is>
       </c>
-      <c r="B54" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C54" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D54" s="10" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D54" s="8" t="inlineStr">
         <is>
           <t>SAN122304</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1" s="11">
-      <c r="A55" s="10" t="inlineStr">
+    <row r="55" ht="12.75" customHeight="1" s="9">
+      <c r="A55" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:53</t>
         </is>
       </c>
-      <c r="B55" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C55" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D55" s="10" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D55" s="8" t="inlineStr">
         <is>
           <t>SAN122305</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1" s="11">
-      <c r="A56" s="10" t="inlineStr">
+    <row r="56" ht="12.75" customHeight="1" s="9">
+      <c r="A56" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:44:23</t>
         </is>
       </c>
-      <c r="B56" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C56" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D56" s="10" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D56" s="8" t="inlineStr">
         <is>
           <t>SAN122600</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1" s="11">
-      <c r="A57" s="10" t="inlineStr">
+    <row r="57" ht="12.75" customHeight="1" s="9">
+      <c r="A57" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:07</t>
         </is>
       </c>
-      <c r="B57" s="10" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C57" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D57" s="10" t="inlineStr">
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D57" s="8" t="inlineStr">
         <is>
           <t>SAN121911</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1" s="11">
-      <c r="A58" s="10" t="inlineStr">
+    <row r="58" ht="12.75" customHeight="1" s="9">
+      <c r="A58" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:19</t>
         </is>
       </c>
-      <c r="B58" s="10" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C58" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D58" s="10" t="inlineStr">
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D58" s="8" t="inlineStr">
         <is>
           <t>SAN120358</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1" s="11">
-      <c r="A59" s="10" t="inlineStr">
+    <row r="59" ht="12.75" customHeight="1" s="9">
+      <c r="A59" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:29</t>
         </is>
       </c>
-      <c r="B59" s="10" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C59" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D59" s="10" t="inlineStr">
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D59" s="8" t="inlineStr">
         <is>
           <t>SAN121929</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1" s="11">
-      <c r="A60" s="10" t="inlineStr">
+    <row r="60" ht="12.75" customHeight="1" s="9">
+      <c r="A60" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:38</t>
         </is>
       </c>
-      <c r="B60" s="10" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C60" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D60" s="10" t="inlineStr">
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D60" s="8" t="inlineStr">
         <is>
           <t>SAN121895</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1" s="11">
-      <c r="A61" s="10" t="inlineStr">
+    <row r="61" ht="12.75" customHeight="1" s="9">
+      <c r="A61" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:46</t>
         </is>
       </c>
-      <c r="B61" s="10" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C61" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D61" s="10" t="inlineStr">
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D61" s="8" t="inlineStr">
         <is>
           <t>SAN120286</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1" s="11">
-      <c r="A62" s="10" t="inlineStr">
+    <row r="62" ht="12.75" customHeight="1" s="9">
+      <c r="A62" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:57</t>
         </is>
       </c>
-      <c r="B62" s="10" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C62" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D62" s="10" t="inlineStr">
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D62" s="8" t="inlineStr">
         <is>
           <t>SAN120342</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1" s="11">
-      <c r="A63" s="10" t="inlineStr">
+    <row r="63" ht="12.75" customHeight="1" s="9">
+      <c r="A63" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:51:46</t>
         </is>
       </c>
-      <c r="B63" s="10" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C63" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D63" s="10" t="inlineStr">
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D63" s="8" t="inlineStr">
         <is>
           <t>SAN106013</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1" s="11">
-      <c r="A64" s="10" t="inlineStr">
+    <row r="64" ht="12.75" customHeight="1" s="9">
+      <c r="A64" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:00</t>
         </is>
       </c>
-      <c r="B64" s="10" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C64" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D64" s="10" t="inlineStr">
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D64" s="8" t="inlineStr">
         <is>
           <t>SAN106014</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1" s="11">
-      <c r="A65" s="10" t="inlineStr">
+    <row r="65" ht="12.75" customHeight="1" s="9">
+      <c r="A65" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:08</t>
         </is>
       </c>
-      <c r="B65" s="10" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C65" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D65" s="10" t="inlineStr">
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D65" s="8" t="inlineStr">
         <is>
           <t>SAN106026</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1" s="11">
-      <c r="A66" s="10" t="inlineStr">
+    <row r="66" ht="12.75" customHeight="1" s="9">
+      <c r="A66" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:17</t>
         </is>
       </c>
-      <c r="B66" s="10" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C66" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D66" s="10" t="inlineStr">
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D66" s="8" t="inlineStr">
         <is>
           <t>SAN106008</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1" s="11">
-      <c r="A67" s="10" t="inlineStr">
+    <row r="67" ht="12.75" customHeight="1" s="9">
+      <c r="A67" s="8" t="inlineStr">
         <is>
           <t>2024-01-10 16:55:59</t>
         </is>
       </c>
-      <c r="B67" s="10" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="C67" s="10" t="inlineStr">
+      <c r="C67" s="8" t="inlineStr">
         <is>
           <t>Add 11</t>
         </is>
       </c>
-      <c r="D67" s="10" t="n"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1" s="11">
-      <c r="A68" s="10" t="inlineStr">
+      <c r="D67" s="8" t="n"/>
+    </row>
+    <row r="68" ht="12.75" customHeight="1" s="9">
+      <c r="A68" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:00</t>
         </is>
       </c>
-      <c r="B68" s="10" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C68" s="10" t="inlineStr">
+      <c r="C68" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D68" s="10" t="n"/>
-    </row>
-    <row r="69" ht="12.75" customHeight="1" s="11">
-      <c r="A69" s="10" t="inlineStr">
+      <c r="D68" s="8" t="n"/>
+    </row>
+    <row r="69" ht="12.75" customHeight="1" s="9">
+      <c r="A69" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:10</t>
         </is>
       </c>
-      <c r="B69" s="10" t="inlineStr">
+      <c r="B69" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C69" s="10" t="inlineStr">
+      <c r="C69" s="8" t="inlineStr">
         <is>
           <t>add 5</t>
         </is>
       </c>
-      <c r="D69" s="10" t="n"/>
-    </row>
-    <row r="70" ht="12.75" customHeight="1" s="11">
-      <c r="A70" s="10" t="inlineStr">
+      <c r="D69" s="8" t="n"/>
+    </row>
+    <row r="70" ht="12.75" customHeight="1" s="9">
+      <c r="A70" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:26</t>
         </is>
       </c>
-      <c r="B70" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C70" s="10" t="inlineStr">
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C70" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D70" s="10" t="inlineStr">
+      <c r="D70" s="8" t="inlineStr">
         <is>
           <t>SAN124323</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1" s="11">
-      <c r="A71" s="10" t="inlineStr">
+    <row r="71" ht="12.75" customHeight="1" s="9">
+      <c r="A71" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:30</t>
         </is>
       </c>
-      <c r="B71" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C71" s="10" t="inlineStr">
+      <c r="B71" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C71" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D71" s="10" t="inlineStr">
+      <c r="D71" s="8" t="inlineStr">
         <is>
           <t>SAN124354</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1" s="11">
-      <c r="A72" s="10" t="inlineStr">
+    <row r="72" ht="12.75" customHeight="1" s="9">
+      <c r="A72" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:38</t>
         </is>
       </c>
-      <c r="B72" s="10" t="inlineStr">
+      <c r="B72" s="8" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="C72" s="10" t="inlineStr">
+      <c r="C72" s="8" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D72" s="10" t="n"/>
-    </row>
-    <row r="73" ht="12.75" customHeight="1" s="11">
-      <c r="A73" s="10" t="inlineStr">
+      <c r="D72" s="8" t="n"/>
+    </row>
+    <row r="73" ht="12.75" customHeight="1" s="9">
+      <c r="A73" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:48</t>
         </is>
       </c>
-      <c r="B73" s="10" t="inlineStr">
+      <c r="B73" s="8" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="C73" s="10" t="inlineStr">
+      <c r="C73" s="8" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-      <c r="D73" s="10" t="n"/>
-    </row>
-    <row r="74" ht="12.75" customHeight="1" s="11">
-      <c r="A74" s="10" t="inlineStr">
+      <c r="D73" s="8" t="n"/>
+    </row>
+    <row r="74" ht="12.75" customHeight="1" s="9">
+      <c r="A74" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:22:16</t>
         </is>
       </c>
-      <c r="B74" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C74" s="10" t="inlineStr">
+      <c r="B74" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C74" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D74" s="10" t="inlineStr">
+      <c r="D74" s="8" t="inlineStr">
         <is>
           <t>SAN124354</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1" s="11">
-      <c r="A75" s="10" t="inlineStr">
+    <row r="75" ht="12.75" customHeight="1" s="9">
+      <c r="A75" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:22:43</t>
         </is>
       </c>
-      <c r="B75" s="10" t="inlineStr">
+      <c r="B75" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C75" s="10" t="inlineStr">
+      <c r="C75" s="8" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D75" s="10" t="n"/>
-    </row>
-    <row r="76" ht="12.75" customHeight="1" s="11">
-      <c r="A76" s="10" t="inlineStr">
+      <c r="D75" s="8" t="n"/>
+    </row>
+    <row r="76" ht="12.75" customHeight="1" s="9">
+      <c r="A76" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:28:21</t>
         </is>
       </c>
-      <c r="B76" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C76" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D76" s="10" t="inlineStr">
+      <c r="B76" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C76" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D76" s="8" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1" s="11">
-      <c r="A77" s="10" t="inlineStr">
+    <row r="77" ht="12.75" customHeight="1" s="9">
+      <c r="A77" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:28:27</t>
         </is>
       </c>
-      <c r="B77" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C77" s="10" t="inlineStr">
+      <c r="B77" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C77" s="8" t="inlineStr">
         <is>
           <t>subtract</t>
         </is>
       </c>
-      <c r="D77" s="10" t="inlineStr">
+      <c r="D77" s="8" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1" s="11">
-      <c r="A78" s="10" t="inlineStr">
+    <row r="78" ht="12.75" customHeight="1" s="9">
+      <c r="A78" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:47:39</t>
         </is>
       </c>
-      <c r="B78" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C78" s="10" t="inlineStr">
+      <c r="B78" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C78" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D78" s="10" t="inlineStr">
+      <c r="D78" s="8" t="inlineStr">
         <is>
           <t>SAN13579</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1" s="11">
-      <c r="A79" s="10" t="inlineStr">
+    <row r="79" ht="12.75" customHeight="1" s="9">
+      <c r="A79" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:47:48</t>
         </is>
       </c>
-      <c r="B79" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C79" s="10" t="inlineStr">
+      <c r="B79" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C79" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D79" s="10" t="inlineStr">
+      <c r="D79" s="8" t="inlineStr">
         <is>
           <t>SAN13578</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1" s="11">
-      <c r="A80" s="10" t="inlineStr">
+    <row r="80" ht="12.75" customHeight="1" s="9">
+      <c r="A80" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:47:55</t>
         </is>
       </c>
-      <c r="B80" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C80" s="10" t="inlineStr">
+      <c r="B80" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C80" s="8" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-      <c r="D80" s="10" t="n"/>
-    </row>
-    <row r="81" ht="12.75" customHeight="1" s="11">
-      <c r="A81" s="10" t="inlineStr">
+      <c r="D80" s="8" t="n"/>
+    </row>
+    <row r="81" ht="12.75" customHeight="1" s="9">
+      <c r="A81" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:48:02</t>
         </is>
       </c>
-      <c r="B81" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C81" s="10" t="inlineStr">
+      <c r="B81" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C81" s="8" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-      <c r="D81" s="10" t="n"/>
-    </row>
-    <row r="82" ht="12.75" customHeight="1" s="11">
-      <c r="A82" s="10" t="inlineStr">
+      <c r="D81" s="8" t="n"/>
+    </row>
+    <row r="82" ht="12.75" customHeight="1" s="9">
+      <c r="A82" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:58:04</t>
         </is>
       </c>
-      <c r="B82" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C82" s="10" t="inlineStr">
+      <c r="B82" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C82" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D82" s="10" t="inlineStr">
+      <c r="D82" s="8" t="inlineStr">
         <is>
           <t>SAN124578</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="12.75" customHeight="1" s="11">
-      <c r="A83" s="10" t="inlineStr">
+    <row r="83" ht="12.75" customHeight="1" s="9">
+      <c r="A83" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:58:20</t>
         </is>
       </c>
-      <c r="B83" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C83" s="10" t="inlineStr">
+      <c r="B83" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C83" s="8" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D83" s="10" t="n"/>
-    </row>
-    <row r="84" ht="12.75" customHeight="1" s="11">
-      <c r="A84" s="10" t="inlineStr">
+      <c r="D83" s="8" t="n"/>
+    </row>
+    <row r="84" ht="12.75" customHeight="1" s="9">
+      <c r="A84" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:58:48</t>
         </is>
       </c>
-      <c r="B84" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C84" s="10" t="inlineStr">
+      <c r="B84" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C84" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D84" s="10" t="inlineStr">
+      <c r="D84" s="8" t="inlineStr">
         <is>
           <t>SAN124589</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="12.75" customHeight="1" s="11">
-      <c r="A85" s="10" t="inlineStr">
+    <row r="85" ht="12.75" customHeight="1" s="9">
+      <c r="A85" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 14:59:05</t>
         </is>
       </c>
-      <c r="B85" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C85" s="10" t="inlineStr">
+      <c r="B85" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C85" s="8" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D85" s="10" t="n"/>
-    </row>
-    <row r="86" ht="12.75" customHeight="1" s="11">
-      <c r="A86" s="10" t="inlineStr">
+      <c r="D85" s="8" t="n"/>
+    </row>
+    <row r="86" ht="12.75" customHeight="1" s="9">
+      <c r="A86" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:14</t>
         </is>
       </c>
-      <c r="B86" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C86" s="10" t="inlineStr">
+      <c r="B86" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C86" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D86" s="10" t="inlineStr">
+      <c r="D86" s="8" t="inlineStr">
         <is>
           <t>SAN223344</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="12.75" customHeight="1" s="11">
-      <c r="A87" s="10" t="inlineStr">
+    <row r="87" ht="12.75" customHeight="1" s="9">
+      <c r="A87" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:19</t>
         </is>
       </c>
-      <c r="B87" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C87" s="10" t="inlineStr">
+      <c r="B87" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C87" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D87" s="10" t="inlineStr">
+      <c r="D87" s="8" t="inlineStr">
         <is>
           <t>SAN445566</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="12.75" customHeight="1" s="11">
-      <c r="A88" s="10" t="inlineStr">
+    <row r="88" ht="12.75" customHeight="1" s="9">
+      <c r="A88" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:40</t>
         </is>
       </c>
-      <c r="B88" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C88" s="10" t="inlineStr">
+      <c r="B88" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C88" s="8" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D88" s="10" t="inlineStr">
+      <c r="D88" s="8" t="inlineStr">
         <is>
           <t>SAN223344</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="12.75" customHeight="1" s="11">
-      <c r="A89" s="10" t="inlineStr">
+    <row r="89" ht="12.75" customHeight="1" s="9">
+      <c r="A89" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:50</t>
         </is>
       </c>
-      <c r="B89" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C89" s="10" t="inlineStr">
+      <c r="B89" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C89" s="8" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D89" s="10" t="inlineStr">
+      <c r="D89" s="8" t="inlineStr">
         <is>
           <t>SAN445566</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="12.75" customHeight="1" s="11">
-      <c r="A90" s="10" t="inlineStr">
+    <row r="90" ht="12.75" customHeight="1" s="9">
+      <c r="A90" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 15:21:48</t>
         </is>
       </c>
-      <c r="B90" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C90" s="10" t="inlineStr">
+      <c r="B90" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C90" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D90" s="10" t="inlineStr">
+      <c r="D90" s="8" t="inlineStr">
         <is>
           <t>SAN111334</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="12.75" customHeight="1" s="11">
-      <c r="A91" s="10" t="inlineStr">
+    <row r="91" ht="12.75" customHeight="1" s="9">
+      <c r="A91" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 15:21:54</t>
         </is>
       </c>
-      <c r="B91" s="10" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C91" s="10" t="inlineStr">
+      <c r="B91" s="8" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C91" s="8" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D91" s="10" t="inlineStr">
+      <c r="D91" s="8" t="inlineStr">
         <is>
           <t>SAN111334</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="12.75" customHeight="1" s="11">
-      <c r="A92" s="10" t="inlineStr">
+    <row r="92" ht="12.75" customHeight="1" s="9">
+      <c r="A92" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 21:25:51</t>
         </is>
       </c>
-      <c r="B92" s="10" t="inlineStr">
+      <c r="B92" s="8" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C92" s="10" t="inlineStr">
+      <c r="C92" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D92" s="10" t="n"/>
-    </row>
-    <row r="93" ht="12.75" customHeight="1" s="11">
-      <c r="A93" s="10" t="inlineStr">
+      <c r="D92" s="8" t="n"/>
+    </row>
+    <row r="93" ht="12.75" customHeight="1" s="9">
+      <c r="A93" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 21:25:57</t>
         </is>
       </c>
-      <c r="B93" s="10" t="inlineStr">
+      <c r="B93" s="8" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C93" s="10" t="inlineStr">
+      <c r="C93" s="8" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D93" s="10" t="n"/>
-    </row>
-    <row r="94" ht="12.75" customHeight="1" s="11">
-      <c r="A94" s="10" t="inlineStr">
+      <c r="D93" s="8" t="n"/>
+    </row>
+    <row r="94" ht="12.75" customHeight="1" s="9">
+      <c r="A94" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 21:32:36</t>
         </is>
       </c>
-      <c r="B94" s="10" t="inlineStr">
+      <c r="B94" s="8" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C94" s="10" t="inlineStr">
+      <c r="C94" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D94" s="10" t="n"/>
-    </row>
-    <row r="95" ht="12.75" customHeight="1" s="11">
-      <c r="A95" s="10" t="inlineStr">
+      <c r="D94" s="8" t="n"/>
+    </row>
+    <row r="95" ht="12.75" customHeight="1" s="9">
+      <c r="A95" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 21:48:25</t>
         </is>
       </c>
-      <c r="B95" s="10" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C95" s="10" t="inlineStr">
+      <c r="B95" s="8" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C95" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D95" s="10" t="inlineStr">
+      <c r="D95" s="8" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="12.75" customHeight="1" s="11">
-      <c r="A96" s="10" t="inlineStr">
+    <row r="96" ht="12.75" customHeight="1" s="9">
+      <c r="A96" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 21:51:03</t>
         </is>
       </c>
-      <c r="B96" s="10" t="inlineStr">
+      <c r="B96" s="8" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C96" s="10" t="inlineStr">
+      <c r="C96" s="8" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D96" s="10" t="n"/>
-    </row>
-    <row r="97" ht="12.75" customHeight="1" s="11">
-      <c r="A97" s="10" t="inlineStr">
+      <c r="D96" s="8" t="n"/>
+    </row>
+    <row r="97" ht="12.75" customHeight="1" s="9">
+      <c r="A97" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 22:08:54</t>
         </is>
       </c>
-      <c r="B97" s="10" t="inlineStr">
+      <c r="B97" s="8" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C97" s="10" t="inlineStr">
+      <c r="C97" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D97" s="10" t="n"/>
-    </row>
-    <row r="98" ht="12.75" customHeight="1" s="11">
-      <c r="A98" s="10" t="inlineStr">
+      <c r="D97" s="8" t="n"/>
+    </row>
+    <row r="98" ht="12.75" customHeight="1" s="9">
+      <c r="A98" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 23:06:14</t>
         </is>
       </c>
-      <c r="B98" s="10" t="inlineStr">
+      <c r="B98" s="8" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C98" s="10" t="inlineStr">
+      <c r="C98" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D98" s="10" t="n"/>
-    </row>
-    <row r="99" ht="12.75" customHeight="1" s="11">
-      <c r="A99" s="10" t="inlineStr">
+      <c r="D98" s="8" t="n"/>
+    </row>
+    <row r="99" ht="12.75" customHeight="1" s="9">
+      <c r="A99" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 23:12:13</t>
         </is>
       </c>
-      <c r="B99" s="10" t="inlineStr">
+      <c r="B99" s="8" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C99" s="10" t="inlineStr">
+      <c r="C99" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D99" s="10" t="n"/>
-    </row>
-    <row r="100" ht="12.75" customHeight="1" s="11">
-      <c r="A100" s="10" t="inlineStr">
+      <c r="D99" s="8" t="n"/>
+    </row>
+    <row r="100" ht="12.75" customHeight="1" s="9">
+      <c r="A100" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 23:14:58</t>
         </is>
       </c>
-      <c r="B100" s="10" t="inlineStr">
+      <c r="B100" s="8" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="C100" s="10" t="inlineStr">
+      <c r="C100" s="8" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D100" s="10" t="n"/>
-    </row>
-    <row r="101" ht="12.75" customHeight="1" s="11">
-      <c r="A101" s="10" t="inlineStr">
+      <c r="D100" s="8" t="n"/>
+    </row>
+    <row r="101" ht="12.75" customHeight="1" s="9">
+      <c r="A101" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 23:14:58</t>
         </is>
       </c>
-      <c r="B101" s="10" t="inlineStr">
+      <c r="B101" s="8" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="C101" s="10" t="inlineStr">
+      <c r="C101" s="8" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D101" s="10" t="n"/>
-    </row>
-    <row r="102" ht="12.75" customHeight="1" s="11">
-      <c r="A102" s="10" t="inlineStr">
+      <c r="D101" s="8" t="n"/>
+    </row>
+    <row r="102" ht="12.75" customHeight="1" s="9">
+      <c r="A102" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 23:15:02</t>
         </is>
       </c>
-      <c r="B102" s="10" t="inlineStr">
+      <c r="B102" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C102" s="10" t="inlineStr">
+      <c r="C102" s="8" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D102" s="10" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="14" t="inlineStr">
+      <c r="D102" s="8" t="n"/>
+    </row>
+    <row r="103" ht="12.75" customHeight="1" s="9">
+      <c r="A103" s="12" t="inlineStr">
         <is>
           <t>2024-01-29 23:24:19</t>
         </is>
       </c>
-      <c r="B103" s="14" t="inlineStr">
+      <c r="B103" s="12" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C103" s="14" t="inlineStr">
+      <c r="C103" s="12" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-      <c r="D103" s="14" t="inlineStr"/>
-    </row>
-    <row r="1048576" ht="12.75" customHeight="1" s="11"/>
+    </row>
+    <row r="104" ht="12.75" customHeight="1" s="9">
+      <c r="A104" s="12" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:51:30</t>
+        </is>
+      </c>
+      <c r="B104" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C104" s="12" t="inlineStr">
+        <is>
+          <t>subtract 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="12.75" customHeight="1" s="9">
+      <c r="A105" s="12" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:51:52</t>
+        </is>
+      </c>
+      <c r="B105" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C105" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
+        <is>
+          <t>SAN123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="12.75" customHeight="1" s="9">
+      <c r="A106" s="12" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:52:13</t>
+        </is>
+      </c>
+      <c r="B106" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C106" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D106" s="12" t="inlineStr">
+        <is>
+          <t>SAN120358</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="12.75" customHeight="1" s="9">
+      <c r="A107" s="12" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:52:40</t>
+        </is>
+      </c>
+      <c r="B107" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C107" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D107" s="12" t="inlineStr">
+        <is>
+          <t>SAN121895</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="12.75" customHeight="1" s="9">
+      <c r="A108" s="12" t="inlineStr">
+        <is>
+          <t>2024-01-29 23:52:55</t>
+        </is>
+      </c>
+      <c r="B108" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C108" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D108" s="12" t="inlineStr">
+        <is>
+          <t>SAN343434</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="12.75" customHeight="1" s="9">
+      <c r="A109" s="12" t="inlineStr">
+        <is>
+          <t>2024-01-30 00:02:08</t>
+        </is>
+      </c>
+      <c r="B109" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C109" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048576" ht="12.75" customHeight="1" s="9"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3768,202 +3855,202 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="28" customWidth="1" style="14" min="1" max="1"/>
+    <col width="28" customWidth="1" style="12" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="15">
-      <c r="A1" s="12" t="inlineStr">
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="13">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>LastCount</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>NewCount</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="11">
-      <c r="A2" s="16" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="11">
-      <c r="A3" s="16" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="9">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="9">
+      <c r="A3" s="15" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="8" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="11">
-      <c r="A4" s="16" t="inlineStr">
+    <row r="4" ht="12.75" customHeight="1" s="9">
+      <c r="A4" s="15" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G2</t>
         </is>
       </c>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="11">
-      <c r="A5" s="16" t="inlineStr">
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="9">
+      <c r="A5" s="15" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="B5" s="10" t="n"/>
-      <c r="C5" s="10" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="11">
-      <c r="A6" s="16" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="11">
-      <c r="A7" s="16" t="inlineStr">
+      <c r="B5" s="8" t="n"/>
+      <c r="C5" s="8" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="9">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="8" t="n"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="9">
+      <c r="A7" s="15" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="11">
-      <c r="A8" s="16" t="inlineStr">
+    <row r="8" ht="12.75" customHeight="1" s="9">
+      <c r="A8" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="8" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="11">
-      <c r="A9" s="16" t="inlineStr">
+    <row r="9" ht="12.75" customHeight="1" s="9">
+      <c r="A9" s="15" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n"/>
-      <c r="C9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="11">
-      <c r="A10" s="16" t="inlineStr">
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="9">
+      <c r="A10" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
-      <c r="B10" s="10" t="n"/>
-      <c r="C10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="11">
-      <c r="A11" s="16" t="inlineStr">
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="9">
+      <c r="A11" s="15" t="inlineStr">
         <is>
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n"/>
-      <c r="C11" s="10" t="n"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="11">
-      <c r="A12" s="16" t="inlineStr">
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="9">
+      <c r="A12" s="15" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="B12" s="10" t="n"/>
-      <c r="C12" s="10" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="11">
-      <c r="A13" s="16" t="inlineStr">
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="9">
+      <c r="A13" s="15" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="8" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="11">
-      <c r="A14" s="16" t="inlineStr">
+    <row r="14" ht="12.75" customHeight="1" s="9">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="11">
-      <c r="A15" s="16" t="inlineStr">
+    <row r="15" ht="12.75" customHeight="1" s="9">
+      <c r="A15" s="15" t="inlineStr">
         <is>
           <t>Wired Mouse</t>
         </is>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="8" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" s="11">
-      <c r="A16" s="16" t="inlineStr">
+    <row r="16" ht="12.75" customHeight="1" s="9">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="8" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" s="11">
-      <c r="A17" s="16" t="inlineStr">
+    <row r="17" ht="12.75" customHeight="1" s="9">
+      <c r="A17" s="15" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="B17" s="10" t="n"/>
-      <c r="C17" s="10" t="n"/>
+      <c r="B17" s="8" t="n"/>
+      <c r="C17" s="8" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3989,258 +4076,258 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="A2:B12 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="18.56" customWidth="1" style="14" min="1" max="1"/>
-    <col width="17.22" customWidth="1" style="14" min="2" max="2"/>
+    <col width="18.56" customWidth="1" style="12" min="1" max="1"/>
+    <col width="17.22" customWidth="1" style="12" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="11">
-      <c r="A1" s="12" t="inlineStr">
+    <row r="1" ht="18" customHeight="1" s="9">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>SAN Number</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1" s="11">
-      <c r="A2" s="10" t="inlineStr">
+    <row r="2" ht="12" customHeight="1" s="9">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>2024-01-12 10:52:14</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>Add 10</t>
         </is>
       </c>
-      <c r="D2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="11">
-      <c r="A3" s="10" t="inlineStr">
+      <c r="D2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="9">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>2024-01-12 10:52:50</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Wired Mouse</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Add 34</t>
         </is>
       </c>
-      <c r="D3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="11">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="D3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="9">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>2024-01-12 10:53:06</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="11">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="9">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>2024-01-12 10:53:25</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>Add 9</t>
         </is>
       </c>
-      <c r="D5" s="10" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="11">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="D5" s="8" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="9">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>2024-01-12 10:54:13</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>SAN120950</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="11">
-      <c r="A7" s="10" t="inlineStr">
+    <row r="7" ht="12.75" customHeight="1" s="9">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>2024-01-12 10:54:20</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D7" s="10" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>SAN120864</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="11">
-      <c r="A8" s="10" t="inlineStr">
+    <row r="8" ht="12.75" customHeight="1" s="9">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>2024-01-12 10:55:09</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="11">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="n"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="9">
+      <c r="A9" s="8" t="inlineStr">
         <is>
           <t>2024-01-12 10:56:14</t>
         </is>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Add 5</t>
         </is>
       </c>
-      <c r="D9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="11">
-      <c r="A10" s="10" t="inlineStr">
+      <c r="D9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="9">
+      <c r="A10" s="8" t="inlineStr">
         <is>
           <t>2024-01-14 12:53:04</t>
         </is>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Add 4</t>
         </is>
       </c>
-      <c r="D10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="11">
-      <c r="A11" s="10" t="inlineStr">
+      <c r="D10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="9">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 22:46:03</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D11" s="10" t="n"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="11">
-      <c r="A12" s="10" t="inlineStr">
+      <c r="D11" s="8" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="9">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>2024-01-29 23:13:26</t>
         </is>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D12" s="10" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="11"/>
-    <row r="14" ht="12.75" customHeight="1" s="11"/>
-    <row r="15" ht="12.75" customHeight="1" s="11"/>
-    <row r="16" ht="12.75" customHeight="1" s="11"/>
-    <row r="17" ht="12.75" customHeight="1" s="11"/>
-    <row r="18" ht="12.75" customHeight="1" s="11"/>
-    <row r="19" ht="12.75" customHeight="1" s="11"/>
-    <row r="20" ht="12.75" customHeight="1" s="11"/>
-    <row r="21" ht="12.75" customHeight="1" s="11"/>
-    <row r="22" ht="12.75" customHeight="1" s="11"/>
-    <row r="23" ht="12.75" customHeight="1" s="11"/>
-    <row r="24" ht="12.75" customHeight="1" s="11"/>
-    <row r="25" ht="12.75" customHeight="1" s="11"/>
-    <row r="26" ht="12.75" customHeight="1" s="11"/>
-    <row r="1048576" ht="12.75" customHeight="1" s="11"/>
+      <c r="D12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="9"/>
+    <row r="14" ht="12.75" customHeight="1" s="9"/>
+    <row r="15" ht="12.75" customHeight="1" s="9"/>
+    <row r="16" ht="12.75" customHeight="1" s="9"/>
+    <row r="17" ht="12.75" customHeight="1" s="9"/>
+    <row r="18" ht="12.75" customHeight="1" s="9"/>
+    <row r="19" ht="12.75" customHeight="1" s="9"/>
+    <row r="20" ht="12.75" customHeight="1" s="9"/>
+    <row r="21" ht="12.75" customHeight="1" s="9"/>
+    <row r="22" ht="12.75" customHeight="1" s="9"/>
+    <row r="23" ht="12.75" customHeight="1" s="9"/>
+    <row r="24" ht="12.75" customHeight="1" s="9"/>
+    <row r="25" ht="12.75" customHeight="1" s="9"/>
+    <row r="26" ht="12.75" customHeight="1" s="9"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="9"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4262,171 +4349,86 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="14.1" customWidth="1" style="14" min="1" max="1"/>
-    <col width="22.01" customWidth="1" style="14" min="2" max="2"/>
+    <col width="14.1" customWidth="1" style="12" min="1" max="1"/>
+    <col width="22.01" customWidth="1" style="12" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="15">
-      <c r="A1" s="12" t="inlineStr">
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="13">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Serial #</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>ServiceNow #</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="11">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>222222</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="11">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>333333</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="n"/>
-      <c r="C3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="11">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="11">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>222233</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n"/>
-      <c r="C5" s="10" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="11">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>111122</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="11">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>456123</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n"/>
-      <c r="C7" s="10" t="n"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="11">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>323232</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="10" t="n"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="11">
-      <c r="A9" s="10" t="inlineStr">
-        <is>
-          <t>323232</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>INC-1532465</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="n"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="11">
-      <c r="A10" s="10" t="inlineStr">
-        <is>
-          <t>7898789</t>
-        </is>
-      </c>
-      <c r="B10" s="10" t="n"/>
-      <c r="C10" s="10" t="n"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="11">
-      <c r="A11" s="10" t="inlineStr">
-        <is>
-          <t>7898789</t>
-        </is>
-      </c>
-      <c r="B11" s="10" t="inlineStr">
-        <is>
-          <t>INC-15345679</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TASK-333333</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>98877665</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>RITM-765433</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>666677</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>George S does not have a servicenow ticket for the Headset</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" ht="12.75" customHeight="1" s="9">
+      <c r="A2" s="11" t="n"/>
+      <c r="B2" s="11" t="n"/>
+      <c r="C2" s="11" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="9">
+      <c r="A3" s="11" t="n"/>
+      <c r="B3" s="11" t="n"/>
+      <c r="C3" s="11" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="9">
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="9">
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="11" t="n"/>
+      <c r="C5" s="11" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="9">
+      <c r="A6" s="11" t="n"/>
+      <c r="B6" s="11" t="n"/>
+      <c r="C6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="9">
+      <c r="A7" s="11" t="n"/>
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="11" t="n"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="9">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>798546</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>798546</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RITM-0457896</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="9"/>
+    <row r="11" ht="12.75" customHeight="1" s="9"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -79,7 +79,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -95,14 +95,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -117,14 +111,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -321,973 +309,973 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A72" activeCellId="1" sqref="A2:B12 A72"/>
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="25.33" customWidth="1" style="8" min="1" max="3"/>
+    <col width="25.33" customWidth="1" style="6" min="1" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="9">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>SAN Number</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="9">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="11" t="n"/>
-      <c r="C2" s="11" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="9">
-      <c r="A3" s="11" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="7">
+      <c r="A2" s="9" t="n"/>
+      <c r="B2" s="9" t="n"/>
+      <c r="C2" s="9" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="7">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>SAN125045</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:34</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="9">
-      <c r="A4" s="11" t="inlineStr">
+    <row r="4" ht="12.75" customHeight="1" s="7">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>SAN125047</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:47</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="9">
-      <c r="A5" s="11" t="inlineStr">
+    <row r="5" ht="12.75" customHeight="1" s="7">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>SAN125043</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:53</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" s="9">
-      <c r="A6" s="11" t="inlineStr">
+    <row r="6" ht="12.75" customHeight="1" s="7">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>SAN125067</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:56</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="9">
-      <c r="A7" s="11" t="inlineStr">
+    <row r="7" ht="12.75" customHeight="1" s="7">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>SAN125078</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:01</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="9">
-      <c r="A8" s="11" t="inlineStr">
+    <row r="8" ht="12.75" customHeight="1" s="7">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>SAN125060</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:05</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="9">
-      <c r="A9" s="11" t="inlineStr">
+    <row r="9" ht="12.75" customHeight="1" s="7">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>SAN125059</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:11</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" s="9">
-      <c r="A10" s="11" t="inlineStr">
+    <row r="10" ht="12.75" customHeight="1" s="7">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>SAN125065</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:17</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" s="9">
-      <c r="A11" s="11" t="inlineStr">
+    <row r="11" ht="12.75" customHeight="1" s="7">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>SAN125063</t>
         </is>
       </c>
-      <c r="B11" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:23</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="9">
-      <c r="A12" s="11" t="inlineStr">
+    <row r="12" ht="12.75" customHeight="1" s="7">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>SAN125064</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:29</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" s="9">
-      <c r="A13" s="11" t="inlineStr">
+    <row r="13" ht="12.75" customHeight="1" s="7">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>SAN125054</t>
         </is>
       </c>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:34</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="9">
-      <c r="A14" s="11" t="inlineStr">
+    <row r="14" ht="12.75" customHeight="1" s="7">
+      <c r="A14" s="9" t="inlineStr">
         <is>
           <t>SAN125061</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:45</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="9">
-      <c r="A15" s="11" t="inlineStr">
+    <row r="15" ht="12.75" customHeight="1" s="7">
+      <c r="A15" s="9" t="inlineStr">
         <is>
           <t>SAN125071</t>
         </is>
       </c>
-      <c r="B15" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:59</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" s="9">
-      <c r="A16" s="11" t="inlineStr">
+    <row r="16" ht="12.75" customHeight="1" s="7">
+      <c r="A16" s="9" t="inlineStr">
         <is>
           <t>SAN125072</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:09</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" s="9">
-      <c r="A17" s="11" t="inlineStr">
+    <row r="17" ht="12.75" customHeight="1" s="7">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>SAN125053</t>
         </is>
       </c>
-      <c r="B17" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="B17" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:14</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1" s="9">
-      <c r="A18" s="11" t="inlineStr">
+    <row r="18" ht="12.75" customHeight="1" s="7">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>SAN125077</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:23</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1" s="9">
-      <c r="A19" s="11" t="inlineStr">
+    <row r="19" ht="12.75" customHeight="1" s="7">
+      <c r="A19" s="9" t="inlineStr">
         <is>
           <t>SAN125076</t>
         </is>
       </c>
-      <c r="B19" s="11" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="B19" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:28</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1" s="9">
-      <c r="A20" s="11" t="inlineStr">
+    <row r="20" ht="12.75" customHeight="1" s="7">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t>SAN122589</t>
         </is>
       </c>
-      <c r="B20" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:28</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1" s="9">
-      <c r="A21" s="11" t="inlineStr">
+    <row r="21" ht="12.75" customHeight="1" s="7">
+      <c r="A21" s="9" t="inlineStr">
         <is>
           <t>SAN122596</t>
         </is>
       </c>
-      <c r="B21" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:32</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" s="9">
-      <c r="A22" s="11" t="inlineStr">
+    <row r="22" ht="12.75" customHeight="1" s="7">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>SAN122603</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:40</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1" s="9">
-      <c r="A23" s="11" t="inlineStr">
+    <row r="23" ht="12.75" customHeight="1" s="7">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>SAN122611</t>
         </is>
       </c>
-      <c r="B23" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="B23" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:47</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1" s="9">
-      <c r="A24" s="11" t="inlineStr">
+    <row r="24" ht="12.75" customHeight="1" s="7">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>SAN122590</t>
         </is>
       </c>
-      <c r="B24" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C24" s="11" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:53</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1" s="9">
-      <c r="A25" s="11" t="inlineStr">
+    <row r="25" ht="12.75" customHeight="1" s="7">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>SAN122593</t>
         </is>
       </c>
-      <c r="B25" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C25" s="11" t="inlineStr">
+      <c r="B25" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:16</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1" s="9">
-      <c r="A26" s="11" t="inlineStr">
+    <row r="26" ht="12.75" customHeight="1" s="7">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>SAN122597</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C26" s="11" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:40</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1" s="9">
-      <c r="A27" s="11" t="inlineStr">
+    <row r="27" ht="12.75" customHeight="1" s="7">
+      <c r="A27" s="9" t="inlineStr">
         <is>
           <t>SAN122602</t>
         </is>
       </c>
-      <c r="B27" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="B27" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:49</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1" s="9">
-      <c r="A28" s="11" t="inlineStr">
+    <row r="28" ht="12.75" customHeight="1" s="7">
+      <c r="A28" s="9" t="inlineStr">
         <is>
           <t>SAN122610</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C28" s="11" t="inlineStr">
+      <c r="B28" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:53</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1" s="9">
-      <c r="A29" s="11" t="inlineStr">
+    <row r="29" ht="12.75" customHeight="1" s="7">
+      <c r="A29" s="9" t="inlineStr">
         <is>
           <t>SAN122599</t>
         </is>
       </c>
-      <c r="B29" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C29" s="11" t="inlineStr">
+      <c r="B29" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:58</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1" s="9">
-      <c r="A30" s="11" t="inlineStr">
+    <row r="30" ht="12.75" customHeight="1" s="7">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>SAN122592</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C30" s="11" t="inlineStr">
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:03</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1" s="9">
-      <c r="A31" s="11" t="inlineStr">
+    <row r="31" ht="12.75" customHeight="1" s="7">
+      <c r="A31" s="9" t="inlineStr">
         <is>
           <t>SAN122607</t>
         </is>
       </c>
-      <c r="B31" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C31" s="11" t="inlineStr">
+      <c r="B31" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:08</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1" s="9">
-      <c r="A32" s="11" t="inlineStr">
+    <row r="32" ht="12.75" customHeight="1" s="7">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>SAN122608</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:15</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1" s="9">
-      <c r="A33" s="11" t="inlineStr">
+    <row r="33" ht="12.75" customHeight="1" s="7">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>SAN122598</t>
         </is>
       </c>
-      <c r="B33" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="B33" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:20</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1" s="9">
-      <c r="A34" s="11" t="inlineStr">
+    <row r="34" ht="12.75" customHeight="1" s="7">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>SAN122591</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:26</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1" s="9">
-      <c r="A35" s="11" t="inlineStr">
+    <row r="35" ht="12.75" customHeight="1" s="7">
+      <c r="A35" s="9" t="inlineStr">
         <is>
           <t>SAN122613</t>
         </is>
       </c>
-      <c r="B35" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C35" s="11" t="inlineStr">
+      <c r="B35" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:42</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1" s="9">
-      <c r="A36" s="11" t="inlineStr">
+    <row r="36" ht="12.75" customHeight="1" s="7">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>SAN122604</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C36" s="11" t="inlineStr">
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:50</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1" s="9">
-      <c r="A37" s="11" t="inlineStr">
+    <row r="37" ht="12.75" customHeight="1" s="7">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>SAN122605</t>
         </is>
       </c>
-      <c r="B37" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C37" s="11" t="inlineStr">
+      <c r="B37" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:01</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1" s="9">
-      <c r="A38" s="11" t="inlineStr">
+    <row r="38" ht="12.75" customHeight="1" s="7">
+      <c r="A38" s="9" t="inlineStr">
         <is>
           <t>SAN122606</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C38" s="11" t="inlineStr">
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:07</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1" s="9">
-      <c r="A39" s="11" t="inlineStr">
+    <row r="39" ht="12.75" customHeight="1" s="7">
+      <c r="A39" s="9" t="inlineStr">
         <is>
           <t>SAN122601</t>
         </is>
       </c>
-      <c r="B39" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C39" s="11" t="inlineStr">
+      <c r="B39" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:13</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1" s="9">
-      <c r="A40" s="11" t="inlineStr">
+    <row r="40" ht="12.75" customHeight="1" s="7">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>SAN122595</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:19</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1" s="9">
-      <c r="A41" s="11" t="inlineStr">
+    <row r="41" ht="12.75" customHeight="1" s="7">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>SAN122609</t>
         </is>
       </c>
-      <c r="B41" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C41" s="11" t="inlineStr">
+      <c r="B41" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:15</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1" s="9">
-      <c r="A42" s="11" t="inlineStr">
+    <row r="42" ht="12.75" customHeight="1" s="7">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>SAN122594</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C42" s="11" t="inlineStr">
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:21</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1" s="9">
-      <c r="A43" s="11" t="inlineStr">
+    <row r="43" ht="12.75" customHeight="1" s="7">
+      <c r="A43" s="9" t="inlineStr">
         <is>
           <t>SAN122612</t>
         </is>
       </c>
-      <c r="B43" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C43" s="11" t="inlineStr">
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:39</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1" s="9">
-      <c r="A44" s="11" t="inlineStr">
+    <row r="44" ht="12.75" customHeight="1" s="7">
+      <c r="A44" s="9" t="inlineStr">
         <is>
           <t>SAN122304</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C44" s="11" t="inlineStr">
+      <c r="B44" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:46</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1" s="9">
-      <c r="A45" s="11" t="inlineStr">
+    <row r="45" ht="12.75" customHeight="1" s="7">
+      <c r="A45" s="9" t="inlineStr">
         <is>
           <t>SAN122305</t>
         </is>
       </c>
-      <c r="B45" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C45" s="11" t="inlineStr">
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:53</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1" s="9">
-      <c r="A46" s="11" t="inlineStr">
+    <row r="46" ht="12.75" customHeight="1" s="7">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>SAN122600</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C46" s="11" t="inlineStr">
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:44:23</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1" s="9">
-      <c r="A47" s="11" t="inlineStr">
+    <row r="47" ht="12.75" customHeight="1" s="7">
+      <c r="A47" s="9" t="inlineStr">
         <is>
           <t>SAN121911</t>
         </is>
       </c>
-      <c r="B47" s="11" t="inlineStr">
+      <c r="B47" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C47" s="11" t="inlineStr">
+      <c r="C47" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:07</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1" s="9">
-      <c r="A48" s="11" t="inlineStr">
+    <row r="48" ht="12.75" customHeight="1" s="7">
+      <c r="A48" s="9" t="inlineStr">
         <is>
           <t>SAN121929</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr">
+      <c r="B48" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C48" s="11" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:29</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1" s="9">
-      <c r="A49" s="11" t="inlineStr">
+    <row r="49" ht="12.75" customHeight="1" s="7">
+      <c r="A49" s="9" t="inlineStr">
         <is>
           <t>SAN120286</t>
         </is>
       </c>
-      <c r="B49" s="11" t="inlineStr">
+      <c r="B49" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C49" s="11" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:46</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1" s="9">
-      <c r="A50" s="11" t="inlineStr">
+    <row r="50" ht="12.75" customHeight="1" s="7">
+      <c r="A50" s="9" t="inlineStr">
         <is>
           <t>SAN120342</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr">
+      <c r="B50" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C50" s="11" t="inlineStr">
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:57</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1" s="9">
-      <c r="A51" s="11" t="inlineStr">
+    <row r="51" ht="12.75" customHeight="1" s="7">
+      <c r="A51" s="9" t="inlineStr">
         <is>
           <t>SAN106013</t>
         </is>
       </c>
-      <c r="B51" s="11" t="inlineStr">
+      <c r="B51" s="9" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C51" s="11" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:51:46</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1" s="9">
-      <c r="A52" s="11" t="inlineStr">
+    <row r="52" ht="12.75" customHeight="1" s="7">
+      <c r="A52" s="9" t="inlineStr">
         <is>
           <t>SAN106014</t>
         </is>
       </c>
-      <c r="B52" s="11" t="inlineStr">
+      <c r="B52" s="9" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:00</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1" s="9">
-      <c r="A53" s="11" t="inlineStr">
+    <row r="53" ht="12.75" customHeight="1" s="7">
+      <c r="A53" s="9" t="inlineStr">
         <is>
           <t>SAN106008</t>
         </is>
       </c>
-      <c r="B53" s="11" t="inlineStr">
+      <c r="B53" s="9" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C53" s="11" t="inlineStr">
+      <c r="C53" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:17</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1" s="9">
-      <c r="A54" s="11" t="inlineStr">
+    <row r="54" ht="12.75" customHeight="1" s="7">
+      <c r="A54" s="9" t="inlineStr">
         <is>
           <t>SAN111111</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C54" s="11" t="inlineStr">
+      <c r="B54" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>2024-01-11 12:06:10</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1" s="9">
-      <c r="A55" s="11" t="inlineStr">
+    <row r="55" ht="12.75" customHeight="1" s="7">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>SAN120950</t>
         </is>
       </c>
-      <c r="B55" s="11" t="inlineStr">
+      <c r="B55" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C55" s="11" t="inlineStr">
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>2024-01-12 10:54:13</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1" s="9">
-      <c r="A56" s="11" t="inlineStr">
+    <row r="56" ht="12.75" customHeight="1" s="7">
+      <c r="A56" s="9" t="inlineStr">
         <is>
           <t>SAN120864</t>
         </is>
       </c>
-      <c r="B56" s="11" t="inlineStr">
+      <c r="B56" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C56" s="11" t="inlineStr">
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>2024-01-12 10:54:20</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1" s="9">
-      <c r="A57" s="11" t="inlineStr">
+    <row r="57" ht="12.75" customHeight="1" s="7">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>SAN343434</t>
         </is>
       </c>
-      <c r="B57" s="11" t="inlineStr">
+      <c r="B57" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C57" s="11" t="inlineStr">
+      <c r="C57" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:52:55</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1" s="9"/>
-    <row r="59" ht="12.75" customHeight="1" s="9"/>
+    <row r="58" ht="12.75" customHeight="1" s="7"/>
+    <row r="59" ht="12.75" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1312,228 +1300,228 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="28" customWidth="1" style="12" min="1" max="1"/>
+    <col width="28" customWidth="1" style="10" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="13">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>LastCount</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>NewCount</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="9">
-      <c r="A2" s="15" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="n">
+    <row r="2" ht="12.75" customHeight="1" s="7">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="9">
-      <c r="A3" s="15" t="inlineStr">
+    <row r="3" ht="12.75" customHeight="1" s="7">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n"/>
-      <c r="C3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="9">
-      <c r="A4" s="15" t="inlineStr">
+      <c r="B3" s="9" t="n"/>
+      <c r="C3" s="9" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="7">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G2</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="9">
-      <c r="A5" s="15" t="inlineStr">
+    <row r="5" ht="12.75" customHeight="1" s="7">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>76</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" s="9">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="n">
+    <row r="6" ht="12.75" customHeight="1" s="7">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="9">
-      <c r="A7" s="15" t="inlineStr">
+    <row r="7" ht="12.75" customHeight="1" s="7">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="9">
-      <c r="A8" s="15" t="inlineStr">
+    <row r="8" ht="12.75" customHeight="1" s="7">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="9">
-      <c r="A9" s="15" t="inlineStr">
+    <row r="9" ht="12.75" customHeight="1" s="7">
+      <c r="A9" s="11" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" s="9">
-      <c r="A10" s="15" t="inlineStr">
+    <row r="10" ht="12.75" customHeight="1" s="7">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" s="9">
-      <c r="A11" s="15" t="inlineStr">
+    <row r="11" ht="12.75" customHeight="1" s="7">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="9">
-      <c r="A12" s="15" t="inlineStr">
+    <row r="12" ht="12.75" customHeight="1" s="7">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" s="9">
-      <c r="A13" s="15" t="inlineStr">
+    <row r="13" ht="12.75" customHeight="1" s="7">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n">
-        <v>71</v>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1" s="9">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="B13" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="7">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="9" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="9">
-      <c r="A15" s="15" t="inlineStr">
+    <row r="15" ht="12.75" customHeight="1" s="7">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>Wired Mouse</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n"/>
-      <c r="C15" s="8" t="n"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1" s="9">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="7">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1" s="9">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="C16" s="9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="7">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1558,2279 +1546,2407 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C99" activeCellId="1" sqref="A2:B12 C99"/>
+      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="18.34" customWidth="1" style="12" min="1" max="1"/>
-    <col width="20.56" customWidth="1" style="12" min="2" max="2"/>
-    <col width="18.22" customWidth="1" style="12" min="4" max="4"/>
+    <col width="18.34" customWidth="1" style="10" min="1" max="1"/>
+    <col width="20.56" customWidth="1" style="10" min="2" max="2"/>
+    <col width="18.22" customWidth="1" style="10" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="10">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="18" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>SAN Number</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="9">
-      <c r="A2" s="8" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="7">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:17:21</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>Add 4</t>
         </is>
       </c>
-      <c r="D2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="9">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="D2" s="9" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="7">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:19:11</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>Add 2</t>
         </is>
       </c>
-      <c r="D3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="9">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="D3" s="9" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="7">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:19:40</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>Add 36</t>
         </is>
       </c>
-      <c r="D4" s="8" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="9">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="D4" s="9" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="7">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:20:03</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="9">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="7">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:21:17</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Add 76</t>
         </is>
       </c>
-      <c r="D6" s="8" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="9">
-      <c r="A7" s="8" t="inlineStr">
+      <c r="D6" s="9" t="n"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="7">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:21:35</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Add 7</t>
         </is>
       </c>
-      <c r="D7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="9">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="D7" s="9" t="n"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="7">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:23:25</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Add 70</t>
         </is>
       </c>
-      <c r="D8" s="8" t="n"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="D8" s="9" t="n"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="7">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:25:25</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Add 5</t>
         </is>
       </c>
-      <c r="D9" s="8" t="n"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="9">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="D9" s="9" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="7">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:26:48</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Add 70</t>
         </is>
       </c>
-      <c r="D10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="9">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="D10" s="9" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="7">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:28:33</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G2</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Add 7</t>
         </is>
       </c>
-      <c r="D11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="9">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="D11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="7">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:34</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
         <is>
           <t>SAN125045</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" s="9">
-      <c r="A13" s="8" t="inlineStr">
+    <row r="13" ht="12.75" customHeight="1" s="7">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:47</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <t>SAN125047</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="9">
-      <c r="A14" s="8" t="inlineStr">
+    <row r="14" ht="12.75" customHeight="1" s="7">
+      <c r="A14" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:53</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
         <is>
           <t>SAN125043</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="9">
-      <c r="A15" s="8" t="inlineStr">
+    <row r="15" ht="12.75" customHeight="1" s="7">
+      <c r="A15" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:29:56</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
         <is>
           <t>SAN125067</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" s="9">
-      <c r="A16" s="8" t="inlineStr">
+    <row r="16" ht="12.75" customHeight="1" s="7">
+      <c r="A16" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:01</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>SAN125078</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" s="9">
-      <c r="A17" s="8" t="inlineStr">
+    <row r="17" ht="12.75" customHeight="1" s="7">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:05</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="B17" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>SAN125060</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1" s="9">
-      <c r="A18" s="8" t="inlineStr">
+    <row r="18" ht="12.75" customHeight="1" s="7">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:11</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
         <is>
           <t>SAN125059</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1" s="9">
-      <c r="A19" s="8" t="inlineStr">
+    <row r="19" ht="12.75" customHeight="1" s="7">
+      <c r="A19" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:17</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D19" s="8" t="inlineStr">
+      <c r="B19" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <t>SAN125065</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1" s="9">
-      <c r="A20" s="8" t="inlineStr">
+    <row r="20" ht="12.75" customHeight="1" s="7">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:23</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
         <is>
           <t>SAN125063</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1" s="9">
-      <c r="A21" s="8" t="inlineStr">
+    <row r="21" ht="12.75" customHeight="1" s="7">
+      <c r="A21" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:29</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
         <is>
           <t>SAN125064</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" s="9">
-      <c r="A22" s="8" t="inlineStr">
+    <row r="22" ht="12.75" customHeight="1" s="7">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:34</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
         <is>
           <t>SAN125054</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1" s="9">
-      <c r="A23" s="8" t="inlineStr">
+    <row r="23" ht="12.75" customHeight="1" s="7">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:45</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="inlineStr">
+      <c r="B23" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
         <is>
           <t>SAN125061</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1" s="9">
-      <c r="A24" s="8" t="inlineStr">
+    <row r="24" ht="12.75" customHeight="1" s="7">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:30:59</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
         <is>
           <t>SAN125071</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1" s="9">
-      <c r="A25" s="8" t="inlineStr">
+    <row r="25" ht="12.75" customHeight="1" s="7">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:09</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
+      <c r="B25" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
         <is>
           <t>SAN125072</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1" s="9">
-      <c r="A26" s="8" t="inlineStr">
+    <row r="26" ht="12.75" customHeight="1" s="7">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:14</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
         <is>
           <t>SAN125053</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1" s="9">
-      <c r="A27" s="8" t="inlineStr">
+    <row r="27" ht="12.75" customHeight="1" s="7">
+      <c r="A27" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:23</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr">
+      <c r="B27" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
         <is>
           <t>SAN125077</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1" s="9">
-      <c r="A28" s="8" t="inlineStr">
+    <row r="28" ht="12.75" customHeight="1" s="7">
+      <c r="A28" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:31:28</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="inlineStr">
+      <c r="B28" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="inlineStr">
         <is>
           <t>SAN125076</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1" s="9">
-      <c r="A29" s="8" t="inlineStr">
+    <row r="29" ht="12.75" customHeight="1" s="7">
+      <c r="A29" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:34:13</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B29" s="9" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="C29" s="8" t="inlineStr">
+      <c r="C29" s="9" t="inlineStr">
         <is>
           <t>Add 3</t>
         </is>
       </c>
-      <c r="D29" s="8" t="n"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1" s="9">
-      <c r="A30" s="8" t="inlineStr">
+      <c r="D29" s="9" t="n"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1" s="7">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:28</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="inlineStr">
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
         <is>
           <t>SAN122589</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1" s="9">
-      <c r="A31" s="8" t="inlineStr">
+    <row r="31" ht="12.75" customHeight="1" s="7">
+      <c r="A31" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:32</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="inlineStr">
+      <c r="B31" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
         <is>
           <t>SAN122596</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1" s="9">
-      <c r="A32" s="8" t="inlineStr">
+    <row r="32" ht="12.75" customHeight="1" s="7">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:40</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C32" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
         <is>
           <t>SAN122603</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1" s="9">
-      <c r="A33" s="8" t="inlineStr">
+    <row r="33" ht="12.75" customHeight="1" s="7">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:47</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="inlineStr">
+      <c r="B33" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
         <is>
           <t>SAN122611</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1" s="9">
-      <c r="A34" s="8" t="inlineStr">
+    <row r="34" ht="12.75" customHeight="1" s="7">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:39:53</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C34" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D34" s="8" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
         <is>
           <t>SAN122590</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1" s="9">
-      <c r="A35" s="8" t="inlineStr">
+    <row r="35" ht="12.75" customHeight="1" s="7">
+      <c r="A35" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:16</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D35" s="8" t="inlineStr">
+      <c r="B35" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
         <is>
           <t>SAN122593</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1" s="9">
-      <c r="A36" s="8" t="inlineStr">
+    <row r="36" ht="12.75" customHeight="1" s="7">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:40</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C36" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D36" s="8" t="inlineStr">
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
         <is>
           <t>SAN122597</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1" s="9">
-      <c r="A37" s="8" t="inlineStr">
+    <row r="37" ht="12.75" customHeight="1" s="7">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:49</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="inlineStr">
+      <c r="B37" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
         <is>
           <t>SAN122602</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1" s="9">
-      <c r="A38" s="8" t="inlineStr">
+    <row r="38" ht="12.75" customHeight="1" s="7">
+      <c r="A38" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:53</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C38" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D38" s="8" t="inlineStr">
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
         <is>
           <t>SAN122610</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1" s="9">
-      <c r="A39" s="8" t="inlineStr">
+    <row r="39" ht="12.75" customHeight="1" s="7">
+      <c r="A39" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:40:58</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C39" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D39" s="8" t="inlineStr">
+      <c r="B39" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
         <is>
           <t>SAN122599</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1" s="9">
-      <c r="A40" s="8" t="inlineStr">
+    <row r="40" ht="12.75" customHeight="1" s="7">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:03</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C40" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D40" s="8" t="inlineStr">
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
         <is>
           <t>SAN122592</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1" s="9">
-      <c r="A41" s="8" t="inlineStr">
+    <row r="41" ht="12.75" customHeight="1" s="7">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:08</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C41" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D41" s="8" t="inlineStr">
+      <c r="B41" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
         <is>
           <t>SAN122607</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1" s="9">
-      <c r="A42" s="8" t="inlineStr">
+    <row r="42" ht="12.75" customHeight="1" s="7">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:15</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C42" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D42" s="8" t="inlineStr">
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
         <is>
           <t>SAN122608</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1" s="9">
-      <c r="A43" s="8" t="inlineStr">
+    <row r="43" ht="12.75" customHeight="1" s="7">
+      <c r="A43" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:20</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C43" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D43" s="8" t="inlineStr">
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D43" s="9" t="inlineStr">
         <is>
           <t>SAN122598</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1" s="9">
-      <c r="A44" s="8" t="inlineStr">
+    <row r="44" ht="12.75" customHeight="1" s="7">
+      <c r="A44" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:26</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C44" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D44" s="8" t="inlineStr">
+      <c r="B44" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
         <is>
           <t>SAN122591</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1" s="9">
-      <c r="A45" s="8" t="inlineStr">
+    <row r="45" ht="12.75" customHeight="1" s="7">
+      <c r="A45" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:42</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D45" s="8" t="inlineStr">
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
         <is>
           <t>SAN122613</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1" s="9">
-      <c r="A46" s="8" t="inlineStr">
+    <row r="46" ht="12.75" customHeight="1" s="7">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:50</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D46" s="8" t="inlineStr">
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
         <is>
           <t>SAN122604</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1" s="9">
-      <c r="A47" s="8" t="inlineStr">
+    <row r="47" ht="12.75" customHeight="1" s="7">
+      <c r="A47" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:01</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C47" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D47" s="8" t="inlineStr">
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
         <is>
           <t>SAN122605</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1" s="9">
-      <c r="A48" s="8" t="inlineStr">
+    <row r="48" ht="12.75" customHeight="1" s="7">
+      <c r="A48" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:07</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C48" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D48" s="8" t="inlineStr">
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
         <is>
           <t>SAN122606</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1" s="9">
-      <c r="A49" s="8" t="inlineStr">
+    <row r="49" ht="12.75" customHeight="1" s="7">
+      <c r="A49" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:13</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C49" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D49" s="8" t="inlineStr">
+      <c r="B49" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C49" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
         <is>
           <t>SAN122601</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1" s="9">
-      <c r="A50" s="8" t="inlineStr">
+    <row r="50" ht="12.75" customHeight="1" s="7">
+      <c r="A50" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:42:19</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C50" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D50" s="8" t="inlineStr">
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
         <is>
           <t>SAN122595</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1" s="9">
-      <c r="A51" s="8" t="inlineStr">
+    <row r="51" ht="12.75" customHeight="1" s="7">
+      <c r="A51" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:15</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C51" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D51" s="8" t="inlineStr">
+      <c r="B51" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C51" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
         <is>
           <t>SAN122609</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1" s="9">
-      <c r="A52" s="8" t="inlineStr">
+    <row r="52" ht="12.75" customHeight="1" s="7">
+      <c r="A52" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:21</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C52" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D52" s="8" t="inlineStr">
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
         <is>
           <t>SAN122594</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1" s="9">
-      <c r="A53" s="8" t="inlineStr">
+    <row r="53" ht="12.75" customHeight="1" s="7">
+      <c r="A53" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:39</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C53" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D53" s="8" t="inlineStr">
+      <c r="B53" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C53" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
         <is>
           <t>SAN122612</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1" s="9">
-      <c r="A54" s="8" t="inlineStr">
+    <row r="54" ht="12.75" customHeight="1" s="7">
+      <c r="A54" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:46</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C54" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D54" s="8" t="inlineStr">
+      <c r="B54" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D54" s="9" t="inlineStr">
         <is>
           <t>SAN122304</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1" s="9">
-      <c r="A55" s="8" t="inlineStr">
+    <row r="55" ht="12.75" customHeight="1" s="7">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:43:53</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C55" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D55" s="8" t="inlineStr">
+      <c r="B55" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C55" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D55" s="9" t="inlineStr">
         <is>
           <t>SAN122305</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1" s="9">
-      <c r="A56" s="8" t="inlineStr">
+    <row r="56" ht="12.75" customHeight="1" s="7">
+      <c r="A56" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:44:23</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C56" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D56" s="8" t="inlineStr">
+      <c r="B56" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D56" s="9" t="inlineStr">
         <is>
           <t>SAN122600</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1" s="9">
-      <c r="A57" s="8" t="inlineStr">
+    <row r="57" ht="12.75" customHeight="1" s="7">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:07</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B57" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C57" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D57" s="8" t="inlineStr">
+      <c r="C57" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
         <is>
           <t>SAN121911</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1" s="9">
-      <c r="A58" s="8" t="inlineStr">
+    <row r="58" ht="12.75" customHeight="1" s="7">
+      <c r="A58" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:19</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
+      <c r="B58" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C58" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D58" s="8" t="inlineStr">
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
         <is>
           <t>SAN120358</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1" s="9">
-      <c r="A59" s="8" t="inlineStr">
+    <row r="59" ht="12.75" customHeight="1" s="7">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:29</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
+      <c r="B59" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C59" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D59" s="8" t="inlineStr">
+      <c r="C59" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
         <is>
           <t>SAN121929</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1" s="9">
-      <c r="A60" s="8" t="inlineStr">
+    <row r="60" ht="12.75" customHeight="1" s="7">
+      <c r="A60" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:38</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B60" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C60" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D60" s="8" t="inlineStr">
+      <c r="C60" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
         <is>
           <t>SAN121895</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1" s="9">
-      <c r="A61" s="8" t="inlineStr">
+    <row r="61" ht="12.75" customHeight="1" s="7">
+      <c r="A61" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:46</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B61" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C61" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D61" s="8" t="inlineStr">
+      <c r="C61" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
         <is>
           <t>SAN120286</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1" s="9">
-      <c r="A62" s="8" t="inlineStr">
+    <row r="62" ht="12.75" customHeight="1" s="7">
+      <c r="A62" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:50:57</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B62" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C62" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D62" s="8" t="inlineStr">
+      <c r="C62" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
         <is>
           <t>SAN120342</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1" s="9">
-      <c r="A63" s="8" t="inlineStr">
+    <row r="63" ht="12.75" customHeight="1" s="7">
+      <c r="A63" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:51:46</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
+      <c r="B63" s="9" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C63" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D63" s="8" t="inlineStr">
+      <c r="C63" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
         <is>
           <t>SAN106013</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1" s="9">
-      <c r="A64" s="8" t="inlineStr">
+    <row r="64" ht="12.75" customHeight="1" s="7">
+      <c r="A64" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:00</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="B64" s="9" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C64" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D64" s="8" t="inlineStr">
+      <c r="C64" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
         <is>
           <t>SAN106014</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1" s="9">
-      <c r="A65" s="8" t="inlineStr">
+    <row r="65" ht="12.75" customHeight="1" s="7">
+      <c r="A65" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:08</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="B65" s="9" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C65" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D65" s="8" t="inlineStr">
+      <c r="C65" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
         <is>
           <t>SAN106026</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1" s="9">
-      <c r="A66" s="8" t="inlineStr">
+    <row r="66" ht="12.75" customHeight="1" s="7">
+      <c r="A66" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:52:17</t>
         </is>
       </c>
-      <c r="B66" s="8" t="inlineStr">
+      <c r="B66" s="9" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C66" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D66" s="8" t="inlineStr">
+      <c r="C66" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
         <is>
           <t>SAN106008</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1" s="9">
-      <c r="A67" s="8" t="inlineStr">
+    <row r="67" ht="12.75" customHeight="1" s="7">
+      <c r="A67" s="9" t="inlineStr">
         <is>
           <t>2024-01-10 16:55:59</t>
         </is>
       </c>
-      <c r="B67" s="8" t="inlineStr">
+      <c r="B67" s="9" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="C67" s="8" t="inlineStr">
+      <c r="C67" s="9" t="inlineStr">
         <is>
           <t>Add 11</t>
         </is>
       </c>
-      <c r="D67" s="8" t="n"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1" s="9">
-      <c r="A68" s="8" t="inlineStr">
+      <c r="D67" s="9" t="n"/>
+    </row>
+    <row r="68" ht="12.75" customHeight="1" s="7">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:00</t>
         </is>
       </c>
-      <c r="B68" s="8" t="inlineStr">
+      <c r="B68" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C68" s="8" t="inlineStr">
+      <c r="C68" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D68" s="8" t="n"/>
-    </row>
-    <row r="69" ht="12.75" customHeight="1" s="9">
-      <c r="A69" s="8" t="inlineStr">
+      <c r="D68" s="9" t="n"/>
+    </row>
+    <row r="69" ht="12.75" customHeight="1" s="7">
+      <c r="A69" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:10</t>
         </is>
       </c>
-      <c r="B69" s="8" t="inlineStr">
+      <c r="B69" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C69" s="8" t="inlineStr">
+      <c r="C69" s="9" t="inlineStr">
         <is>
           <t>add 5</t>
         </is>
       </c>
-      <c r="D69" s="8" t="n"/>
-    </row>
-    <row r="70" ht="12.75" customHeight="1" s="9">
-      <c r="A70" s="8" t="inlineStr">
+      <c r="D69" s="9" t="n"/>
+    </row>
+    <row r="70" ht="12.75" customHeight="1" s="7">
+      <c r="A70" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:26</t>
         </is>
       </c>
-      <c r="B70" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C70" s="8" t="inlineStr">
+      <c r="B70" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C70" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D70" s="8" t="inlineStr">
+      <c r="D70" s="9" t="inlineStr">
         <is>
           <t>SAN124323</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1" s="9">
-      <c r="A71" s="8" t="inlineStr">
+    <row r="71" ht="12.75" customHeight="1" s="7">
+      <c r="A71" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:30</t>
         </is>
       </c>
-      <c r="B71" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C71" s="8" t="inlineStr">
+      <c r="B71" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D71" s="8" t="inlineStr">
+      <c r="D71" s="9" t="inlineStr">
         <is>
           <t>SAN124354</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1" s="9">
-      <c r="A72" s="8" t="inlineStr">
+    <row r="72" ht="12.75" customHeight="1" s="7">
+      <c r="A72" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:38</t>
         </is>
       </c>
-      <c r="B72" s="8" t="inlineStr">
+      <c r="B72" s="9" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="C72" s="8" t="inlineStr">
+      <c r="C72" s="9" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D72" s="8" t="n"/>
-    </row>
-    <row r="73" ht="12.75" customHeight="1" s="9">
-      <c r="A73" s="8" t="inlineStr">
+      <c r="D72" s="9" t="n"/>
+    </row>
+    <row r="73" ht="12.75" customHeight="1" s="7">
+      <c r="A73" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:18:48</t>
         </is>
       </c>
-      <c r="B73" s="8" t="inlineStr">
+      <c r="B73" s="9" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="C73" s="8" t="inlineStr">
+      <c r="C73" s="9" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-      <c r="D73" s="8" t="n"/>
-    </row>
-    <row r="74" ht="12.75" customHeight="1" s="9">
-      <c r="A74" s="8" t="inlineStr">
+      <c r="D73" s="9" t="n"/>
+    </row>
+    <row r="74" ht="12.75" customHeight="1" s="7">
+      <c r="A74" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:22:16</t>
         </is>
       </c>
-      <c r="B74" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C74" s="8" t="inlineStr">
+      <c r="B74" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D74" s="8" t="inlineStr">
+      <c r="D74" s="9" t="inlineStr">
         <is>
           <t>SAN124354</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1" s="9">
-      <c r="A75" s="8" t="inlineStr">
+    <row r="75" ht="12.75" customHeight="1" s="7">
+      <c r="A75" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:22:43</t>
         </is>
       </c>
-      <c r="B75" s="8" t="inlineStr">
+      <c r="B75" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C75" s="8" t="inlineStr">
+      <c r="C75" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D75" s="8" t="n"/>
-    </row>
-    <row r="76" ht="12.75" customHeight="1" s="9">
-      <c r="A76" s="8" t="inlineStr">
+      <c r="D75" s="9" t="n"/>
+    </row>
+    <row r="76" ht="12.75" customHeight="1" s="7">
+      <c r="A76" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:28:21</t>
         </is>
       </c>
-      <c r="B76" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C76" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D76" s="8" t="inlineStr">
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1" s="9">
-      <c r="A77" s="8" t="inlineStr">
+    <row r="77" ht="12.75" customHeight="1" s="7">
+      <c r="A77" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:28:27</t>
         </is>
       </c>
-      <c r="B77" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C77" s="8" t="inlineStr">
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
         <is>
           <t>subtract</t>
         </is>
       </c>
-      <c r="D77" s="8" t="inlineStr">
+      <c r="D77" s="9" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1" s="9">
-      <c r="A78" s="8" t="inlineStr">
+    <row r="78" ht="12.75" customHeight="1" s="7">
+      <c r="A78" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:47:39</t>
         </is>
       </c>
-      <c r="B78" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C78" s="8" t="inlineStr">
+      <c r="B78" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C78" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D78" s="8" t="inlineStr">
+      <c r="D78" s="9" t="inlineStr">
         <is>
           <t>SAN13579</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1" s="9">
-      <c r="A79" s="8" t="inlineStr">
+    <row r="79" ht="12.75" customHeight="1" s="7">
+      <c r="A79" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:47:48</t>
         </is>
       </c>
-      <c r="B79" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C79" s="8" t="inlineStr">
+      <c r="B79" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D79" s="8" t="inlineStr">
+      <c r="D79" s="9" t="inlineStr">
         <is>
           <t>SAN13578</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1" s="9">
-      <c r="A80" s="8" t="inlineStr">
+    <row r="80" ht="12.75" customHeight="1" s="7">
+      <c r="A80" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:47:55</t>
         </is>
       </c>
-      <c r="B80" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C80" s="8" t="inlineStr">
+      <c r="B80" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C80" s="9" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-      <c r="D80" s="8" t="n"/>
-    </row>
-    <row r="81" ht="12.75" customHeight="1" s="9">
-      <c r="A81" s="8" t="inlineStr">
+      <c r="D80" s="9" t="n"/>
+    </row>
+    <row r="81" ht="12.75" customHeight="1" s="7">
+      <c r="A81" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:48:02</t>
         </is>
       </c>
-      <c r="B81" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C81" s="8" t="inlineStr">
+      <c r="B81" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C81" s="9" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-      <c r="D81" s="8" t="n"/>
-    </row>
-    <row r="82" ht="12.75" customHeight="1" s="9">
-      <c r="A82" s="8" t="inlineStr">
+      <c r="D81" s="9" t="n"/>
+    </row>
+    <row r="82" ht="12.75" customHeight="1" s="7">
+      <c r="A82" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:58:04</t>
         </is>
       </c>
-      <c r="B82" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C82" s="8" t="inlineStr">
+      <c r="B82" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C82" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D82" s="8" t="inlineStr">
+      <c r="D82" s="9" t="inlineStr">
         <is>
           <t>SAN124578</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="12.75" customHeight="1" s="9">
-      <c r="A83" s="8" t="inlineStr">
+    <row r="83" ht="12.75" customHeight="1" s="7">
+      <c r="A83" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:58:20</t>
         </is>
       </c>
-      <c r="B83" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C83" s="8" t="inlineStr">
+      <c r="B83" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C83" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D83" s="8" t="n"/>
-    </row>
-    <row r="84" ht="12.75" customHeight="1" s="9">
-      <c r="A84" s="8" t="inlineStr">
+      <c r="D83" s="9" t="n"/>
+    </row>
+    <row r="84" ht="12.75" customHeight="1" s="7">
+      <c r="A84" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:58:48</t>
         </is>
       </c>
-      <c r="B84" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C84" s="8" t="inlineStr">
+      <c r="B84" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C84" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D84" s="8" t="inlineStr">
+      <c r="D84" s="9" t="inlineStr">
         <is>
           <t>SAN124589</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="12.75" customHeight="1" s="9">
-      <c r="A85" s="8" t="inlineStr">
+    <row r="85" ht="12.75" customHeight="1" s="7">
+      <c r="A85" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 14:59:05</t>
         </is>
       </c>
-      <c r="B85" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C85" s="8" t="inlineStr">
+      <c r="B85" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C85" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D85" s="8" t="n"/>
-    </row>
-    <row r="86" ht="12.75" customHeight="1" s="9">
-      <c r="A86" s="8" t="inlineStr">
+      <c r="D85" s="9" t="n"/>
+    </row>
+    <row r="86" ht="12.75" customHeight="1" s="7">
+      <c r="A86" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:14</t>
         </is>
       </c>
-      <c r="B86" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C86" s="8" t="inlineStr">
+      <c r="B86" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C86" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D86" s="8" t="inlineStr">
+      <c r="D86" s="9" t="inlineStr">
         <is>
           <t>SAN223344</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="12.75" customHeight="1" s="9">
-      <c r="A87" s="8" t="inlineStr">
+    <row r="87" ht="12.75" customHeight="1" s="7">
+      <c r="A87" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:19</t>
         </is>
       </c>
-      <c r="B87" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C87" s="8" t="inlineStr">
+      <c r="B87" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C87" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D87" s="8" t="inlineStr">
+      <c r="D87" s="9" t="inlineStr">
         <is>
           <t>SAN445566</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="12.75" customHeight="1" s="9">
-      <c r="A88" s="8" t="inlineStr">
+    <row r="88" ht="12.75" customHeight="1" s="7">
+      <c r="A88" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:40</t>
         </is>
       </c>
-      <c r="B88" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C88" s="8" t="inlineStr">
+      <c r="B88" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C88" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D88" s="8" t="inlineStr">
+      <c r="D88" s="9" t="inlineStr">
         <is>
           <t>SAN223344</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="12.75" customHeight="1" s="9">
-      <c r="A89" s="8" t="inlineStr">
+    <row r="89" ht="12.75" customHeight="1" s="7">
+      <c r="A89" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 15:06:50</t>
         </is>
       </c>
-      <c r="B89" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C89" s="8" t="inlineStr">
+      <c r="B89" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C89" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D89" s="8" t="inlineStr">
+      <c r="D89" s="9" t="inlineStr">
         <is>
           <t>SAN445566</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="12.75" customHeight="1" s="9">
-      <c r="A90" s="8" t="inlineStr">
+    <row r="90" ht="12.75" customHeight="1" s="7">
+      <c r="A90" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 15:21:48</t>
         </is>
       </c>
-      <c r="B90" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C90" s="8" t="inlineStr">
+      <c r="B90" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C90" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D90" s="8" t="inlineStr">
+      <c r="D90" s="9" t="inlineStr">
         <is>
           <t>SAN111334</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="12.75" customHeight="1" s="9">
-      <c r="A91" s="8" t="inlineStr">
+    <row r="91" ht="12.75" customHeight="1" s="7">
+      <c r="A91" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 15:21:54</t>
         </is>
       </c>
-      <c r="B91" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C91" s="8" t="inlineStr">
+      <c r="B91" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C91" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D91" s="8" t="inlineStr">
+      <c r="D91" s="9" t="inlineStr">
         <is>
           <t>SAN111334</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="12.75" customHeight="1" s="9">
-      <c r="A92" s="8" t="inlineStr">
+    <row r="92" ht="12.75" customHeight="1" s="7">
+      <c r="A92" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 21:25:51</t>
         </is>
       </c>
-      <c r="B92" s="8" t="inlineStr">
+      <c r="B92" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C92" s="8" t="inlineStr">
+      <c r="C92" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D92" s="8" t="n"/>
-    </row>
-    <row r="93" ht="12.75" customHeight="1" s="9">
-      <c r="A93" s="8" t="inlineStr">
+      <c r="D92" s="9" t="n"/>
+    </row>
+    <row r="93" ht="12.75" customHeight="1" s="7">
+      <c r="A93" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 21:25:57</t>
         </is>
       </c>
-      <c r="B93" s="8" t="inlineStr">
+      <c r="B93" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C93" s="8" t="inlineStr">
+      <c r="C93" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D93" s="8" t="n"/>
-    </row>
-    <row r="94" ht="12.75" customHeight="1" s="9">
-      <c r="A94" s="8" t="inlineStr">
+      <c r="D93" s="9" t="n"/>
+    </row>
+    <row r="94" ht="12.75" customHeight="1" s="7">
+      <c r="A94" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 21:32:36</t>
         </is>
       </c>
-      <c r="B94" s="8" t="inlineStr">
+      <c r="B94" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C94" s="8" t="inlineStr">
+      <c r="C94" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D94" s="8" t="n"/>
-    </row>
-    <row r="95" ht="12.75" customHeight="1" s="9">
-      <c r="A95" s="8" t="inlineStr">
+      <c r="D94" s="9" t="n"/>
+    </row>
+    <row r="95" ht="12.75" customHeight="1" s="7">
+      <c r="A95" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 21:48:25</t>
         </is>
       </c>
-      <c r="B95" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C95" s="8" t="inlineStr">
+      <c r="B95" s="9" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C95" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D95" s="8" t="inlineStr">
+      <c r="D95" s="9" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="12.75" customHeight="1" s="9">
-      <c r="A96" s="8" t="inlineStr">
+    <row r="96" ht="12.75" customHeight="1" s="7">
+      <c r="A96" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 21:51:03</t>
         </is>
       </c>
-      <c r="B96" s="8" t="inlineStr">
+      <c r="B96" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C96" s="8" t="inlineStr">
+      <c r="C96" s="9" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D96" s="8" t="n"/>
-    </row>
-    <row r="97" ht="12.75" customHeight="1" s="9">
-      <c r="A97" s="8" t="inlineStr">
+      <c r="D96" s="9" t="n"/>
+    </row>
+    <row r="97" ht="12.75" customHeight="1" s="7">
+      <c r="A97" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 22:08:54</t>
         </is>
       </c>
-      <c r="B97" s="8" t="inlineStr">
+      <c r="B97" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C97" s="8" t="inlineStr">
+      <c r="C97" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D97" s="8" t="n"/>
-    </row>
-    <row r="98" ht="12.75" customHeight="1" s="9">
-      <c r="A98" s="8" t="inlineStr">
+      <c r="D97" s="9" t="n"/>
+    </row>
+    <row r="98" ht="12.75" customHeight="1" s="7">
+      <c r="A98" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:06:14</t>
         </is>
       </c>
-      <c r="B98" s="8" t="inlineStr">
+      <c r="B98" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C98" s="8" t="inlineStr">
+      <c r="C98" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D98" s="8" t="n"/>
-    </row>
-    <row r="99" ht="12.75" customHeight="1" s="9">
-      <c r="A99" s="8" t="inlineStr">
+      <c r="D98" s="9" t="n"/>
+    </row>
+    <row r="99" ht="12.75" customHeight="1" s="7">
+      <c r="A99" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:12:13</t>
         </is>
       </c>
-      <c r="B99" s="8" t="inlineStr">
+      <c r="B99" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C99" s="8" t="inlineStr">
+      <c r="C99" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D99" s="8" t="n"/>
-    </row>
-    <row r="100" ht="12.75" customHeight="1" s="9">
-      <c r="A100" s="8" t="inlineStr">
+      <c r="D99" s="9" t="n"/>
+    </row>
+    <row r="100" ht="12.75" customHeight="1" s="7">
+      <c r="A100" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:14:58</t>
         </is>
       </c>
-      <c r="B100" s="8" t="inlineStr">
+      <c r="B100" s="9" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="C100" s="8" t="inlineStr">
+      <c r="C100" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D100" s="8" t="n"/>
-    </row>
-    <row r="101" ht="12.75" customHeight="1" s="9">
-      <c r="A101" s="8" t="inlineStr">
+      <c r="D100" s="9" t="n"/>
+    </row>
+    <row r="101" ht="12.75" customHeight="1" s="7">
+      <c r="A101" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:14:58</t>
         </is>
       </c>
-      <c r="B101" s="8" t="inlineStr">
+      <c r="B101" s="9" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="C101" s="8" t="inlineStr">
+      <c r="C101" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D101" s="8" t="n"/>
-    </row>
-    <row r="102" ht="12.75" customHeight="1" s="9">
-      <c r="A102" s="8" t="inlineStr">
+      <c r="D101" s="9" t="n"/>
+    </row>
+    <row r="102" ht="12.75" customHeight="1" s="7">
+      <c r="A102" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:15:02</t>
         </is>
       </c>
-      <c r="B102" s="8" t="inlineStr">
+      <c r="B102" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C102" s="8" t="inlineStr">
+      <c r="C102" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D102" s="8" t="n"/>
-    </row>
-    <row r="103" ht="12.75" customHeight="1" s="9">
-      <c r="A103" s="12" t="inlineStr">
+      <c r="D102" s="9" t="n"/>
+    </row>
+    <row r="103" ht="12.75" customHeight="1" s="7">
+      <c r="A103" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:24:19</t>
         </is>
       </c>
-      <c r="B103" s="12" t="inlineStr">
+      <c r="B103" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C103" s="12" t="inlineStr">
+      <c r="C103" s="9" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-    </row>
-    <row r="104" ht="12.75" customHeight="1" s="9">
-      <c r="A104" s="12" t="inlineStr">
+      <c r="D103" s="9" t="n"/>
+    </row>
+    <row r="104" ht="12.75" customHeight="1" s="7">
+      <c r="A104" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:51:30</t>
         </is>
       </c>
-      <c r="B104" s="12" t="inlineStr">
+      <c r="B104" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C104" s="12" t="inlineStr">
+      <c r="C104" s="9" t="inlineStr">
         <is>
           <t>subtract 3</t>
         </is>
       </c>
-    </row>
-    <row r="105" ht="12.75" customHeight="1" s="9">
-      <c r="A105" s="12" t="inlineStr">
+      <c r="D104" s="9" t="n"/>
+    </row>
+    <row r="105" ht="12.75" customHeight="1" s="7">
+      <c r="A105" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:51:52</t>
         </is>
       </c>
-      <c r="B105" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C105" s="12" t="inlineStr">
+      <c r="B105" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C105" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D105" s="12" t="inlineStr">
+      <c r="D105" s="9" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
     </row>
-    <row r="106" ht="12.75" customHeight="1" s="9">
-      <c r="A106" s="12" t="inlineStr">
+    <row r="106" ht="12.75" customHeight="1" s="7">
+      <c r="A106" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:52:13</t>
         </is>
       </c>
-      <c r="B106" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C106" s="12" t="inlineStr">
+      <c r="B106" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C106" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D106" s="12" t="inlineStr">
+      <c r="D106" s="9" t="inlineStr">
         <is>
           <t>SAN120358</t>
         </is>
       </c>
     </row>
-    <row r="107" ht="12.75" customHeight="1" s="9">
-      <c r="A107" s="12" t="inlineStr">
+    <row r="107" ht="12.75" customHeight="1" s="7">
+      <c r="A107" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:52:40</t>
         </is>
       </c>
-      <c r="B107" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C107" s="12" t="inlineStr">
+      <c r="B107" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C107" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D107" s="12" t="inlineStr">
+      <c r="D107" s="9" t="inlineStr">
         <is>
           <t>SAN121895</t>
         </is>
       </c>
     </row>
-    <row r="108" ht="12.75" customHeight="1" s="9">
-      <c r="A108" s="12" t="inlineStr">
+    <row r="108" ht="12.75" customHeight="1" s="7">
+      <c r="A108" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:52:55</t>
         </is>
       </c>
-      <c r="B108" s="12" t="inlineStr">
+      <c r="B108" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C108" s="12" t="inlineStr">
+      <c r="C108" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D108" s="12" t="inlineStr">
+      <c r="D108" s="9" t="inlineStr">
         <is>
           <t>SAN343434</t>
         </is>
       </c>
     </row>
-    <row r="109" ht="12.75" customHeight="1" s="9">
-      <c r="A109" s="12" t="inlineStr">
+    <row r="109" ht="12.75" customHeight="1" s="7">
+      <c r="A109" s="9" t="inlineStr">
         <is>
           <t>2024-01-30 00:02:08</t>
         </is>
       </c>
-      <c r="B109" s="12" t="inlineStr">
+      <c r="B109" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C109" s="12" t="inlineStr">
+      <c r="C109" s="9" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-    </row>
-    <row r="1048576" ht="12.75" customHeight="1" s="9"/>
+      <c r="D109" s="9" t="n"/>
+    </row>
+    <row r="110" ht="12.75" customHeight="1" s="7">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>2024-01-30 21:58:26</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="n"/>
+    </row>
+    <row r="111" ht="12.75" customHeight="1" s="7">
+      <c r="A111" s="9" t="inlineStr">
+        <is>
+          <t>2024-01-30 22:03:23</t>
+        </is>
+      </c>
+      <c r="B111" s="9" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C111" s="9" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D111" s="9" t="n"/>
+    </row>
+    <row r="112" ht="12.75" customHeight="1" s="7">
+      <c r="A112" s="10" t="inlineStr">
+        <is>
+          <t>2024-01-31 21:17:30</t>
+        </is>
+      </c>
+      <c r="B112" s="10" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C112" s="10" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="10" t="inlineStr">
+        <is>
+          <t>2024-01-31 21:18:42</t>
+        </is>
+      </c>
+      <c r="B113" s="10" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C113" s="10" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D113" s="10" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="10" t="inlineStr">
+        <is>
+          <t>2024-01-31 21:20:15</t>
+        </is>
+      </c>
+      <c r="B114" s="10" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C114" s="10" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D114" s="10" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="10" t="inlineStr">
+        <is>
+          <t>2024-01-31 21:24:35</t>
+        </is>
+      </c>
+      <c r="B115" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C115" s="10" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D115" s="10" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-01-31 22:08:34</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="1048576" ht="12.75" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3855,202 +3971,202 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="28" customWidth="1" style="12" min="1" max="1"/>
+    <col width="28" customWidth="1" style="10" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="13">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>LastCount</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>NewCount</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="9">
-      <c r="A2" s="15" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="9">
-      <c r="A3" s="15" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="7">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="n"/>
+      <c r="C2" s="9" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="7">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="9">
-      <c r="A4" s="15" t="inlineStr">
+    <row r="4" ht="12.75" customHeight="1" s="7">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G2</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="9">
-      <c r="A5" s="15" t="inlineStr">
+      <c r="B4" s="9" t="n"/>
+      <c r="C4" s="9" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="7">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G4</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n"/>
-      <c r="C5" s="8" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="9">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="9">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="B5" s="9" t="n"/>
+      <c r="C5" s="9" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="7">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="n"/>
+      <c r="C6" s="9" t="n"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="7">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="9">
-      <c r="A8" s="15" t="inlineStr">
+    <row r="8" ht="12.75" customHeight="1" s="7">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="9">
-      <c r="A9" s="15" t="inlineStr">
+    <row r="9" ht="12.75" customHeight="1" s="7">
+      <c r="A9" s="11" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="9">
-      <c r="A10" s="15" t="inlineStr">
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="7">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="9">
-      <c r="A11" s="15" t="inlineStr">
+      <c r="B10" s="9" t="n"/>
+      <c r="C10" s="9" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="7">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="9">
-      <c r="A12" s="15" t="inlineStr">
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="7">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>USB DVD-RW Drive</t>
         </is>
       </c>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="9">
-      <c r="A13" s="15" t="inlineStr">
+      <c r="B12" s="9" t="n"/>
+      <c r="C12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="7">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="9">
-      <c r="A14" s="15" t="inlineStr">
+    <row r="14" ht="12.75" customHeight="1" s="7">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="9">
-      <c r="A15" s="15" t="inlineStr">
+    <row r="15" ht="12.75" customHeight="1" s="7">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>Wired Mouse</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="9" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" s="9">
-      <c r="A16" s="15" t="inlineStr">
+    <row r="16" ht="12.75" customHeight="1" s="7">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="9" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" s="9">
-      <c r="A17" s="15" t="inlineStr">
+    <row r="17" ht="12.75" customHeight="1" s="7">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="B17" s="8" t="n"/>
-      <c r="C17" s="8" t="n"/>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -4076,258 +4192,258 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="A2:B12 C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="18.56" customWidth="1" style="12" min="1" max="1"/>
-    <col width="17.22" customWidth="1" style="12" min="2" max="2"/>
+    <col width="18.56" customWidth="1" style="10" min="1" max="1"/>
+    <col width="17.22" customWidth="1" style="10" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="9">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="18" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>SAN Number</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1" s="9">
-      <c r="A2" s="8" t="inlineStr">
+    <row r="2" ht="12" customHeight="1" s="7">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>2024-01-12 10:52:14</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>Add 10</t>
         </is>
       </c>
-      <c r="D2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="9">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="D2" s="9" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="7">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>2024-01-12 10:52:50</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>Wired Mouse</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>Add 34</t>
         </is>
       </c>
-      <c r="D3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="9">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="D3" s="9" t="n"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="7">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>2024-01-12 10:53:06</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="9">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="7">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>2024-01-12 10:53:25</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>Add 9</t>
         </is>
       </c>
-      <c r="D5" s="8" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="9">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="D5" s="9" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="7">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>2024-01-12 10:54:13</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>SAN120950</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="9">
-      <c r="A7" s="8" t="inlineStr">
+    <row r="7" ht="12.75" customHeight="1" s="7">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>2024-01-12 10:54:20</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>SAN120864</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="9">
-      <c r="A8" s="8" t="inlineStr">
+    <row r="8" ht="12.75" customHeight="1" s="7">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>2024-01-12 10:55:09</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Add 1</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="n"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>Add 1</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="n"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="7">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>2024-01-12 10:56:14</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Add 5</t>
         </is>
       </c>
-      <c r="D9" s="8" t="n"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="9">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="D9" s="9" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="7">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>2024-01-14 12:53:04</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Add 4</t>
         </is>
       </c>
-      <c r="D10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="9">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="D10" s="9" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="7">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 22:46:03</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="9">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="D11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="7">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>2024-01-29 23:13:26</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Wireless Headset Poly </t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D12" s="8" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="9"/>
-    <row r="14" ht="12.75" customHeight="1" s="9"/>
-    <row r="15" ht="12.75" customHeight="1" s="9"/>
-    <row r="16" ht="12.75" customHeight="1" s="9"/>
-    <row r="17" ht="12.75" customHeight="1" s="9"/>
-    <row r="18" ht="12.75" customHeight="1" s="9"/>
-    <row r="19" ht="12.75" customHeight="1" s="9"/>
-    <row r="20" ht="12.75" customHeight="1" s="9"/>
-    <row r="21" ht="12.75" customHeight="1" s="9"/>
-    <row r="22" ht="12.75" customHeight="1" s="9"/>
-    <row r="23" ht="12.75" customHeight="1" s="9"/>
-    <row r="24" ht="12.75" customHeight="1" s="9"/>
-    <row r="25" ht="12.75" customHeight="1" s="9"/>
-    <row r="26" ht="12.75" customHeight="1" s="9"/>
-    <row r="1048576" ht="12.75" customHeight="1" s="9"/>
+      <c r="D12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="7"/>
+    <row r="14" ht="12.75" customHeight="1" s="7"/>
+    <row r="15" ht="12.75" customHeight="1" s="7"/>
+    <row r="16" ht="12.75" customHeight="1" s="7"/>
+    <row r="17" ht="12.75" customHeight="1" s="7"/>
+    <row r="18" ht="12.75" customHeight="1" s="7"/>
+    <row r="19" ht="12.75" customHeight="1" s="7"/>
+    <row r="20" ht="12.75" customHeight="1" s="7"/>
+    <row r="21" ht="12.75" customHeight="1" s="7"/>
+    <row r="22" ht="12.75" customHeight="1" s="7"/>
+    <row r="23" ht="12.75" customHeight="1" s="7"/>
+    <row r="24" ht="12.75" customHeight="1" s="7"/>
+    <row r="25" ht="12.75" customHeight="1" s="7"/>
+    <row r="26" ht="12.75" customHeight="1" s="7"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4349,86 +4465,93 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="A2:B12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="14.1" customWidth="1" style="12" min="1" max="1"/>
-    <col width="22.01" customWidth="1" style="12" min="2" max="2"/>
+    <col width="14.1" customWidth="1" style="10" min="1" max="1"/>
+    <col width="22.01" customWidth="1" style="10" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="13">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Serial #</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>ServiceNow #</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="9">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="11" t="n"/>
-      <c r="C2" s="11" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="9">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="11" t="n"/>
-      <c r="C3" s="11" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="9">
-      <c r="A4" s="11" t="n"/>
-      <c r="B4" s="11" t="n"/>
-      <c r="C4" s="11" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="9">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="9">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="11" t="n"/>
-      <c r="C6" s="11" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="9">
-      <c r="A7" s="11" t="n"/>
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="9">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>798546</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>798546</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RITM-0457896</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="9"/>
-    <row r="11" ht="12.75" customHeight="1" s="9"/>
+    <row r="2" ht="12.75" customHeight="1" s="7">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>323233</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>TASK-44458543</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="inlineStr"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="7">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>2647586</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>TASK-485737</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="7">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>234345</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>TASK-3434343</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="7">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>33333</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TASK33333</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="7"/>
+    <row r="7" ht="12.75" customHeight="1" s="7"/>
+    <row r="8" ht="12.75" customHeight="1" s="7"/>
+    <row r="1048574" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="All SANs" sheetId="1" state="visible" r:id="rId1"/>
@@ -1297,10 +1297,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1344,8 +1344,12 @@
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="B3" s="9" t="n"/>
-      <c r="C3" s="9" t="n"/>
+      <c r="B3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="7">
       <c r="A4" s="11" t="inlineStr">
@@ -1402,126 +1406,139 @@
     <row r="8" ht="12.75" customHeight="1" s="7">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laptop Charger </t>
+          <t>Laptop Bag</t>
         </is>
       </c>
       <c r="B8" s="9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="7">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>Laptop x360 G8</t>
+          <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
       <c r="B9" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="7">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monitor 24” </t>
+          <t>Laptop x360 G8</t>
         </is>
       </c>
       <c r="B10" s="9" t="n">
         <v>4</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="7">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>Monitor 34” Ultrawide</t>
+          <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="7">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>USB DVD-RW Drive</t>
+          <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="7">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>Wired Headset Poly</t>
+          <t>USB DVD-RW Drive</t>
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C13" s="9" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="7">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>Wired Keyboard</t>
+          <t>Wired Headset Poly</t>
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="7">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>Wired Mouse</t>
-        </is>
-      </c>
-      <c r="B15" s="9" t="n"/>
-      <c r="C15" s="9" t="n"/>
+          <t>Wired Keyboard</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="7">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wireless Headset Poly </t>
-        </is>
-      </c>
-      <c r="B16" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>13</v>
-      </c>
+          <t>Wired Mouse</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
     </row>
     <row r="17" ht="12.75" customHeight="1" s="7">
       <c r="A17" s="11" t="inlineStr">
         <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="7">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="B17" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="n">
+      <c r="B18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1546,7 +1563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
@@ -3874,7 +3891,7 @@
         </is>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="12.75" customHeight="1" s="7">
       <c r="A113" s="10" t="inlineStr">
         <is>
           <t>2024-01-31 21:18:42</t>
@@ -3890,9 +3907,8 @@
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D113" s="10" t="inlineStr"/>
-    </row>
-    <row r="114">
+    </row>
+    <row r="114" ht="12.75" customHeight="1" s="7">
       <c r="A114" s="10" t="inlineStr">
         <is>
           <t>2024-01-31 21:20:15</t>
@@ -3908,9 +3924,8 @@
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D114" s="10" t="inlineStr"/>
-    </row>
-    <row r="115">
+    </row>
+    <row r="115" ht="12.75" customHeight="1" s="7">
       <c r="A115" s="10" t="inlineStr">
         <is>
           <t>2024-01-31 21:24:35</t>
@@ -3926,25 +3941,144 @@
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D115" s="10" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    </row>
+    <row r="116" ht="12.75" customHeight="1" s="7">
+      <c r="A116" s="10" t="inlineStr">
         <is>
           <t>2024-01-31 22:08:34</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="10" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117" ht="12.75" customHeight="1" s="7">
+      <c r="A117" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-01 22:38:08</t>
+        </is>
+      </c>
+      <c r="B117" s="10" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C117" s="10" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="12.75" customHeight="1" s="7">
+      <c r="A118" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-01 22:38:23</t>
+        </is>
+      </c>
+      <c r="B118" s="10" t="inlineStr">
+        <is>
+          <t>Wireless KB &amp; Mouse</t>
+        </is>
+      </c>
+      <c r="C118" s="10" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="12.75" customHeight="1" s="7">
+      <c r="A119" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-01 22:38:23</t>
+        </is>
+      </c>
+      <c r="B119" s="10" t="inlineStr">
+        <is>
+          <t>Wireless KB &amp; Mouse</t>
+        </is>
+      </c>
+      <c r="C119" s="10" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="12.75" customHeight="1" s="7">
+      <c r="A120" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-01 22:38:27</t>
+        </is>
+      </c>
+      <c r="B120" s="10" t="inlineStr">
+        <is>
+          <t>Wireless KB &amp; Mouse</t>
+        </is>
+      </c>
+      <c r="C120" s="10" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="12.75" customHeight="1" s="7">
+      <c r="A121" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-01 22:38:27</t>
+        </is>
+      </c>
+      <c r="B121" s="10" t="inlineStr">
+        <is>
+          <t>Wireless KB &amp; Mouse</t>
+        </is>
+      </c>
+      <c r="C121" s="10" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-02 00:48:37</t>
+        </is>
+      </c>
+      <c r="B122" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C122" s="10" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D122" s="10" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-02-02 00:51:47</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt Slim</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="7"/>
   </sheetData>
@@ -4465,9 +4599,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4505,7 +4639,7 @@
           <t>TASK-44458543</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr"/>
+      <c r="C2" s="10" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="7">
       <c r="A3" s="10" t="inlineStr">
@@ -4518,7 +4652,7 @@
           <t>TASK-485737</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr"/>
+      <c r="C3" s="10" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="7">
       <c r="A4" s="10" t="inlineStr">
@@ -4531,27 +4665,98 @@
           <t>TASK-3434343</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr"/>
+      <c r="C4" s="10" t="n"/>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="7">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="10" t="inlineStr">
         <is>
           <t>33333</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>TASK33333</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="7"/>
-    <row r="7" ht="12.75" customHeight="1" s="7"/>
-    <row r="8" ht="12.75" customHeight="1" s="7"/>
-    <row r="1048574" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048575" ht="12.8" customHeight="1" s="7"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="7"/>
+      <c r="C5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="7">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>cfc323</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>TASK4343434</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="7">
+      <c r="A7" s="10" t="inlineStr">
+        <is>
+          <t>f35c5c</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>TASK554545454</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="7">
+      <c r="A8" s="10" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>TASKr544vvvv</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="inlineStr">
+        <is>
+          <t>43545</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>TASKdfdf3</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>23232</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>TASKcvvcvcv</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>434344</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TASKbvbv45r</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="1048576" ht="12.75" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="All SANs" sheetId="1" state="visible" r:id="rId1"/>
@@ -308,8 +308,8 @@
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -335,14 +335,26 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="7">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>SAN125045</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:29:34</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="7">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>SAN125045</t>
+          <t>SAN125047</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -352,14 +364,14 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:29:34</t>
+          <t>2024-01-10 16:29:47</t>
         </is>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="7">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>SAN125047</t>
+          <t>SAN125043</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
@@ -369,14 +381,14 @@
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:29:47</t>
+          <t>2024-01-10 16:29:53</t>
         </is>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="7">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>SAN125043</t>
+          <t>SAN125067</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
@@ -386,14 +398,14 @@
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:29:53</t>
+          <t>2024-01-10 16:29:56</t>
         </is>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="7">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>SAN125067</t>
+          <t>SAN125078</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
@@ -403,14 +415,14 @@
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:29:56</t>
+          <t>2024-01-10 16:30:01</t>
         </is>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="7">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>SAN125078</t>
+          <t>SAN125060</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
@@ -420,14 +432,14 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:30:01</t>
+          <t>2024-01-10 16:30:05</t>
         </is>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="7">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>SAN125060</t>
+          <t>SAN125059</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
@@ -437,14 +449,14 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:30:05</t>
+          <t>2024-01-10 16:30:11</t>
         </is>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="7">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>SAN125059</t>
+          <t>SAN125065</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
@@ -454,14 +466,14 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:30:11</t>
+          <t>2024-01-10 16:30:17</t>
         </is>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="7">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t>SAN125065</t>
+          <t>SAN125063</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
@@ -471,14 +483,14 @@
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:30:17</t>
+          <t>2024-01-10 16:30:23</t>
         </is>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="7">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>SAN125063</t>
+          <t>SAN125064</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
@@ -488,14 +500,14 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:30:23</t>
+          <t>2024-01-10 16:30:29</t>
         </is>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="7">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t>SAN125064</t>
+          <t>SAN125054</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
@@ -505,14 +517,14 @@
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:30:29</t>
+          <t>2024-01-10 16:30:34</t>
         </is>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="7">
       <c r="A13" s="9" t="inlineStr">
         <is>
-          <t>SAN125054</t>
+          <t>SAN125061</t>
         </is>
       </c>
       <c r="B13" s="9" t="inlineStr">
@@ -522,14 +534,14 @@
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:30:34</t>
+          <t>2024-01-10 16:30:45</t>
         </is>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="7">
       <c r="A14" s="9" t="inlineStr">
         <is>
-          <t>SAN125061</t>
+          <t>SAN125071</t>
         </is>
       </c>
       <c r="B14" s="9" t="inlineStr">
@@ -539,14 +551,14 @@
       </c>
       <c r="C14" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:30:45</t>
+          <t>2024-01-10 16:30:59</t>
         </is>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="7">
       <c r="A15" s="9" t="inlineStr">
         <is>
-          <t>SAN125071</t>
+          <t>SAN125072</t>
         </is>
       </c>
       <c r="B15" s="9" t="inlineStr">
@@ -556,14 +568,14 @@
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:30:59</t>
+          <t>2024-01-10 16:31:09</t>
         </is>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="7">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>SAN125072</t>
+          <t>SAN125053</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
@@ -573,14 +585,14 @@
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:31:09</t>
+          <t>2024-01-10 16:31:14</t>
         </is>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1" s="7">
       <c r="A17" s="9" t="inlineStr">
         <is>
-          <t>SAN125053</t>
+          <t>SAN125077</t>
         </is>
       </c>
       <c r="B17" s="9" t="inlineStr">
@@ -590,14 +602,14 @@
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:31:14</t>
+          <t>2024-01-10 16:31:23</t>
         </is>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1" s="7">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>SAN125077</t>
+          <t>SAN125076</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr">
@@ -607,31 +619,31 @@
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:31:23</t>
+          <t>2024-01-10 16:31:28</t>
         </is>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1" s="7">
       <c r="A19" s="9" t="inlineStr">
         <is>
-          <t>SAN125076</t>
+          <t>SAN122589</t>
         </is>
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>Desktop Mini G9</t>
+          <t>Laptop 840 G10</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:31:28</t>
+          <t>2024-01-10 16:39:28</t>
         </is>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" s="7">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>SAN122589</t>
+          <t>SAN122596</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
@@ -641,14 +653,14 @@
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:39:28</t>
+          <t>2024-01-10 16:39:32</t>
         </is>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1" s="7">
       <c r="A21" s="9" t="inlineStr">
         <is>
-          <t>SAN122596</t>
+          <t>SAN122603</t>
         </is>
       </c>
       <c r="B21" s="9" t="inlineStr">
@@ -658,14 +670,14 @@
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:39:32</t>
+          <t>2024-01-10 16:39:40</t>
         </is>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1" s="7">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>SAN122603</t>
+          <t>SAN122611</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
@@ -675,14 +687,14 @@
       </c>
       <c r="C22" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:39:40</t>
+          <t>2024-01-10 16:39:47</t>
         </is>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1" s="7">
       <c r="A23" s="9" t="inlineStr">
         <is>
-          <t>SAN122611</t>
+          <t>SAN122590</t>
         </is>
       </c>
       <c r="B23" s="9" t="inlineStr">
@@ -692,14 +704,14 @@
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:39:47</t>
+          <t>2024-01-10 16:39:53</t>
         </is>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1" s="7">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>SAN122590</t>
+          <t>SAN122593</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
@@ -709,14 +721,14 @@
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:39:53</t>
+          <t>2024-01-10 16:40:16</t>
         </is>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1" s="7">
       <c r="A25" s="9" t="inlineStr">
         <is>
-          <t>SAN122593</t>
+          <t>SAN122597</t>
         </is>
       </c>
       <c r="B25" s="9" t="inlineStr">
@@ -726,14 +738,14 @@
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:40:16</t>
+          <t>2024-01-10 16:40:40</t>
         </is>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1" s="7">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>SAN122597</t>
+          <t>SAN122602</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
@@ -743,14 +755,14 @@
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:40:40</t>
+          <t>2024-01-10 16:40:49</t>
         </is>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1" s="7">
       <c r="A27" s="9" t="inlineStr">
         <is>
-          <t>SAN122602</t>
+          <t>SAN122610</t>
         </is>
       </c>
       <c r="B27" s="9" t="inlineStr">
@@ -760,14 +772,14 @@
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:40:49</t>
+          <t>2024-01-10 16:40:53</t>
         </is>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1" s="7">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>SAN122610</t>
+          <t>SAN122599</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
@@ -777,14 +789,14 @@
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:40:53</t>
+          <t>2024-01-10 16:40:58</t>
         </is>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1" s="7">
       <c r="A29" s="9" t="inlineStr">
         <is>
-          <t>SAN122599</t>
+          <t>SAN122592</t>
         </is>
       </c>
       <c r="B29" s="9" t="inlineStr">
@@ -794,14 +806,14 @@
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:40:58</t>
+          <t>2024-01-10 16:41:03</t>
         </is>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1" s="7">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>SAN122592</t>
+          <t>SAN122607</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
@@ -811,14 +823,14 @@
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:41:03</t>
+          <t>2024-01-10 16:41:08</t>
         </is>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1" s="7">
       <c r="A31" s="9" t="inlineStr">
         <is>
-          <t>SAN122607</t>
+          <t>SAN122608</t>
         </is>
       </c>
       <c r="B31" s="9" t="inlineStr">
@@ -828,14 +840,14 @@
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:41:08</t>
+          <t>2024-01-10 16:41:15</t>
         </is>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1" s="7">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>SAN122608</t>
+          <t>SAN122598</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
@@ -845,14 +857,14 @@
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:41:15</t>
+          <t>2024-01-10 16:41:20</t>
         </is>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1" s="7">
       <c r="A33" s="9" t="inlineStr">
         <is>
-          <t>SAN122598</t>
+          <t>SAN122591</t>
         </is>
       </c>
       <c r="B33" s="9" t="inlineStr">
@@ -862,14 +874,14 @@
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:41:20</t>
+          <t>2024-01-10 16:41:26</t>
         </is>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1" s="7">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>SAN122591</t>
+          <t>SAN122613</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
@@ -879,14 +891,14 @@
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:41:26</t>
+          <t>2024-01-10 16:41:42</t>
         </is>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1" s="7">
       <c r="A35" s="9" t="inlineStr">
         <is>
-          <t>SAN122613</t>
+          <t>SAN122604</t>
         </is>
       </c>
       <c r="B35" s="9" t="inlineStr">
@@ -896,14 +908,14 @@
       </c>
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:41:42</t>
+          <t>2024-01-10 16:41:50</t>
         </is>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1" s="7">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>SAN122604</t>
+          <t>SAN122605</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
@@ -913,14 +925,14 @@
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:41:50</t>
+          <t>2024-01-10 16:42:01</t>
         </is>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1" s="7">
       <c r="A37" s="9" t="inlineStr">
         <is>
-          <t>SAN122605</t>
+          <t>SAN122606</t>
         </is>
       </c>
       <c r="B37" s="9" t="inlineStr">
@@ -930,14 +942,14 @@
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:42:01</t>
+          <t>2024-01-10 16:42:07</t>
         </is>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1" s="7">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>SAN122606</t>
+          <t>SAN122601</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
@@ -947,14 +959,14 @@
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:42:07</t>
+          <t>2024-01-10 16:42:13</t>
         </is>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1" s="7">
       <c r="A39" s="9" t="inlineStr">
         <is>
-          <t>SAN122601</t>
+          <t>SAN122595</t>
         </is>
       </c>
       <c r="B39" s="9" t="inlineStr">
@@ -964,14 +976,14 @@
       </c>
       <c r="C39" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:42:13</t>
+          <t>2024-01-10 16:42:19</t>
         </is>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1" s="7">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>SAN122595</t>
+          <t>SAN122609</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
@@ -981,14 +993,14 @@
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:42:19</t>
+          <t>2024-01-10 16:43:15</t>
         </is>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1" s="7">
       <c r="A41" s="9" t="inlineStr">
         <is>
-          <t>SAN122609</t>
+          <t>SAN122594</t>
         </is>
       </c>
       <c r="B41" s="9" t="inlineStr">
@@ -998,14 +1010,14 @@
       </c>
       <c r="C41" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:43:15</t>
+          <t>2024-01-10 16:43:21</t>
         </is>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1" s="7">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>SAN122594</t>
+          <t>SAN122612</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
@@ -1015,14 +1027,14 @@
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:43:21</t>
+          <t>2024-01-10 16:43:39</t>
         </is>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1" s="7">
       <c r="A43" s="9" t="inlineStr">
         <is>
-          <t>SAN122612</t>
+          <t>SAN122304</t>
         </is>
       </c>
       <c r="B43" s="9" t="inlineStr">
@@ -1032,14 +1044,14 @@
       </c>
       <c r="C43" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:43:39</t>
+          <t>2024-01-10 16:43:46</t>
         </is>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1" s="7">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>SAN122304</t>
+          <t>SAN122305</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
@@ -1049,14 +1061,14 @@
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:43:46</t>
+          <t>2024-01-10 16:43:53</t>
         </is>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1" s="7">
       <c r="A45" s="9" t="inlineStr">
         <is>
-          <t>SAN122305</t>
+          <t>SAN122600</t>
         </is>
       </c>
       <c r="B45" s="9" t="inlineStr">
@@ -1066,31 +1078,31 @@
       </c>
       <c r="C45" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:43:53</t>
+          <t>2024-01-10 16:44:23</t>
         </is>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1" s="7">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>SAN122600</t>
+          <t>SAN121911</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>Laptop 840 G10</t>
+          <t>Laptop 840 G9</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:44:23</t>
+          <t>2024-01-10 16:50:07</t>
         </is>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1" s="7">
       <c r="A47" s="9" t="inlineStr">
         <is>
-          <t>SAN121911</t>
+          <t>SAN121929</t>
         </is>
       </c>
       <c r="B47" s="9" t="inlineStr">
@@ -1100,14 +1112,14 @@
       </c>
       <c r="C47" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:50:07</t>
+          <t>2024-01-10 16:50:29</t>
         </is>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1" s="7">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>SAN121929</t>
+          <t>SAN120286</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
@@ -1117,14 +1129,14 @@
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:50:29</t>
+          <t>2024-01-10 16:50:46</t>
         </is>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1" s="7">
       <c r="A49" s="9" t="inlineStr">
         <is>
-          <t>SAN120286</t>
+          <t>SAN120342</t>
         </is>
       </c>
       <c r="B49" s="9" t="inlineStr">
@@ -1134,148 +1146,148 @@
       </c>
       <c r="C49" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:50:46</t>
+          <t>2024-01-10 16:50:57</t>
         </is>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1" s="7">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>SAN120342</t>
+          <t>SAN106014</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>Laptop 840 G9</t>
+          <t>Laptop x360 G8</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:50:57</t>
+          <t>2024-01-10 16:52:00</t>
         </is>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1" s="7">
       <c r="A51" s="9" t="inlineStr">
         <is>
-          <t>SAN106013</t>
+          <t>SAN111111</t>
         </is>
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>Laptop x360 G8</t>
+          <t>Laptop 840 G10</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:51:46</t>
+          <t>2024-01-11 12:06:10</t>
         </is>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1" s="7">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>SAN106014</t>
+          <t>SAN120950</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>Laptop x360 G8</t>
+          <t>Laptop 840 G9</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:52:00</t>
+          <t>2024-01-12 10:54:13</t>
         </is>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1" s="7">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>SAN106008</t>
+          <t>SAN120864</t>
         </is>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>Laptop x360 G8</t>
+          <t>Laptop 840 G9</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
         <is>
-          <t>2024-01-10 16:52:17</t>
+          <t>2024-01-12 10:54:20</t>
         </is>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1" s="7">
-      <c r="A54" s="9" t="inlineStr">
-        <is>
-          <t>SAN111111</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C54" s="9" t="inlineStr">
-        <is>
-          <t>2024-01-11 12:06:10</t>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SAN3333333</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:48:24</t>
         </is>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1" s="7">
-      <c r="A55" s="9" t="inlineStr">
-        <is>
-          <t>SAN120950</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="inlineStr">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SAN456123</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C55" s="9" t="inlineStr">
-        <is>
-          <t>2024-01-12 10:54:13</t>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:49:57</t>
         </is>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1" s="7">
-      <c r="A56" s="9" t="inlineStr">
-        <is>
-          <t>SAN120864</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="inlineStr">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SAN152646</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C56" s="9" t="inlineStr">
-        <is>
-          <t>2024-01-12 10:54:20</t>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:50:05</t>
         </is>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1" s="7">
-      <c r="A57" s="9" t="inlineStr">
-        <is>
-          <t>SAN343434</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="inlineStr">
-        <is>
-          <t>Laptop 840 G9</t>
-        </is>
-      </c>
-      <c r="C57" s="9" t="inlineStr">
-        <is>
-          <t>2024-01-29 23:52:55</t>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SAN44444444</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:50:17</t>
         </is>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1" s="7"/>
-    <row r="59" ht="12.75" customHeight="1" s="7"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1299,7 +1311,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1345,10 +1357,10 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="7">
@@ -1358,10 +1370,10 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="7">
@@ -1371,10 +1383,10 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="7">
@@ -1501,10 +1513,10 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="7">
@@ -1536,10 +1548,10 @@
         </is>
       </c>
       <c r="B18" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
@@ -4044,7 +4056,7 @@
         </is>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="12.75" customHeight="1" s="7">
       <c r="A122" s="10" t="inlineStr">
         <is>
           <t>2024-02-02 00:48:37</t>
@@ -4060,25 +4072,551 @@
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D122" s="10" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    </row>
+    <row r="123" ht="12.75" customHeight="1" s="7">
+      <c r="A123" s="10" t="inlineStr">
         <is>
           <t>2024-02-02 00:51:47</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="10" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="10" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124" ht="12.75" customHeight="1" s="7">
+      <c r="A124" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-02 19:08:36</t>
+        </is>
+      </c>
+      <c r="B124" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C124" s="10" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="12.75" customHeight="1" s="7">
+      <c r="A125" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-02 23:51:57</t>
+        </is>
+      </c>
+      <c r="B125" s="10" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C125" s="10" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:04:46</t>
+        </is>
+      </c>
+      <c r="B126" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C126" s="10" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+      <c r="D126" s="10" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:42:30</t>
+        </is>
+      </c>
+      <c r="B127" s="10" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G4</t>
+        </is>
+      </c>
+      <c r="C127" s="10" t="inlineStr">
+        <is>
+          <t>add 5</t>
+        </is>
+      </c>
+      <c r="D127" s="10" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:42:30</t>
+        </is>
+      </c>
+      <c r="B128" s="10" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G4</t>
+        </is>
+      </c>
+      <c r="C128" s="10" t="inlineStr">
+        <is>
+          <t>add 5</t>
+        </is>
+      </c>
+      <c r="D128" s="10" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:42:35</t>
+        </is>
+      </c>
+      <c r="B129" s="10" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G2</t>
+        </is>
+      </c>
+      <c r="C129" s="10" t="inlineStr">
+        <is>
+          <t>add 5</t>
+        </is>
+      </c>
+      <c r="D129" s="10" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:42:35</t>
+        </is>
+      </c>
+      <c r="B130" s="10" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G2</t>
+        </is>
+      </c>
+      <c r="C130" s="10" t="inlineStr">
+        <is>
+          <t>add 5</t>
+        </is>
+      </c>
+      <c r="D130" s="10" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:48:19</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:48:19</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G2</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:48:24</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>SAN3333333</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:48:49</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>SAN343434</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:49:19</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>SAN106008</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:49:37</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>SAN106013</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:49:57</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>SAN456123</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:50:05</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>SAN152646</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:50:17</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>SAN44444444</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:54:22</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:58:11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt Slim</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:58:11</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt Slim</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:58:14</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Wired Keyboard</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:58:14</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Wired Keyboard</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:58:17</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Wireless KB &amp; Mouse</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:58:17</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Wireless KB &amp; Mouse</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2024-02-03 00:59:50</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>SAN123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2024-02-03 01:00:02</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>SAN123455</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2024-02-03 01:00:32</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>SAN123455</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2024-02-03 01:00:53</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>SAN123456</t>
+        </is>
+      </c>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="7"/>
   </sheetData>
@@ -4323,7 +4861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
@@ -4563,7 +5101,23 @@
       </c>
       <c r="D12" s="9" t="n"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1" s="7"/>
+    <row r="13" ht="12.75" customHeight="1" s="7">
+      <c r="A13" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-02 23:52:23</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+    </row>
     <row r="14" ht="12.75" customHeight="1" s="7"/>
     <row r="15" ht="12.75" customHeight="1" s="7"/>
     <row r="16" ht="12.75" customHeight="1" s="7"/>
@@ -4599,10 +5153,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4715,9 +5269,9 @@
           <t>TASKr544vvvv</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr"/>
-    </row>
-    <row r="9">
+      <c r="C8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="7">
       <c r="A9" s="10" t="inlineStr">
         <is>
           <t>43545</t>
@@ -4728,9 +5282,9 @@
           <t>TASKdfdf3</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr"/>
-    </row>
-    <row r="10">
+      <c r="C9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="7">
       <c r="A10" s="10" t="inlineStr">
         <is>
           <t>23232</t>
@@ -4741,20 +5295,108 @@
           <t>TASKcvvcvcv</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="7">
+      <c r="A11" s="10" t="inlineStr">
         <is>
           <t>434344</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>TASKbvbv45r</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="7">
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>ddd333</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>TASK334343</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="7">
+      <c r="A13" s="10" t="inlineStr">
+        <is>
+          <t>ccc333</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t>TASK1234567</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="7">
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>d4v4v4</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>TASKvvv444</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="inlineStr">
+        <is>
+          <t>vv49fj5</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>RITM2345678</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>g67ui8</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>TASK8885544</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>g55f5g</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INC4545454</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>445vv4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>dfdffdfffd</t>
+        </is>
+      </c>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="7"/>
   </sheetData>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -306,7 +306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1219,74 +1219,124 @@
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1" s="7">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="10" t="inlineStr">
         <is>
           <t>SAN3333333</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
+      <c r="B54" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C54" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:48:24</t>
         </is>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1" s="7">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="10" t="inlineStr">
         <is>
           <t>SAN456123</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:49:57</t>
         </is>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1" s="7">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="10" t="inlineStr">
         <is>
           <t>SAN152646</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:50:05</t>
         </is>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1" s="7">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="10" t="inlineStr">
         <is>
           <t>SAN44444444</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="B57" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C57" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:50:17</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1" s="7"/>
+    <row r="58" ht="12.75" customHeight="1" s="7">
+      <c r="A58" s="10" t="inlineStr">
+        <is>
+          <t>SAN44</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C58" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-03 21:12:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="inlineStr">
+        <is>
+          <t>SAN09090909</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C59" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-03 21:13:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SAN222444</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:15:52</t>
+        </is>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1370,10 +1420,10 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="7">
@@ -1513,10 +1563,10 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="7">
@@ -1525,8 +1575,12 @@
           <t>Wired Mouse</t>
         </is>
       </c>
-      <c r="B16" s="9" t="n"/>
-      <c r="C16" s="9" t="n"/>
+      <c r="B16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1" s="7">
       <c r="A17" s="11" t="inlineStr">
@@ -1575,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
@@ -4215,408 +4269,688 @@
       <c r="D130" s="10" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:48:19</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="10" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G2</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" s="10" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:48:19</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="10" t="inlineStr">
         <is>
           <t>Dock Thunderbolt G2</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" s="10" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:48:24</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
+      <c r="B133" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C133" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D133" s="10" t="inlineStr">
         <is>
           <t>SAN3333333</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:48:49</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D134" s="10" t="inlineStr">
         <is>
           <t>SAN343434</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:49:19</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D135" s="10" t="inlineStr">
         <is>
           <t>SAN106008</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:49:37</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D136" s="10" t="inlineStr">
         <is>
           <t>SAN106013</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:49:57</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D137" s="10" t="inlineStr">
         <is>
           <t>SAN456123</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:50:05</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="10" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D138" s="10" t="inlineStr">
         <is>
           <t>SAN152646</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:50:17</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
+      <c r="B139" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C139" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D139" s="10" t="inlineStr">
         <is>
           <t>SAN44444444</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:54:22</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="10" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="10" t="inlineStr">
         <is>
           <t>subtract 2</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" s="10" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:58:11</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="10" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="10" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" s="10" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:58:11</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="10" t="inlineStr">
         <is>
           <t>Dock Thunderbolt Slim</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="10" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" s="10" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:58:14</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="10" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="10" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" s="10" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:58:14</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="10" t="inlineStr">
         <is>
           <t>Wired Keyboard</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="10" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" s="10" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:58:17</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="10" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="10" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" s="10" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:58:17</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="10" t="inlineStr">
         <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="10" t="inlineStr">
         <is>
           <t>add 2</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" s="10" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 00:59:50</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="10" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D147" s="10" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 01:00:02</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" s="10" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C148" s="10" t="inlineStr">
         <is>
           <t>add 1</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D148" s="10" t="inlineStr">
         <is>
           <t>SAN123455</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 01:00:32</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="10" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D149" s="10" t="inlineStr">
         <is>
           <t>SAN123455</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="10" t="inlineStr">
         <is>
           <t>2024-02-03 01:00:53</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="10" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="10" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D150" s="10" t="inlineStr">
         <is>
           <t>SAN123456</t>
         </is>
       </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-03 21:12:38</t>
+        </is>
+      </c>
+      <c r="B151" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C151" s="10" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D151" s="10" t="inlineStr">
+        <is>
+          <t>SAN44</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-03 21:13:21</t>
+        </is>
+      </c>
+      <c r="B152" s="10" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C152" s="10" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D152" s="10" t="inlineStr">
+        <is>
+          <t>SAN09090909</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:15:06</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>SAN343434</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:15:09</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>SAN454545</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:15:15</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G2</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:15:15</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G2</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:15:33</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>SAN454545</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:15:39</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>SAN343434</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:15:52</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>SAN222444</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:16:02</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Wired Keyboard</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:16:02</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Wired Keyboard</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:16:04</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Wired Mouse</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:16:04</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Wired Mouse</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2024-02-03 22:16:22</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="7"/>
   </sheetData>
@@ -5153,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
@@ -5374,27 +5708,46 @@
       <c r="C16" s="10" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>g55f5g</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr">
         <is>
           <t>INC4545454</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" s="10" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>445vv4</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>dfdffdfffd</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>g968g6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>g968g6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TASK55555</t>
         </is>
       </c>
     </row>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="All SANs" sheetId="1" state="visible" r:id="rId1"/>
@@ -318,13 +318,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="25.42" customWidth="1" style="8" min="1" max="3"/>
   </cols>
@@ -347,14 +347,26 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="9">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="11" t="n"/>
-      <c r="C2" s="11" t="n"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>SAN125045</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:29:34</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="9">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>SAN125045</t>
+          <t>SAN125047</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -364,1353 +376,1320 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>2024-01-10 16:29:34</t>
+          <t>2024-01-10 16:29:47</t>
         </is>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="9">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>SAN125047</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:29:47</t>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>SAN125043</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:29:53</t>
         </is>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="9">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>SAN125043</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:29:53</t>
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>SAN125067</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:29:56</t>
         </is>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="9">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>SAN125067</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:29:56</t>
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>SAN125078</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:30:01</t>
         </is>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="9">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>SAN125078</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:30:01</t>
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>SAN125060</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:30:05</t>
         </is>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="9">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>SAN125060</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:30:05</t>
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>SAN125059</t>
+        </is>
+      </c>
+      <c r="B8" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:30:11</t>
         </is>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>SAN125059</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:30:11</t>
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>SAN125065</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:30:17</t>
         </is>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="9">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>SAN125065</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:30:17</t>
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>SAN125063</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:30:23</t>
         </is>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="9">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>SAN125063</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:30:23</t>
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>SAN125064</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:30:29</t>
         </is>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="9">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>SAN125064</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:30:29</t>
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>SAN125054</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:30:34</t>
         </is>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="9">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>SAN125054</t>
-        </is>
-      </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:30:34</t>
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>SAN125061</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:30:45</t>
         </is>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="9">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>SAN125061</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:30:45</t>
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>SAN125071</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:30:59</t>
         </is>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="9">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>SAN125071</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:30:59</t>
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>SAN125072</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:31:09</t>
         </is>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="9">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>SAN125072</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:31:09</t>
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>SAN125053</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:31:14</t>
         </is>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1" s="9">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>SAN125053</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:31:14</t>
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>SAN125077</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:31:23</t>
         </is>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1" s="9">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>SAN125077</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:31:23</t>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>SAN125076</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C18" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:31:28</t>
         </is>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1" s="9">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>SAN125076</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:31:28</t>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>SAN122589</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C19" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:39:28</t>
         </is>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1" s="9">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>SAN122589</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:39:28</t>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>SAN122596</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:39:32</t>
         </is>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1" s="9">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>SAN122596</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:39:32</t>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>SAN122603</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:39:40</t>
         </is>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1" s="9">
-      <c r="A22" s="8" t="inlineStr">
-        <is>
-          <t>SAN122603</t>
-        </is>
-      </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:39:40</t>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>SAN122611</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:39:47</t>
         </is>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1" s="9">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>SAN122611</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:39:47</t>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>SAN122590</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C23" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:39:53</t>
         </is>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1" s="9">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
-          <t>SAN122590</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:39:53</t>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>SAN122593</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C24" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:40:16</t>
         </is>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1" s="9">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>SAN122593</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:40:16</t>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>SAN122597</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C25" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:40:40</t>
         </is>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1" s="9">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>SAN122597</t>
-        </is>
-      </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:40:40</t>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>SAN122602</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C26" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:40:49</t>
         </is>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1" s="9">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>SAN122602</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:40:49</t>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>SAN122610</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C27" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:40:53</t>
         </is>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1" s="9">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>SAN122610</t>
-        </is>
-      </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:40:53</t>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>SAN122599</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C28" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:40:58</t>
         </is>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1" s="9">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>SAN122599</t>
-        </is>
-      </c>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C29" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:40:58</t>
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>SAN122592</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C29" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:41:03</t>
         </is>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1" s="9">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>SAN122592</t>
-        </is>
-      </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:41:03</t>
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>SAN122607</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C30" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:41:08</t>
         </is>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1" s="9">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>SAN122607</t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:41:08</t>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>SAN122608</t>
+        </is>
+      </c>
+      <c r="B31" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C31" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:41:15</t>
         </is>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1" s="9">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>SAN122608</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C32" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:41:15</t>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>SAN122598</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C32" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:41:20</t>
         </is>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1" s="9">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>SAN122598</t>
-        </is>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:41:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1" s="9">
-      <c r="A34" s="8" t="inlineStr">
+      <c r="A33" s="11" t="inlineStr">
         <is>
           <t>SAN122591</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C34" s="8" t="inlineStr">
+      <c r="B33" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>2024-01-10 16:41:26</t>
         </is>
       </c>
     </row>
+    <row r="34" ht="12" customHeight="1" s="9">
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>SAN122613</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C34" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:41:42</t>
+        </is>
+      </c>
+    </row>
     <row r="35" ht="12" customHeight="1" s="9">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>SAN122613</t>
-        </is>
-      </c>
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:41:42</t>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>SAN122604</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C35" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:41:50</t>
         </is>
       </c>
     </row>
     <row r="36" ht="12" customHeight="1" s="9">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>SAN122604</t>
-        </is>
-      </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C36" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:41:50</t>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>SAN122605</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C36" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:42:01</t>
         </is>
       </c>
     </row>
     <row r="37" ht="12" customHeight="1" s="9">
-      <c r="A37" s="8" t="inlineStr">
-        <is>
-          <t>SAN122605</t>
-        </is>
-      </c>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:42:01</t>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>SAN122606</t>
+        </is>
+      </c>
+      <c r="B37" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C37" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:42:07</t>
         </is>
       </c>
     </row>
     <row r="38" ht="12" customHeight="1" s="9">
-      <c r="A38" s="8" t="inlineStr">
-        <is>
-          <t>SAN122606</t>
-        </is>
-      </c>
-      <c r="B38" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C38" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:42:07</t>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>SAN122601</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C38" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:42:13</t>
         </is>
       </c>
     </row>
     <row r="39" ht="12" customHeight="1" s="9">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>SAN122601</t>
-        </is>
-      </c>
-      <c r="B39" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C39" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:42:13</t>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>SAN122595</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C39" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:42:19</t>
         </is>
       </c>
     </row>
     <row r="40" ht="12" customHeight="1" s="9">
-      <c r="A40" s="8" t="inlineStr">
-        <is>
-          <t>SAN122595</t>
-        </is>
-      </c>
-      <c r="B40" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C40" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:42:19</t>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>SAN122609</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C40" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:43:15</t>
         </is>
       </c>
     </row>
     <row r="41" ht="12" customHeight="1" s="9">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>SAN122609</t>
-        </is>
-      </c>
-      <c r="B41" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C41" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:43:15</t>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>SAN122594</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C41" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:43:21</t>
         </is>
       </c>
     </row>
     <row r="42" ht="12" customHeight="1" s="9">
-      <c r="A42" s="8" t="inlineStr">
-        <is>
-          <t>SAN122594</t>
-        </is>
-      </c>
-      <c r="B42" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C42" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:43:21</t>
+      <c r="A42" s="11" t="inlineStr">
+        <is>
+          <t>SAN122612</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C42" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:43:39</t>
         </is>
       </c>
     </row>
     <row r="43" ht="12" customHeight="1" s="9">
-      <c r="A43" s="8" t="inlineStr">
-        <is>
-          <t>SAN122612</t>
-        </is>
-      </c>
-      <c r="B43" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C43" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:43:39</t>
+      <c r="A43" s="11" t="inlineStr">
+        <is>
+          <t>SAN122304</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C43" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:43:46</t>
         </is>
       </c>
     </row>
     <row r="44" ht="12" customHeight="1" s="9">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>SAN122304</t>
-        </is>
-      </c>
-      <c r="B44" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C44" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:43:46</t>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>SAN122305</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C44" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:43:53</t>
         </is>
       </c>
     </row>
     <row r="45" ht="12" customHeight="1" s="9">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>SAN122305</t>
-        </is>
-      </c>
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:43:53</t>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>SAN122600</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C45" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:44:23</t>
         </is>
       </c>
     </row>
     <row r="46" ht="12" customHeight="1" s="9">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>SAN122600</t>
-        </is>
-      </c>
-      <c r="B46" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:44:23</t>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>SAN121911</t>
+        </is>
+      </c>
+      <c r="B46" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C46" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:50:07</t>
         </is>
       </c>
     </row>
     <row r="47" ht="12" customHeight="1" s="9">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>SAN121911</t>
-        </is>
-      </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>SAN120358</t>
+        </is>
+      </c>
+      <c r="B47" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C47" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:50:07</t>
+      <c r="C47" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:50:19</t>
         </is>
       </c>
     </row>
     <row r="48" ht="12" customHeight="1" s="9">
-      <c r="A48" s="8" t="inlineStr">
-        <is>
-          <t>SAN120358</t>
-        </is>
-      </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>SAN121929</t>
+        </is>
+      </c>
+      <c r="B48" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C48" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:50:19</t>
+      <c r="C48" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:50:29</t>
         </is>
       </c>
     </row>
     <row r="49" ht="12" customHeight="1" s="9">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>SAN121929</t>
-        </is>
-      </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>SAN121895</t>
+        </is>
+      </c>
+      <c r="B49" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C49" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:50:29</t>
+      <c r="C49" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:50:38</t>
         </is>
       </c>
     </row>
     <row r="50" ht="12" customHeight="1" s="9">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>SAN121895</t>
-        </is>
-      </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>SAN120286</t>
+        </is>
+      </c>
+      <c r="B50" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C50" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:50:38</t>
+      <c r="C50" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:50:46</t>
         </is>
       </c>
     </row>
     <row r="51" ht="12" customHeight="1" s="9">
-      <c r="A51" s="8" t="inlineStr">
-        <is>
-          <t>SAN120286</t>
-        </is>
-      </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>SAN120342</t>
+        </is>
+      </c>
+      <c r="B51" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C51" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:50:46</t>
+      <c r="C51" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:50:57</t>
         </is>
       </c>
     </row>
     <row r="52" ht="12" customHeight="1" s="9">
-      <c r="A52" s="8" t="inlineStr">
-        <is>
-          <t>SAN120342</t>
-        </is>
-      </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>SAN106013</t>
+        </is>
+      </c>
+      <c r="B52" s="11" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C52" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:51:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="12" customHeight="1" s="9">
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>SAN106014</t>
+        </is>
+      </c>
+      <c r="B53" s="11" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C53" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:52:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="12" customHeight="1" s="9">
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>SAN106026</t>
+        </is>
+      </c>
+      <c r="B54" s="11" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C54" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="12" customHeight="1" s="9">
+      <c r="A55" s="11" t="inlineStr">
+        <is>
+          <t>SAN106008</t>
+        </is>
+      </c>
+      <c r="B55" s="11" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C55" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:52:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="12" customHeight="1" s="9">
+      <c r="A56" s="11" t="inlineStr">
+        <is>
+          <t>SAN111111</t>
+        </is>
+      </c>
+      <c r="B56" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C56" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-11 12:06:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="12" customHeight="1" s="9">
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>SAN120950</t>
+        </is>
+      </c>
+      <c r="B57" s="11" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C52" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:50:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="12" customHeight="1" s="9">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>SAN106013</t>
-        </is>
-      </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="C57" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-12 10:54:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="12" customHeight="1" s="9">
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>SAN120864</t>
+        </is>
+      </c>
+      <c r="B58" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C58" s="11" t="inlineStr">
+        <is>
+          <t>2024-01-12 10:54:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="12" customHeight="1" s="9">
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>SAN467985</t>
+        </is>
+      </c>
+      <c r="B59" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C59" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 19:51:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="12" customHeight="1" s="9">
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>SAN154856</t>
+        </is>
+      </c>
+      <c r="B60" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C60" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 19:51:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="12" customHeight="1" s="9">
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>SAN354687</t>
+        </is>
+      </c>
+      <c r="B61" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C61" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 19:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="12" customHeight="1" s="9">
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>SAN868686</t>
+        </is>
+      </c>
+      <c r="B62" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C62" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 20:27:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="12" customHeight="1" s="9">
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>SAN474747</t>
+        </is>
+      </c>
+      <c r="B63" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C63" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 20:27:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="12" customHeight="1" s="9">
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>SAN32323</t>
+        </is>
+      </c>
+      <c r="B64" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C64" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="12" customHeight="1" s="9">
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>SAN387876</t>
+        </is>
+      </c>
+      <c r="B65" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C65" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="12" customHeight="1" s="9">
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>SAN747474</t>
+        </is>
+      </c>
+      <c r="B66" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C66" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="12" customHeight="1" s="9">
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>SAN737373</t>
+        </is>
+      </c>
+      <c r="B67" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C67" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:18:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="12" customHeight="1" s="9">
+      <c r="A68" s="11" t="inlineStr">
+        <is>
+          <t>SAN85685</t>
+        </is>
+      </c>
+      <c r="B68" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C68" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="12" customHeight="1" s="9">
+      <c r="A69" s="11" t="inlineStr">
+        <is>
+          <t>SAN353535</t>
+        </is>
+      </c>
+      <c r="B69" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C69" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:20:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="12" customHeight="1" s="9">
+      <c r="A70" s="11" t="inlineStr">
+        <is>
+          <t>SAN777777</t>
+        </is>
+      </c>
+      <c r="B70" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C70" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="12" customHeight="1" s="9">
+      <c r="A71" s="11" t="inlineStr">
+        <is>
+          <t>SAN153759</t>
+        </is>
+      </c>
+      <c r="B71" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C71" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="12" customHeight="1" s="9">
+      <c r="A72" s="11" t="inlineStr">
+        <is>
+          <t>SAN080808</t>
+        </is>
+      </c>
+      <c r="B72" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C72" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="12" customHeight="1" s="9">
+      <c r="A73" s="11" t="inlineStr">
+        <is>
+          <t>SAN255443</t>
+        </is>
+      </c>
+      <c r="B73" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C73" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="12" customHeight="1" s="9">
+      <c r="A74" s="11" t="inlineStr">
+        <is>
+          <t>SAN323232</t>
+        </is>
+      </c>
+      <c r="B74" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C74" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="12" customHeight="1" s="9">
+      <c r="A75" s="11" t="inlineStr">
+        <is>
+          <t>SAN111888</t>
+        </is>
+      </c>
+      <c r="B75" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C75" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:26:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="12" customHeight="1" s="9">
+      <c r="A76" s="11" t="inlineStr">
+        <is>
+          <t>SAN797979</t>
+        </is>
+      </c>
+      <c r="B76" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C76" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 21:53:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="12" customHeight="1" s="9">
+      <c r="A77" s="11" t="inlineStr">
+        <is>
+          <t>SAN323233</t>
+        </is>
+      </c>
+      <c r="B77" s="11" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C77" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 22:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="12" customHeight="1" s="9">
+      <c r="A78" s="11" t="inlineStr">
+        <is>
+          <t>SAN632546</t>
+        </is>
+      </c>
+      <c r="B78" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C78" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 22:25:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="12" customHeight="1" s="9">
+      <c r="A79" s="11" t="inlineStr">
+        <is>
+          <t>SAN642456</t>
+        </is>
+      </c>
+      <c r="B79" s="11" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C79" s="11" t="inlineStr">
+        <is>
+          <t>2024-02-04 22:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="12" customHeight="1" s="9">
+      <c r="A80" s="11" t="inlineStr">
+        <is>
+          <t>SAN000666</t>
+        </is>
+      </c>
+      <c r="B80" s="11" t="inlineStr">
         <is>
           <t>Laptop x360 G8</t>
         </is>
       </c>
-      <c r="C53" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:51:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" ht="12" customHeight="1" s="9">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>SAN106014</t>
-        </is>
-      </c>
-      <c r="B54" s="8" t="inlineStr">
-        <is>
-          <t>Laptop x360 G8</t>
-        </is>
-      </c>
-      <c r="C54" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:52:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="12" customHeight="1" s="9">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>SAN106026</t>
-        </is>
-      </c>
-      <c r="B55" s="8" t="inlineStr">
-        <is>
-          <t>Laptop x360 G8</t>
-        </is>
-      </c>
-      <c r="C55" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:52:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" ht="12" customHeight="1" s="9">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>SAN106008</t>
-        </is>
-      </c>
-      <c r="B56" s="8" t="inlineStr">
-        <is>
-          <t>Laptop x360 G8</t>
-        </is>
-      </c>
-      <c r="C56" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-10 16:52:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="12" customHeight="1" s="9">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>SAN111111</t>
-        </is>
-      </c>
-      <c r="B57" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C57" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-11 12:06:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="12" customHeight="1" s="9">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>SAN120950</t>
-        </is>
-      </c>
-      <c r="B58" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G9</t>
-        </is>
-      </c>
-      <c r="C58" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-12 10:54:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="12" customHeight="1" s="9">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>SAN120864</t>
-        </is>
-      </c>
-      <c r="B59" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G9</t>
-        </is>
-      </c>
-      <c r="C59" s="8" t="inlineStr">
-        <is>
-          <t>2024-01-12 10:54:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="12" customHeight="1" s="9">
-      <c r="A60" s="12" t="inlineStr">
-        <is>
-          <t>SAN467985</t>
-        </is>
-      </c>
-      <c r="B60" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C60" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 19:51:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="12" customHeight="1" s="9">
-      <c r="A61" s="12" t="inlineStr">
-        <is>
-          <t>SAN154856</t>
-        </is>
-      </c>
-      <c r="B61" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C61" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 19:51:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" ht="12" customHeight="1" s="9">
-      <c r="A62" s="12" t="inlineStr">
-        <is>
-          <t>SAN354687</t>
-        </is>
-      </c>
-      <c r="B62" s="12" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C62" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 19:51:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" ht="12" customHeight="1" s="9">
-      <c r="A63" s="12" t="inlineStr">
-        <is>
-          <t>SAN868686</t>
-        </is>
-      </c>
-      <c r="B63" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C63" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 20:27:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" ht="12" customHeight="1" s="9">
-      <c r="A64" s="12" t="inlineStr">
-        <is>
-          <t>SAN474747</t>
-        </is>
-      </c>
-      <c r="B64" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C64" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 20:27:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" ht="12" customHeight="1" s="9">
-      <c r="A65" s="12" t="inlineStr">
-        <is>
-          <t>SAN32323</t>
-        </is>
-      </c>
-      <c r="B65" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C65" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:00:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="66" ht="12" customHeight="1" s="9">
-      <c r="A66" s="12" t="inlineStr">
-        <is>
-          <t>SAN387876</t>
-        </is>
-      </c>
-      <c r="B66" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C66" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:17:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="67" ht="12" customHeight="1" s="9">
-      <c r="A67" s="12" t="inlineStr">
-        <is>
-          <t>SAN747474</t>
-        </is>
-      </c>
-      <c r="B67" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C67" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:17:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="68" ht="12" customHeight="1" s="9">
-      <c r="A68" s="12" t="inlineStr">
-        <is>
-          <t>SAN737373</t>
-        </is>
-      </c>
-      <c r="B68" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C68" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:18:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="69" ht="12" customHeight="1" s="9">
-      <c r="A69" s="12" t="inlineStr">
-        <is>
-          <t>SAN85685</t>
-        </is>
-      </c>
-      <c r="B69" s="12" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C69" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:19:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="70" ht="12" customHeight="1" s="9">
-      <c r="A70" s="12" t="inlineStr">
-        <is>
-          <t>SAN353535</t>
-        </is>
-      </c>
-      <c r="B70" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C70" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:20:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="71" ht="12" customHeight="1" s="9">
-      <c r="A71" s="12" t="inlineStr">
-        <is>
-          <t>SAN777777</t>
-        </is>
-      </c>
-      <c r="B71" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C71" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:20:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="72" ht="12" customHeight="1" s="9">
-      <c r="A72" s="12" t="inlineStr">
-        <is>
-          <t>SAN153759</t>
-        </is>
-      </c>
-      <c r="B72" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C72" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:22:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" ht="12" customHeight="1" s="9">
-      <c r="A73" s="12" t="inlineStr">
-        <is>
-          <t>SAN080808</t>
-        </is>
-      </c>
-      <c r="B73" s="12" t="inlineStr">
-        <is>
-          <t>Laptop 840 G9</t>
-        </is>
-      </c>
-      <c r="C73" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:23:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="74" ht="12" customHeight="1" s="9">
-      <c r="A74" s="12" t="inlineStr">
-        <is>
-          <t>SAN255443</t>
-        </is>
-      </c>
-      <c r="B74" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C74" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:23:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="75" ht="12" customHeight="1" s="9">
-      <c r="A75" s="12" t="inlineStr">
-        <is>
-          <t>SAN323232</t>
-        </is>
-      </c>
-      <c r="B75" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C75" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:24:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="76" ht="12" customHeight="1" s="9">
-      <c r="A76" s="12" t="inlineStr">
-        <is>
-          <t>SAN111888</t>
-        </is>
-      </c>
-      <c r="B76" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C76" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:26:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="77" ht="12" customHeight="1" s="9">
-      <c r="A77" s="12" t="inlineStr">
-        <is>
-          <t>SAN797979</t>
-        </is>
-      </c>
-      <c r="B77" s="12" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C77" s="12" t="inlineStr">
-        <is>
-          <t>2024-02-04 21:53:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="78" ht="12" customHeight="1" s="9">
-      <c r="A78" s="8" t="inlineStr">
-        <is>
-          <t>SAN323233</t>
-        </is>
-      </c>
-      <c r="B78" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C78" s="8" t="inlineStr">
-        <is>
-          <t>2024-02-04 22:25:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="79" ht="12" customHeight="1" s="9">
-      <c r="A79" s="8" t="inlineStr">
-        <is>
-          <t>SAN632546</t>
-        </is>
-      </c>
-      <c r="B79" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G10</t>
-        </is>
-      </c>
-      <c r="C79" s="8" t="inlineStr">
-        <is>
-          <t>2024-02-04 22:25:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="80" ht="12" customHeight="1" s="9">
-      <c r="A80" s="8" t="inlineStr">
-        <is>
-          <t>SAN642456</t>
-        </is>
-      </c>
-      <c r="B80" s="8" t="inlineStr">
-        <is>
-          <t>Laptop 840 G9</t>
-        </is>
-      </c>
-      <c r="C80" s="8" t="inlineStr">
-        <is>
-          <t>2024-02-04 22:25:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="81" ht="12" customHeight="1" s="9">
-      <c r="A81" s="8" t="inlineStr">
-        <is>
-          <t>SAN000666</t>
-        </is>
-      </c>
-      <c r="B81" s="8" t="inlineStr">
-        <is>
-          <t>Laptop x360 G8</t>
-        </is>
-      </c>
-      <c r="C81" s="8" t="inlineStr">
+      <c r="C80" s="11" t="inlineStr">
         <is>
           <t>2024-02-04 22:25:41</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="12" customHeight="1" s="9">
-      <c r="A82" s="8" t="inlineStr">
-        <is>
-          <t>SAN232323</t>
-        </is>
-      </c>
-      <c r="B82" s="8" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C82" s="8" t="inlineStr">
-        <is>
-          <t>2024-02-04 22:46:28</t>
-        </is>
-      </c>
-    </row>
+    <row r="81" ht="12" customHeight="1" s="9"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1767,10 +1746,10 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>24</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="9">
@@ -1910,10 +1889,10 @@
         </is>
       </c>
       <c r="B13" s="8" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="8" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="9">
@@ -1989,7 +1968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A131" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
@@ -5255,23 +5234,61 @@
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="165" ht="12" customHeight="1" s="9">
+      <c r="A165" s="12" t="inlineStr">
         <is>
           <t>2024-02-04 23:01:45</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" s="12" t="inlineStr">
         <is>
           <t>Wired Headset Poly</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>add 1</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+      <c r="C165" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="12" customHeight="1" s="9">
+      <c r="A166" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-04 23:11:06</t>
+        </is>
+      </c>
+      <c r="B166" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C166" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024-02-04 23:16:42</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>SAN232323</t>
+        </is>
+      </c>
     </row>
     <row r="1048576" ht="12.75" customHeight="1" s="9"/>
   </sheetData>
@@ -5753,10 +5770,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5782,18 +5799,29 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="9">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>4343vd</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>RITM343434</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="9"/>
+    <row r="3" ht="12.75" customHeight="1" s="9">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>we34df</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>RITM3333333</t>
+        </is>
+      </c>
+    </row>
     <row r="4" ht="12.75" customHeight="1" s="9"/>
     <row r="5" ht="12.75" customHeight="1" s="9"/>
     <row r="6" ht="12.75" customHeight="1" s="9"/>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="All SANs" sheetId="1" state="visible" r:id="rId1"/>
@@ -320,11 +320,11 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="1" sqref="E1 B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="25.42" customWidth="1" style="8" min="1" max="3"/>
   </cols>
@@ -1673,19 +1673,19 @@
       </c>
     </row>
     <row r="80" ht="12" customHeight="1" s="9">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>SAN000666</t>
-        </is>
-      </c>
-      <c r="B80" s="11" t="inlineStr">
-        <is>
-          <t>Laptop x360 G8</t>
-        </is>
-      </c>
-      <c r="C80" s="11" t="inlineStr">
-        <is>
-          <t>2024-02-04 22:25:41</t>
+      <c r="A80" s="12" t="inlineStr">
+        <is>
+          <t>SAN55555</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C80" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-04 23:26:30</t>
         </is>
       </c>
     </row>
@@ -1711,10 +1711,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="E1 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1811,139 +1811,152 @@
         </is>
       </c>
       <c r="B7" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="9">
       <c r="A8" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laptop Charger </t>
+          <t>Laptop Bag</t>
         </is>
       </c>
       <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="8" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="9">
       <c r="A9" s="15" t="inlineStr">
         <is>
-          <t>Laptop x360 G8</t>
+          <t xml:space="preserve">Laptop Charger </t>
         </is>
       </c>
       <c r="B9" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="9">
       <c r="A10" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monitor 24” </t>
+          <t>Laptop x360 G8</t>
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" s="8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="9">
       <c r="A11" s="15" t="inlineStr">
         <is>
-          <t>Monitor 34” Ultrawide</t>
+          <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
       <c r="B11" s="8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" s="8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="9">
       <c r="A12" s="15" t="inlineStr">
         <is>
-          <t>USB DVD-RW Drive</t>
+          <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
       <c r="B12" s="8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="9">
       <c r="A13" s="15" t="inlineStr">
         <is>
-          <t>Wired Headset Poly</t>
+          <t>USB DVD-RW Drive</t>
         </is>
       </c>
       <c r="B13" s="8" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8" t="n">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="9">
       <c r="A14" s="15" t="inlineStr">
         <is>
-          <t>Wired Keyboard</t>
+          <t>Wired Headset Poly</t>
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="9">
       <c r="A15" s="15" t="inlineStr">
         <is>
-          <t>Wired Mouse</t>
+          <t>Wired Keyboard</t>
         </is>
       </c>
       <c r="B15" s="8" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="9">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wireless Headset Poly </t>
+          <t>Wired Mouse</t>
         </is>
       </c>
       <c r="B16" s="8" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1" s="9">
       <c r="A17" s="15" t="inlineStr">
         <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="9">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B18" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C18" s="8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1968,10 +1981,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A131" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1979,6 +1992,7 @@
     <col width="18.42" customWidth="1" style="12" min="1" max="1"/>
     <col width="20.57" customWidth="1" style="12" min="2" max="2"/>
     <col width="18.14" customWidth="1" style="12" min="4" max="4"/>
+    <col width="16.74" customWidth="1" style="12" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customFormat="1" customHeight="1" s="10">
@@ -2002,6 +2016,11 @@
           <t>SAN Number</t>
         </is>
       </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t>Serial Number</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="9">
       <c r="A2" s="12" t="inlineStr">
@@ -5268,25 +5287,99 @@
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="167" ht="12" customHeight="1" s="9">
+      <c r="A167" s="12" t="inlineStr">
         <is>
           <t>2024-02-04 23:16:42</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Desktop Mini G9</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
+      <c r="B167" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C167" s="12" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D167" s="12" t="inlineStr">
         <is>
           <t>SAN232323</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="12" customHeight="1" s="9">
+      <c r="A168" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-04 23:58:09</t>
+        </is>
+      </c>
+      <c r="B168" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C168" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="12" customHeight="1" s="9">
+      <c r="A169" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-05 00:00:55</t>
+        </is>
+      </c>
+      <c r="B169" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C169" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024-02-05 00:06:52</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>add 36</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024-02-05 00:07:11</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>SAN000666</t>
         </is>
       </c>
     </row>
@@ -5312,10 +5405,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="E1 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5346,8 +5439,12 @@
           <t>Desktop Mini G9</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
+      <c r="B2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="9">
       <c r="A3" s="15" t="inlineStr">
@@ -5423,7 +5520,7 @@
     <row r="10" ht="12.75" customHeight="1" s="9">
       <c r="A10" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monitor 24” </t>
+          <t>Laptop Bag</t>
         </is>
       </c>
       <c r="B10" s="8" t="n"/>
@@ -5432,7 +5529,7 @@
     <row r="11" ht="12.75" customHeight="1" s="9">
       <c r="A11" s="15" t="inlineStr">
         <is>
-          <t>Monitor 34” Ultrawide</t>
+          <t xml:space="preserve">Monitor 24” </t>
         </is>
       </c>
       <c r="B11" s="8" t="n"/>
@@ -5441,7 +5538,7 @@
     <row r="12" ht="12.75" customHeight="1" s="9">
       <c r="A12" s="15" t="inlineStr">
         <is>
-          <t>USB DVD-RW Drive</t>
+          <t>Monitor 34” Ultrawide</t>
         </is>
       </c>
       <c r="B12" s="8" t="n"/>
@@ -5450,63 +5547,72 @@
     <row r="13" ht="12.75" customHeight="1" s="9">
       <c r="A13" s="15" t="inlineStr">
         <is>
-          <t>Wired Headset Poly</t>
-        </is>
-      </c>
-      <c r="B13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>10</v>
-      </c>
+          <t>USB DVD-RW Drive</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n"/>
+      <c r="C13" s="8" t="n"/>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="9">
       <c r="A14" s="15" t="inlineStr">
         <is>
-          <t>Wired Keyboard</t>
+          <t>Wired Headset Poly</t>
         </is>
       </c>
       <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="9">
       <c r="A15" s="15" t="inlineStr">
         <is>
-          <t>Wired Mouse</t>
+          <t>Wired Keyboard</t>
         </is>
       </c>
       <c r="B15" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="8" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="9">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wireless Headset Poly </t>
+          <t>Wired Mouse</t>
         </is>
       </c>
       <c r="B16" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="8" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1" s="9">
       <c r="A17" s="15" t="inlineStr">
         <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="9">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
           <t>Wireless KB &amp; Mouse</t>
         </is>
       </c>
-      <c r="B17" s="8" t="n"/>
-      <c r="C17" s="8" t="n"/>
+      <c r="B18" s="8" t="n"/>
+      <c r="C18" s="8" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -5529,10 +5635,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5562,6 +5668,11 @@
           <t>SAN Number</t>
         </is>
       </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t>Serial Number</t>
+        </is>
+      </c>
       <c r="F1" s="13" t="n"/>
     </row>
     <row r="2" ht="12" customHeight="1" s="9">
@@ -5732,9 +5843,64 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" s="9"/>
-    <row r="12" ht="12.75" customHeight="1" s="9"/>
-    <row r="13" ht="12.75" customHeight="1" s="9"/>
+    <row r="11" ht="12.75" customHeight="1" s="9">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-04 23:26:30</t>
+        </is>
+      </c>
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>SAN55555</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="9">
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-04 23:26:51</t>
+        </is>
+      </c>
+      <c r="B12" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D12" s="12" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="9">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-04 23:27:10</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D13" s="12" t="n"/>
+    </row>
     <row r="14" ht="12.75" customHeight="1" s="9"/>
     <row r="15" ht="12.75" customHeight="1" s="9"/>
     <row r="16" ht="12.75" customHeight="1" s="9"/>
@@ -5770,15 +5936,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="E1 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="12.57" customWidth="1" style="12" min="2" max="2"/>
+    <col width="11.53" customWidth="1" style="12" min="16384" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="13">
@@ -5792,11 +5959,6 @@
           <t>ServiceNow #</t>
         </is>
       </c>
-      <c r="C1" s="13" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="9">
       <c r="A2" s="12" t="inlineStr">
@@ -5822,11 +5984,66 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="9"/>
-    <row r="5" ht="12.75" customHeight="1" s="9"/>
-    <row r="6" ht="12.75" customHeight="1" s="9"/>
-    <row r="7" ht="12.75" customHeight="1" s="9"/>
-    <row r="8" ht="12.75" customHeight="1" s="9"/>
+    <row r="4" ht="12.75" customHeight="1" s="9">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>4545rt</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>TASK233445</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="9">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>55555h</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>RITM454545</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="9">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>54545j</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>TASK-676767</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="9">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>ji7878</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>TASK789456</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="9">
+      <c r="A8" s="12" t="inlineStr">
+        <is>
+          <t>34343f</t>
+        </is>
+      </c>
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>TASK4545454</t>
+        </is>
+      </c>
+    </row>
     <row r="9" ht="12.75" customHeight="1" s="9"/>
     <row r="10" ht="12.75" customHeight="1" s="9"/>
     <row r="11" ht="12.75" customHeight="1" s="9"/>
@@ -5844,8 +6061,7 @@
     <row r="23" ht="12.75" customHeight="1" s="9"/>
     <row r="24" ht="12.75" customHeight="1" s="9"/>
     <row r="25" ht="12.75" customHeight="1" s="9"/>
-    <row r="26" ht="12.75" customHeight="1" s="9"/>
-    <row r="1048576" ht="12.75" customHeight="1" s="9"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="9"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -318,7 +318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B99" activeCellId="1" sqref="E1 B99"/>
@@ -1689,7 +1689,23 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="12" customHeight="1" s="9"/>
+    <row r="81" ht="12" customHeight="1" s="9">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SAN43434</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2024-02-05 07:51:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1811,10 +1827,10 @@
         </is>
       </c>
       <c r="B7" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="n">
         <v>5</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="9">
@@ -1902,10 +1918,10 @@
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="9">
@@ -1981,7 +1997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -5344,42 +5360,100 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="12" t="inlineStr">
         <is>
           <t>2024-02-05 00:06:52</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="12" t="inlineStr">
         <is>
           <t>Laptop Bag</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="12" t="inlineStr">
         <is>
           <t>add 36</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" s="12" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="12" t="inlineStr">
         <is>
           <t>2024-02-05 00:07:11</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="12" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="12" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D171" s="12" t="inlineStr">
         <is>
           <t>SAN000666</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-05 07:47:14</t>
+        </is>
+      </c>
+      <c r="B172" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C172" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D172" s="12" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-05 07:49:22</t>
+        </is>
+      </c>
+      <c r="B173" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C173" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D173" s="12" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-02-05 07:51:00</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>SAN43434</t>
         </is>
       </c>
     </row>

--- a/EUC_Perth_Assets.xlsx
+++ b/EUC_Perth_Assets.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="All SANs" sheetId="1" state="visible" r:id="rId1"/>
@@ -318,10 +318,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B99" activeCellId="1" sqref="E1 B99"/>
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1690,19 +1690,189 @@
       </c>
     </row>
     <row r="81" ht="12" customHeight="1" s="9">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="12" t="inlineStr">
         <is>
           <t>SAN43434</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="12" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="12" t="inlineStr">
         <is>
           <t>2024-02-05 07:51:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="12.75" customHeight="1" s="9">
+      <c r="A82" s="12" t="inlineStr">
+        <is>
+          <t>SAN123445</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C82" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:40:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="12.75" customHeight="1" s="9">
+      <c r="A83" s="12" t="inlineStr">
+        <is>
+          <t>SAN455667</t>
+        </is>
+      </c>
+      <c r="B83" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C83" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:40:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="12.75" customHeight="1" s="9">
+      <c r="A84" s="12" t="inlineStr">
+        <is>
+          <t>SAN333345</t>
+        </is>
+      </c>
+      <c r="B84" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C84" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="12.75" customHeight="1" s="9">
+      <c r="A85" s="12" t="inlineStr">
+        <is>
+          <t>SAN343434</t>
+        </is>
+      </c>
+      <c r="B85" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C85" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 08:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="12" t="inlineStr">
+        <is>
+          <t>SAN333666</t>
+        </is>
+      </c>
+      <c r="B86" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C86" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 00:26:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="12" t="inlineStr">
+        <is>
+          <t>SAN565656</t>
+        </is>
+      </c>
+      <c r="B87" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C87" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 06:38:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="12" t="inlineStr">
+        <is>
+          <t>SAN132435</t>
+        </is>
+      </c>
+      <c r="B88" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C88" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 06:52:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="12" t="inlineStr">
+        <is>
+          <t>SAN222444</t>
+        </is>
+      </c>
+      <c r="B89" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C89" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 06:52:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="12" t="inlineStr">
+        <is>
+          <t>SAN112233</t>
+        </is>
+      </c>
+      <c r="B90" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C90" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 07:57:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="12" t="inlineStr">
+        <is>
+          <t>SAN344556</t>
+        </is>
+      </c>
+      <c r="B91" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C91" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 07:57:46</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1900,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="E1 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1762,10 +1932,10 @@
         </is>
       </c>
       <c r="B2" s="8" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="9">
@@ -1775,10 +1945,10 @@
         </is>
       </c>
       <c r="B3" s="8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="9">
@@ -1788,10 +1958,10 @@
         </is>
       </c>
       <c r="B4" s="8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="9">
@@ -1801,10 +1971,10 @@
         </is>
       </c>
       <c r="B5" s="8" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C5" s="8" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="9">
@@ -1814,10 +1984,10 @@
         </is>
       </c>
       <c r="B6" s="8" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="9">
@@ -1827,10 +1997,10 @@
         </is>
       </c>
       <c r="B7" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="9">
@@ -1840,10 +2010,10 @@
         </is>
       </c>
       <c r="B8" s="8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="9">
@@ -1853,10 +2023,10 @@
         </is>
       </c>
       <c r="B9" s="8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="9">
@@ -1866,10 +2036,10 @@
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="9">
@@ -1918,10 +2088,10 @@
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="9">
@@ -1934,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1" s="9">
@@ -1944,10 +2114,10 @@
         </is>
       </c>
       <c r="B16" s="8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1" s="9">
@@ -1957,10 +2127,10 @@
         </is>
       </c>
       <c r="B17" s="8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1" s="9">
@@ -1970,10 +2140,10 @@
         </is>
       </c>
       <c r="B18" s="8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1997,10 +2167,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D213" activeCellId="0" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2029,12 +2199,17 @@
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t>SAN Number</t>
+          <t>SAN #</t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t>Serial Number</t>
+          <t>Serial #</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>ServiceNow #</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5534,7 @@
         </is>
       </c>
     </row>
-    <row r="170">
+    <row r="170" ht="12" customHeight="1" s="9">
       <c r="A170" s="12" t="inlineStr">
         <is>
           <t>2024-02-05 00:06:52</t>
@@ -5375,9 +5550,8 @@
           <t>add 36</t>
         </is>
       </c>
-      <c r="D170" s="12" t="inlineStr"/>
-    </row>
-    <row r="171">
+    </row>
+    <row r="171" ht="12" customHeight="1" s="9">
       <c r="A171" s="12" t="inlineStr">
         <is>
           <t>2024-02-05 00:07:11</t>
@@ -5399,7 +5573,7 @@
         </is>
       </c>
     </row>
-    <row r="172">
+    <row r="172" ht="12" customHeight="1" s="9">
       <c r="A172" s="12" t="inlineStr">
         <is>
           <t>2024-02-05 07:47:14</t>
@@ -5415,9 +5589,8 @@
           <t>add 1</t>
         </is>
       </c>
-      <c r="D172" s="12" t="inlineStr"/>
-    </row>
-    <row r="173">
+    </row>
+    <row r="173" ht="12" customHeight="1" s="9">
       <c r="A173" s="12" t="inlineStr">
         <is>
           <t>2024-02-05 07:49:22</t>
@@ -5433,27 +5606,1757 @@
           <t>add 1</t>
         </is>
       </c>
-      <c r="D173" s="12" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    </row>
+    <row r="174" ht="12" customHeight="1" s="9">
+      <c r="A174" s="12" t="inlineStr">
         <is>
           <t>2024-02-05 07:51:00</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="12" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>add 1</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
+      <c r="C174" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D174" s="12" t="inlineStr">
         <is>
           <t>SAN43434</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="12" customHeight="1" s="9">
+      <c r="A175" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 14:46:37</t>
+        </is>
+      </c>
+      <c r="B175" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C175" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="12" customHeight="1" s="9">
+      <c r="A176" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 15:54:22</t>
+        </is>
+      </c>
+      <c r="B176" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C176" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="12" customHeight="1" s="9">
+      <c r="A177" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:36:42</t>
+        </is>
+      </c>
+      <c r="B177" s="12" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G2</t>
+        </is>
+      </c>
+      <c r="C177" s="12" t="inlineStr">
+        <is>
+          <t>subtract 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="12" customHeight="1" s="9">
+      <c r="A178" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:36:51</t>
+        </is>
+      </c>
+      <c r="B178" s="12" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G2</t>
+        </is>
+      </c>
+      <c r="C178" s="12" t="inlineStr">
+        <is>
+          <t>add 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="12" customHeight="1" s="9">
+      <c r="A179" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:36:56</t>
+        </is>
+      </c>
+      <c r="B179" s="12" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G2</t>
+        </is>
+      </c>
+      <c r="C179" s="12" t="inlineStr">
+        <is>
+          <t>subtract 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="12" customHeight="1" s="9">
+      <c r="A180" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:40:06</t>
+        </is>
+      </c>
+      <c r="B180" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C180" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D180" s="12" t="inlineStr">
+        <is>
+          <t>SAN123445</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="12" customHeight="1" s="9">
+      <c r="A181" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:40:26</t>
+        </is>
+      </c>
+      <c r="B181" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C181" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D181" s="12" t="inlineStr">
+        <is>
+          <t>SAN455667</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="12" customHeight="1" s="9">
+      <c r="A182" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:40:34</t>
+        </is>
+      </c>
+      <c r="B182" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C182" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D182" s="12" t="inlineStr">
+        <is>
+          <t>SAN333345</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="12" customHeight="1" s="9">
+      <c r="A183" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:41:28</t>
+        </is>
+      </c>
+      <c r="B183" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C183" s="12" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="12" customHeight="1" s="9">
+      <c r="A184" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:41:33</t>
+        </is>
+      </c>
+      <c r="B184" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C184" s="12" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="12" customHeight="1" s="9">
+      <c r="A185" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-12 20:43:13</t>
+        </is>
+      </c>
+      <c r="B185" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C185" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="9">
+      <c r="A186" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-16 21:22:44</t>
+        </is>
+      </c>
+      <c r="B186" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C186" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D186" s="12" t="inlineStr">
+        <is>
+          <t>TASK1234567</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="12" customHeight="1" s="9">
+      <c r="A187" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-16 21:24:48</t>
+        </is>
+      </c>
+      <c r="B187" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C187" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D187" s="12" t="inlineStr">
+        <is>
+          <t>TASK1234567</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="12" customHeight="1" s="9">
+      <c r="A188" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-16 22:39:59</t>
+        </is>
+      </c>
+      <c r="B188" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laptop Charger </t>
+        </is>
+      </c>
+      <c r="C188" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D188" s="12" t="inlineStr">
+        <is>
+          <t>TASK2345567</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="12" customHeight="1" s="9">
+      <c r="A189" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-17 10:49:17</t>
+        </is>
+      </c>
+      <c r="B189" s="12" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt G4</t>
+        </is>
+      </c>
+      <c r="C189" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D189" s="12" t="inlineStr">
+        <is>
+          <t>RITM232323</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="12" customHeight="1" s="9">
+      <c r="A190" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 08:21:12</t>
+        </is>
+      </c>
+      <c r="B190" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C190" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D190" s="12" t="inlineStr">
+        <is>
+          <t>SAN343434</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="12" customHeight="1" s="9">
+      <c r="A191" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 08:21:17</t>
+        </is>
+      </c>
+      <c r="B191" s="12" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C191" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" ht="12" customHeight="1" s="9">
+      <c r="A192" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 08:21:29</t>
+        </is>
+      </c>
+      <c r="B192" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C192" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="12" customHeight="1" s="9">
+      <c r="A193" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 11:12:32</t>
+        </is>
+      </c>
+      <c r="B193" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C193" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" ht="12" customHeight="1" s="9">
+      <c r="A194" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 16:50:03</t>
+        </is>
+      </c>
+      <c r="B194" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laptop Charger </t>
+        </is>
+      </c>
+      <c r="C194" s="12" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="F194" s="12" t="inlineStr">
+        <is>
+          <t>TASK6767676</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="12" customHeight="1" s="9">
+      <c r="A195" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 16:50:43</t>
+        </is>
+      </c>
+      <c r="B195" s="12" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C195" s="12" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="F195" s="12" t="inlineStr">
+        <is>
+          <t>TASK7878787</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="12" customHeight="1" s="9">
+      <c r="A196" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 16:50:56</t>
+        </is>
+      </c>
+      <c r="B196" s="12" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C196" s="12" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="F196" s="12" t="inlineStr">
+        <is>
+          <t>TASK4545454</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" ht="12" customHeight="1" s="9">
+      <c r="A197" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:12:10</t>
+        </is>
+      </c>
+      <c r="B197" s="12" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C197" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="F197" s="12" t="inlineStr">
+        <is>
+          <t>TASK1256890</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" ht="12" customHeight="1" s="9">
+      <c r="A198" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:13:10</t>
+        </is>
+      </c>
+      <c r="B198" s="12" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C198" s="12" t="inlineStr">
+        <is>
+          <t>add 2</t>
+        </is>
+      </c>
+      <c r="F198" s="12" t="inlineStr">
+        <is>
+          <t>TASK1325798</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" ht="12" customHeight="1" s="9">
+      <c r="A199" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:19:00</t>
+        </is>
+      </c>
+      <c r="B199" s="12" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C199" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="F199" s="12" t="inlineStr">
+        <is>
+          <t>RITM1234321</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" ht="12" customHeight="1" s="9">
+      <c r="A200" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:19:15</t>
+        </is>
+      </c>
+      <c r="B200" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C200" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="F200" s="12" t="inlineStr">
+        <is>
+          <t>TASK3335577</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="12" customHeight="1" s="9">
+      <c r="A201" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:32:55</t>
+        </is>
+      </c>
+      <c r="B201" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C201" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D201" s="12" t="inlineStr">
+        <is>
+          <t>113456</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" ht="12" customHeight="1" s="9">
+      <c r="A202" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:33:37</t>
+        </is>
+      </c>
+      <c r="B202" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C202" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="F202" s="12" t="inlineStr">
+        <is>
+          <t>TASK4556678</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" ht="12" customHeight="1" s="9">
+      <c r="A203" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:33:56</t>
+        </is>
+      </c>
+      <c r="B203" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C203" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D203" s="12" t="inlineStr">
+        <is>
+          <t>023232</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" ht="12" customHeight="1" s="9">
+      <c r="A204" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:48:46</t>
+        </is>
+      </c>
+      <c r="B204" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C204" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="E204" s="12" t="inlineStr">
+        <is>
+          <t>89898y</t>
+        </is>
+      </c>
+      <c r="F204" s="12" t="inlineStr">
+        <is>
+          <t>TASK7797765</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" ht="12" customHeight="1" s="9">
+      <c r="A205" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:51:02</t>
+        </is>
+      </c>
+      <c r="B205" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C205" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D205" s="12" t="inlineStr">
+        <is>
+          <t>485746</t>
+        </is>
+      </c>
+      <c r="F205" s="12" t="inlineStr">
+        <is>
+          <t>RITM3343456</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="12" customHeight="1" s="9">
+      <c r="A206" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:52:17</t>
+        </is>
+      </c>
+      <c r="B206" s="12" t="inlineStr">
+        <is>
+          <t>Laptop Bag</t>
+        </is>
+      </c>
+      <c r="C206" s="12" t="inlineStr">
+        <is>
+          <t>add 4</t>
+        </is>
+      </c>
+      <c r="F206" s="12" t="inlineStr">
+        <is>
+          <t>TASK334345</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" ht="12" customHeight="1" s="9">
+      <c r="A207" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:52:31</t>
+        </is>
+      </c>
+      <c r="B207" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laptop Charger </t>
+        </is>
+      </c>
+      <c r="C207" s="12" t="inlineStr">
+        <is>
+          <t>subtract 4</t>
+        </is>
+      </c>
+      <c r="F207" s="12" t="inlineStr">
+        <is>
+          <t>RITM335342</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" ht="12" customHeight="1" s="9">
+      <c r="A208" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:53:21</t>
+        </is>
+      </c>
+      <c r="B208" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C208" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D208" s="12" t="inlineStr">
+        <is>
+          <t>485746</t>
+        </is>
+      </c>
+      <c r="F208" s="12" t="inlineStr">
+        <is>
+          <t>TASK111122</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" ht="12" customHeight="1" s="9">
+      <c r="A209" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 22:24:15</t>
+        </is>
+      </c>
+      <c r="B209" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C209" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="E209" s="12" t="inlineStr">
+        <is>
+          <t>24E5R3</t>
+        </is>
+      </c>
+      <c r="F209" s="12" t="inlineStr">
+        <is>
+          <t>TASK343435</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" ht="12" customHeight="1" s="9">
+      <c r="A210" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:01:45</t>
+        </is>
+      </c>
+      <c r="B210" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C210" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D210" s="12" t="inlineStr">
+        <is>
+          <t>125045</t>
+        </is>
+      </c>
+      <c r="F210" s="12" t="inlineStr">
+        <is>
+          <t>TASK111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="211" ht="12" customHeight="1" s="9">
+      <c r="A211" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:02:34</t>
+        </is>
+      </c>
+      <c r="B211" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C211" s="12" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+      <c r="E211" s="12" t="inlineStr">
+        <is>
+          <t>4343VD</t>
+        </is>
+      </c>
+      <c r="F211" s="12" t="inlineStr">
+        <is>
+          <t>TASK111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="12" customHeight="1" s="9">
+      <c r="A212" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:02:43</t>
+        </is>
+      </c>
+      <c r="B212" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laptop Charger </t>
+        </is>
+      </c>
+      <c r="C212" s="12" t="inlineStr">
+        <is>
+          <t>subtract 2</t>
+        </is>
+      </c>
+      <c r="F212" s="12" t="inlineStr">
+        <is>
+          <t>TASK111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" ht="12" customHeight="1" s="9">
+      <c r="A213" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:08:57</t>
+        </is>
+      </c>
+      <c r="B213" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C213" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D213" s="12" t="inlineStr">
+        <is>
+          <t>125045</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" ht="12" customHeight="1" s="9">
+      <c r="A214" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:08:57</t>
+        </is>
+      </c>
+      <c r="B214" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C214" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D214" s="12" t="inlineStr">
+        <is>
+          <t>125047</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" ht="12" customHeight="1" s="9">
+      <c r="A215" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:09:47</t>
+        </is>
+      </c>
+      <c r="B215" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C215" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="E215" s="12" t="inlineStr">
+        <is>
+          <t>4343VD</t>
+        </is>
+      </c>
+    </row>
+    <row r="216" ht="12" customHeight="1" s="9">
+      <c r="A216" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:09:47</t>
+        </is>
+      </c>
+      <c r="B216" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C216" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="E216" s="12" t="inlineStr">
+        <is>
+          <t>WE34DF</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:16:19</t>
+        </is>
+      </c>
+      <c r="B217" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C217" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D217" s="12" t="inlineStr">
+        <is>
+          <t>SAN545654</t>
+        </is>
+      </c>
+      <c r="E217" s="12" t="inlineStr"/>
+      <c r="F217" s="12" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:16:19</t>
+        </is>
+      </c>
+      <c r="B218" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C218" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D218" s="12" t="inlineStr">
+        <is>
+          <t>SAN335577</t>
+        </is>
+      </c>
+      <c r="E218" s="12" t="inlineStr"/>
+      <c r="F218" s="12" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:18:53</t>
+        </is>
+      </c>
+      <c r="B219" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C219" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D219" s="12" t="inlineStr">
+        <is>
+          <t>SAN343434</t>
+        </is>
+      </c>
+      <c r="E219" s="12" t="inlineStr"/>
+      <c r="F219" s="12" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:18:53</t>
+        </is>
+      </c>
+      <c r="B220" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C220" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D220" s="12" t="inlineStr">
+        <is>
+          <t>SAN343443</t>
+        </is>
+      </c>
+      <c r="E220" s="12" t="inlineStr"/>
+      <c r="F220" s="12" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:19:09</t>
+        </is>
+      </c>
+      <c r="B221" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C221" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D221" s="12" t="inlineStr">
+        <is>
+          <t>SAN444443</t>
+        </is>
+      </c>
+      <c r="E221" s="12" t="inlineStr"/>
+      <c r="F221" s="12" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 23:19:09</t>
+        </is>
+      </c>
+      <c r="B222" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G10</t>
+        </is>
+      </c>
+      <c r="C222" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D222" s="12" t="inlineStr">
+        <is>
+          <t>SAN333334</t>
+        </is>
+      </c>
+      <c r="E222" s="12" t="inlineStr"/>
+      <c r="F222" s="12" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 07:34:13</t>
+        </is>
+      </c>
+      <c r="B223" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C223" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D223" s="12" t="inlineStr">
+        <is>
+          <t>SAN123432</t>
+        </is>
+      </c>
+      <c r="E223" s="12" t="inlineStr"/>
+      <c r="F223" s="12" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 07:34:14</t>
+        </is>
+      </c>
+      <c r="B224" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C224" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D224" s="12" t="inlineStr">
+        <is>
+          <t>SAN121223</t>
+        </is>
+      </c>
+      <c r="E224" s="12" t="inlineStr"/>
+      <c r="F224" s="12" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 09:36:36</t>
+        </is>
+      </c>
+      <c r="B225" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C225" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D225" s="12" t="inlineStr">
+        <is>
+          <t>SAN232334</t>
+        </is>
+      </c>
+      <c r="E225" s="12" t="inlineStr"/>
+      <c r="F225" s="12" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 09:36:36</t>
+        </is>
+      </c>
+      <c r="B226" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C226" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D226" s="12" t="inlineStr">
+        <is>
+          <t>SAN434332</t>
+        </is>
+      </c>
+      <c r="E226" s="12" t="inlineStr"/>
+      <c r="F226" s="12" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 19:38:54</t>
+        </is>
+      </c>
+      <c r="B227" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C227" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D227" s="12" t="inlineStr">
+        <is>
+          <t>SAN35465</t>
+        </is>
+      </c>
+      <c r="E227" s="12" t="inlineStr"/>
+      <c r="F227" s="12" t="inlineStr">
+        <is>
+          <t>TASK4958675</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 19:38:54</t>
+        </is>
+      </c>
+      <c r="B228" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C228" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D228" s="12" t="inlineStr">
+        <is>
+          <t>SAN34367</t>
+        </is>
+      </c>
+      <c r="E228" s="12" t="inlineStr"/>
+      <c r="F228" s="12" t="inlineStr">
+        <is>
+          <t>RITM0505049</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 19:39:32</t>
+        </is>
+      </c>
+      <c r="B229" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C229" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D229" s="12" t="inlineStr">
+        <is>
+          <t>SAN34367</t>
+        </is>
+      </c>
+      <c r="E229" s="12" t="inlineStr"/>
+      <c r="F229" s="12" t="inlineStr">
+        <is>
+          <t>TASK33948957</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 19:39:32</t>
+        </is>
+      </c>
+      <c r="B230" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C230" s="12" t="inlineStr">
+        <is>
+          <t>subtract 1</t>
+        </is>
+      </c>
+      <c r="D230" s="12" t="inlineStr">
+        <is>
+          <t>SAN34367</t>
+        </is>
+      </c>
+      <c r="E230" s="12" t="inlineStr"/>
+      <c r="F230" s="12" t="inlineStr">
+        <is>
+          <t>TASK434344</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 19:40:07</t>
+        </is>
+      </c>
+      <c r="B231" s="12" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C231" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D231" s="12" t="inlineStr">
+        <is>
+          <t>SAN222299</t>
+        </is>
+      </c>
+      <c r="E231" s="12" t="inlineStr"/>
+      <c r="F231" s="12" t="inlineStr">
+        <is>
+          <t>TASK888888</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 19:40:07</t>
+        </is>
+      </c>
+      <c r="B232" s="12" t="inlineStr">
+        <is>
+          <t>Laptop x360 G8</t>
+        </is>
+      </c>
+      <c r="C232" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D232" s="12" t="inlineStr">
+        <is>
+          <t>SAN222999</t>
+        </is>
+      </c>
+      <c r="E232" s="12" t="inlineStr"/>
+      <c r="F232" s="12" t="inlineStr">
+        <is>
+          <t>TASK111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 22:45:29</t>
+        </is>
+      </c>
+      <c r="B233" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C233" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D233" s="12" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 22:45:36</t>
+        </is>
+      </c>
+      <c r="B234" s="12" t="inlineStr">
+        <is>
+          <t>Wired Keyboard</t>
+        </is>
+      </c>
+      <c r="C234" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D234" s="12" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-20 22:46:09</t>
+        </is>
+      </c>
+      <c r="B235" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C235" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D235" s="12" t="inlineStr">
+        <is>
+          <t>TASK2323233</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 00:26:26</t>
+        </is>
+      </c>
+      <c r="B236" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C236" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D236" s="12" t="inlineStr">
+        <is>
+          <t>SAN333666</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 00:26:33</t>
+        </is>
+      </c>
+      <c r="B237" s="12" t="inlineStr">
+        <is>
+          <t>Wired Mouse</t>
+        </is>
+      </c>
+      <c r="C237" s="12" t="inlineStr">
+        <is>
+          <t>subtract 4</t>
+        </is>
+      </c>
+      <c r="D237" s="12" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 00:26:59</t>
+        </is>
+      </c>
+      <c r="B238" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C238" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D238" s="12" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 00:37:41</t>
+        </is>
+      </c>
+      <c r="B239" s="12" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt Slim</t>
+        </is>
+      </c>
+      <c r="C239" s="12" t="inlineStr">
+        <is>
+          <t>add 3</t>
+        </is>
+      </c>
+      <c r="D239" s="12" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 00:37:46</t>
+        </is>
+      </c>
+      <c r="B240" s="12" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt Slim</t>
+        </is>
+      </c>
+      <c r="C240" s="12" t="inlineStr">
+        <is>
+          <t>add 3</t>
+        </is>
+      </c>
+      <c r="D240" s="12" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 00:38:07</t>
+        </is>
+      </c>
+      <c r="B241" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C241" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D241" s="12" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 00:45:40</t>
+        </is>
+      </c>
+      <c r="B242" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C242" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D242" s="12" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 00:56:43</t>
+        </is>
+      </c>
+      <c r="B243" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C243" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D243" s="12" t="inlineStr"/>
+      <c r="E243" s="12" t="inlineStr"/>
+      <c r="F243" s="12" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 01:07:44</t>
+        </is>
+      </c>
+      <c r="B244" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C244" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D244" s="12" t="inlineStr"/>
+      <c r="E244" s="12" t="inlineStr"/>
+      <c r="F244" s="12" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 01:19:04</t>
+        </is>
+      </c>
+      <c r="B245" s="12" t="inlineStr">
+        <is>
+          <t>I00D</t>
+        </is>
+      </c>
+      <c r="C245" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D245" s="12" t="inlineStr"/>
+      <c r="E245" s="12" t="inlineStr"/>
+      <c r="F245" s="12" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 01:19:15</t>
+        </is>
+      </c>
+      <c r="B246" s="12" t="inlineStr">
+        <is>
+          <t>I01E</t>
+        </is>
+      </c>
+      <c r="C246" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D246" s="12" t="inlineStr"/>
+      <c r="E246" s="12" t="inlineStr"/>
+      <c r="F246" s="12" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 01:19:37</t>
+        </is>
+      </c>
+      <c r="B247" s="12" t="inlineStr">
+        <is>
+          <t>Dock Thunderbolt Slim</t>
+        </is>
+      </c>
+      <c r="C247" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D247" s="12" t="inlineStr"/>
+      <c r="E247" s="12" t="inlineStr"/>
+      <c r="F247" s="12" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 06:38:56</t>
+        </is>
+      </c>
+      <c r="B248" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C248" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D248" s="12" t="inlineStr">
+        <is>
+          <t>SAN565656</t>
+        </is>
+      </c>
+      <c r="E248" s="12" t="inlineStr"/>
+      <c r="F248" s="12" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 06:39:16</t>
+        </is>
+      </c>
+      <c r="B249" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C249" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D249" s="12" t="inlineStr"/>
+      <c r="E249" s="12" t="inlineStr"/>
+      <c r="F249" s="12" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 06:52:21</t>
+        </is>
+      </c>
+      <c r="B250" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C250" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D250" s="12" t="inlineStr">
+        <is>
+          <t>SAN132435</t>
+        </is>
+      </c>
+      <c r="E250" s="12" t="inlineStr"/>
+      <c r="F250" s="12" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 06:52:44</t>
+        </is>
+      </c>
+      <c r="B251" s="12" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C251" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D251" s="12" t="inlineStr">
+        <is>
+          <t>SAN222444</t>
+        </is>
+      </c>
+      <c r="E251" s="12" t="inlineStr"/>
+      <c r="F251" s="12" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 07:57:42</t>
+        </is>
+      </c>
+      <c r="B252" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C252" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D252" s="12" t="inlineStr">
+        <is>
+          <t>SAN112233</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-21 07:57:46</t>
+        </is>
+      </c>
+      <c r="B253" s="12" t="inlineStr">
+        <is>
+          <t>Desktop Mini G9</t>
+        </is>
+      </c>
+      <c r="C253" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D253" s="12" t="inlineStr">
+        <is>
+          <t>SAN344556</t>
         </is>
       </c>
     </row>
@@ -5482,7 +7385,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="E1 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5673,10 +7576,10 @@
         </is>
       </c>
       <c r="B17" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1" s="9">
@@ -5709,10 +7612,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5739,15 +7642,19 @@
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t>SAN Number</t>
+          <t>SAN #</t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t>Serial Number</t>
-        </is>
-      </c>
-      <c r="F1" s="13" t="n"/>
+          <t>Serial #</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>ServiceNow #</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="12" customHeight="1" s="9">
       <c r="A2" s="12" t="inlineStr">
@@ -5975,7 +7882,34 @@
       </c>
       <c r="D13" s="12" t="n"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="9"/>
+    <row r="14" ht="12.75" customHeight="1" s="9">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-19 20:49:29</t>
+        </is>
+      </c>
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wireless Headset Poly </t>
+        </is>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D14" s="12" t="n"/>
+      <c r="E14" s="12" t="inlineStr">
+        <is>
+          <t>78787g</t>
+        </is>
+      </c>
+      <c r="F14" s="12" t="inlineStr">
+        <is>
+          <t>TASK8898989</t>
+        </is>
+      </c>
+    </row>
     <row r="15" ht="12.75" customHeight="1" s="9"/>
     <row r="16" ht="12.75" customHeight="1" s="9"/>
     <row r="17" ht="12.75" customHeight="1" s="9"/>
@@ -6010,10 +7944,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="E1 A9"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6033,6 +7967,11 @@
           <t>ServiceNow #</t>
         </is>
       </c>
+      <c r="C1" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Notes</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="9">
       <c r="A2" s="12" t="inlineStr">
@@ -6118,24 +8057,175 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="9"/>
-    <row r="10" ht="12.75" customHeight="1" s="9"/>
-    <row r="11" ht="12.75" customHeight="1" s="9"/>
-    <row r="12" ht="12.75" customHeight="1" s="9"/>
-    <row r="13" ht="12.75" customHeight="1" s="9"/>
-    <row r="14" ht="12.75" customHeight="1" s="9"/>
-    <row r="15" ht="12.75" customHeight="1" s="9"/>
-    <row r="16" ht="12.75" customHeight="1" s="9"/>
-    <row r="17" ht="12.75" customHeight="1" s="9"/>
-    <row r="18" ht="12.75" customHeight="1" s="9"/>
-    <row r="19" ht="12.75" customHeight="1" s="9"/>
-    <row r="20" ht="12.75" customHeight="1" s="9"/>
-    <row r="21" ht="12.75" customHeight="1" s="9"/>
-    <row r="22" ht="12.75" customHeight="1" s="9"/>
-    <row r="23" ht="12.75" customHeight="1" s="9"/>
+    <row r="9" ht="12.75" customHeight="1" s="9">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>12sd23</t>
+        </is>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>Test for 2.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="9">
+      <c r="A10" s="12" t="inlineStr">
+        <is>
+          <t>34er45</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="9">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>3434er</t>
+        </is>
+      </c>
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>TASK4343434</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="9">
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t>4343vd</t>
+        </is>
+      </c>
+      <c r="B12" s="12" t="inlineStr">
+        <is>
+          <t>TASK3434343</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="9">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>df3434</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="9">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>fg67fg</t>
+        </is>
+      </c>
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t>TASK7878787</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="9">
+      <c r="A15" s="12" t="inlineStr">
+        <is>
+          <t>er3434</t>
+        </is>
+      </c>
+      <c r="B15" s="12" t="inlineStr">
+        <is>
+          <t>TASK222445</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="9">
+      <c r="A16" s="12" t="inlineStr">
+        <is>
+          <t>34df34</t>
+        </is>
+      </c>
+      <c r="B16" s="12" t="inlineStr">
+        <is>
+          <t>TASK111999</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="9">
+      <c r="A17" s="12" t="inlineStr">
+        <is>
+          <t>333j3j</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="inlineStr">
+        <is>
+          <t>TASK343434</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="9">
+      <c r="A18" s="12" t="inlineStr">
+        <is>
+          <t>333ee3</t>
+        </is>
+      </c>
+      <c r="B18" s="12" t="inlineStr">
+        <is>
+          <t>TASK333333</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1" s="9">
+      <c r="A19" s="12" t="inlineStr">
+        <is>
+          <t>3434fe</t>
+        </is>
+      </c>
+      <c r="B19" s="12" t="inlineStr">
+        <is>
+          <t>TASK343434</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" s="9">
+      <c r="A20" s="12" t="inlineStr">
+        <is>
+          <t>343332</t>
+        </is>
+      </c>
+      <c r="B20" s="12" t="inlineStr">
+        <is>
+          <t>TASK222333</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" s="9">
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>212sd7</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" s="9">
+      <c r="A22" s="12" t="inlineStr">
+        <is>
+          <t>212sd7</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="inlineStr">
+        <is>
+          <t>TASK-sdsd</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" s="9">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22ww2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TASK-erer34</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
     <row r="24" ht="12.75" customHeight="1" s="9"/>
     <row r="25" ht="12.75" customHeight="1" s="9"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="9"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="9"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
